--- a/output/251112_KUO_perturb_60_001_MOS_preStep.xlsx
+++ b/output/251112_KUO_perturb_60_001_MOS_preStep.xlsx
@@ -571,31 +571,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.461918830871582</v>
+        <v>-1.454592108726501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4952936172485352</v>
+        <v>0.4960560202598572</v>
       </c>
       <c r="E2" t="n">
-        <v>1.023616671562195</v>
+        <v>1.071790099143982</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.004613399505615234</v>
+        <v>-0.004374980926513672</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009149312973022461</v>
+        <v>0.0004857778549194336</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0002026557922363281</v>
+        <v>0.0003099441528320312</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.463284783967112</v>
+        <v>-1.455917252239843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4955645136311758</v>
+        <v>0.4962031581295265</v>
       </c>
       <c r="K2" t="n">
-        <v>1.023556668454639</v>
+        <v>1.071883978520949</v>
       </c>
       <c r="L2" t="n">
         <v>0.05014701673700905</v>
@@ -613,13 +613,13 @@
         <v>0.6343357563018799</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08117137786237313</v>
+        <v>0.07381141833862011</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1225981181782738</v>
+        <v>0.129965649905543</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1387712426707041</v>
+        <v>0.1381325981723533</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -648,31 +648,31 @@
         <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.461964964866638</v>
+        <v>-1.454635858535767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4953027665615082</v>
+        <v>0.4960608780384064</v>
       </c>
       <c r="E3" t="n">
-        <v>1.023614645004272</v>
+        <v>1.07179319858551</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.004619359970092773</v>
+        <v>-0.004404783248901367</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000737607479095459</v>
+        <v>0.0003501772880554199</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0001490116119384766</v>
+        <v>0.0003159046173095703</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.463332682759449</v>
+        <v>-1.455970028912278</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4955211602250377</v>
+        <v>0.4961669436806527</v>
       </c>
       <c r="K3" t="n">
-        <v>1.023570525072246</v>
+        <v>1.071888883335111</v>
       </c>
       <c r="L3" t="n">
         <v>0.05014805264830891</v>
@@ -690,13 +690,13 @@
         <v>0.6343392729759216</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08122130476677296</v>
+        <v>0.07386627853590222</v>
       </c>
       <c r="R3" t="n">
-        <v>0.122550338595226</v>
+        <v>0.1299129924423976</v>
       </c>
       <c r="S3" t="n">
-        <v>0.138818112750884</v>
+        <v>0.138172329295269</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -725,31 +725,31 @@
         <v>0.02</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.462011218070984</v>
+        <v>-1.454680204391479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4953083693981171</v>
+        <v>0.4960630238056183</v>
       </c>
       <c r="E4" t="n">
-        <v>1.023613691329956</v>
+        <v>1.071796417236328</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.004673004150390625</v>
+        <v>-0.004518032073974609</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003993511199951172</v>
+        <v>0.0001072883605957031</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.576278686523438e-05</v>
+        <v>0.0003337860107421875</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.463394819139324</v>
+        <v>-1.456048676848036</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4954266108159472</v>
+        <v>0.4960955205130299</v>
       </c>
       <c r="K4" t="n">
-        <v>1.02360310254627</v>
+        <v>1.071897518103831</v>
       </c>
       <c r="L4" t="n">
         <v>0.05014910663081551</v>
@@ -767,13 +767,13 @@
         <v>0.6343419551849365</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08128614957586586</v>
+        <v>0.07394785621737468</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1224891558896675</v>
+        <v>0.1298352981809554</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1389153443689893</v>
+        <v>0.1382464346719066</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -802,31 +802,31 @@
         <v>0.03</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.462058424949646</v>
+        <v>-1.454726219177246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4953107535839081</v>
+        <v>0.4960630238056183</v>
       </c>
       <c r="E5" t="n">
-        <v>1.023613929748535</v>
+        <v>1.071799874305725</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.004827976226806641</v>
+        <v>-0.004726648330688477</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000146031379699707</v>
+        <v>-6.854534149169922e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>8.344650268554688e-05</v>
+        <v>0.0003755092620849609</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.463487910747294</v>
+        <v>-1.456157879675992</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4953539911172937</v>
+        <v>0.4960422620203275</v>
       </c>
       <c r="K5" t="n">
-        <v>1.02363863691047</v>
+        <v>1.071913612781666</v>
       </c>
       <c r="L5" t="n">
         <v>0.05015035227414621</v>
@@ -844,13 +844,13 @@
         <v>0.6343448758125305</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08138399343741896</v>
+        <v>0.07406197552761376</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1223970179560145</v>
+        <v>0.1297270490273159</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1389908846952368</v>
+        <v>0.1485495969679136</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -879,31 +879,31 @@
         <v>0.04</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.46210777759552</v>
+        <v>-1.454774737358093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4953112900257111</v>
+        <v>0.4960616528987885</v>
       </c>
       <c r="E6" t="n">
-        <v>1.02361536026001</v>
+        <v>1.07180392742157</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.005036592483520508</v>
+        <v>-0.0049591064453125</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-0.0001817941665649414</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001847743988037109</v>
+        <v>0.0004112720489501953</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.463599031298004</v>
+        <v>-1.456276807389564</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4953112900257111</v>
+        <v>0.4960065890334521</v>
       </c>
       <c r="K6" t="n">
-        <v>1.023670068975722</v>
+        <v>1.071928498133314</v>
       </c>
       <c r="L6" t="n">
         <v>0.05015178008248355</v>
@@ -921,13 +921,13 @@
         <v>0.6343482732772827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08150079686779951</v>
+        <v>0.07418661436684887</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1222875663353575</v>
+        <v>0.1296097902437974</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1390369832515717</v>
+        <v>0.1485125232718859</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -956,31 +956,31 @@
         <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.462159156799316</v>
+        <v>-1.454825401306152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4953107535839081</v>
+        <v>0.496059387922287</v>
       </c>
       <c r="E7" t="n">
-        <v>1.023617625236511</v>
+        <v>1.071808099746704</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.005292892456054688</v>
+        <v>-0.005203485488891602</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0001519918441772461</v>
+        <v>-0.0003293156623840332</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003099441528320312</v>
+        <v>0.0005066394805908203</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.463726296784886</v>
+        <v>-1.456401491615617</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4952657512532414</v>
+        <v>0.4959596410842596</v>
       </c>
       <c r="K7" t="n">
-        <v>1.023709394695126</v>
+        <v>1.071961556420592</v>
       </c>
       <c r="L7" t="n">
         <v>0.05015325455056718</v>
@@ -998,13 +998,13 @@
         <v>0.6343511939048767</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08163216016123333</v>
+        <v>0.07431534787883007</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1221610161042135</v>
+        <v>0.1294858212734824</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1477705232011021</v>
+        <v>0.1484644130321203</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -1033,31 +1033,31 @@
         <v>0.06</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.462213635444641</v>
+        <v>-1.454878807067871</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4953082501888275</v>
+        <v>0.4960550665855408</v>
       </c>
       <c r="E8" t="n">
-        <v>1.023621559143066</v>
+        <v>1.071814060211182</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00565648078918457</v>
+        <v>-0.005501508712768555</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0003233551979064941</v>
+        <v>-0.0005185604095458984</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004351139068603516</v>
+        <v>0.0006198883056640625</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.463888428064354</v>
+        <v>-1.456545166009034</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4952125099363308</v>
+        <v>0.4958979991663845</v>
       </c>
       <c r="K8" t="n">
-        <v>1.023750389344583</v>
+        <v>1.072001818965115</v>
       </c>
       <c r="L8" t="n">
         <v>0.05015470675227185</v>
@@ -1075,13 +1075,13 @@
         <v>0.6343539357185364</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08179626943403434</v>
+        <v>0.07446089120961243</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1220001961269299</v>
+        <v>0.1293434581822497</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1477170434656124</v>
+        <v>0.1484025326956661</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1110,31 +1110,31 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.4622722864151</v>
+        <v>-1.454935431480408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.49530428647995</v>
+        <v>0.4960490167140961</v>
       </c>
       <c r="E9" t="n">
-        <v>1.023626327514648</v>
+        <v>1.071820497512817</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006115436553955078</v>
+        <v>-0.005871057510375977</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0003412365913391113</v>
+        <v>-0.0005781650543212891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003814697265625</v>
+        <v>0.0005543231964111328</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.464082968425454</v>
+        <v>-1.456713723524878</v>
       </c>
       <c r="J9" t="n">
-        <v>0.49520325183561</v>
+        <v>0.4958738955686</v>
       </c>
       <c r="K9" t="n">
-        <v>1.023739274540636</v>
+        <v>1.071988397167777</v>
       </c>
       <c r="L9" t="n">
         <v>0.05015608809999428</v>
@@ -1152,13 +1152,13 @@
         <v>0.6343568563461304</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08199120572872684</v>
+        <v>0.07462967819115703</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1218063710215678</v>
+        <v>0.1291756159221435</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1477087688415304</v>
+        <v>0.1483794125745204</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1187,31 +1187,31 @@
         <v>0.08</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.46233594417572</v>
+        <v>-1.454996228218079</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4953014254570007</v>
+        <v>0.4960435032844543</v>
       </c>
       <c r="E10" t="n">
-        <v>1.023629188537598</v>
+        <v>1.07182514667511</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.006490945816040039</v>
+        <v>-0.006181001663208008</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0002250075340270996</v>
+        <v>-0.0004932284355163574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001668930053710938</v>
+        <v>0.0003337860107421875</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.46425780841478</v>
+        <v>-1.456868399639516</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4952348043596412</v>
+        <v>0.4958941086989925</v>
       </c>
       <c r="K10" t="n">
-        <v>1.023678602861467</v>
+        <v>1.071926247542613</v>
       </c>
       <c r="L10" t="n">
         <v>0.05015737045076385</v>
@@ -1229,13 +1229,13 @@
         <v>0.6343597769737244</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.08216505733236898</v>
+        <v>0.07478324806313388</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1216333191715848</v>
+        <v>0.129022727946849</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1477423777258064</v>
+        <v>0.1484016820651577</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
@@ -1264,31 +1264,31 @@
         <v>0.09</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.462402105331421</v>
+        <v>-1.455059051513672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4952997863292694</v>
+        <v>0.4960391521453857</v>
       </c>
       <c r="E11" t="n">
-        <v>1.023629665374756</v>
+        <v>1.071827173233032</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.006353855133056641</v>
+        <v>-0.006103515625</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0002399086952209473</v>
+        <v>-0.0004664063453674316</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.5367431640625e-05</v>
+        <v>5.960464477539062e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.464283379233017</v>
+        <v>-1.456907753090867</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4952287532387073</v>
+        <v>0.4958978817367768</v>
       </c>
       <c r="K11" t="n">
-        <v>1.023601428618259</v>
+        <v>1.071845226959372</v>
       </c>
       <c r="L11" t="n">
         <v>0.05015865373098016</v>
@@ -1306,13 +1306,13 @@
         <v>0.6343626379966736</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08218710681874539</v>
+        <v>0.07481920145457727</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1216101325391392</v>
+        <v>0.1289857586812886</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1477396644649799</v>
+        <v>0.1484087929630494</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -1341,31 +1341,31 @@
         <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.462463021278381</v>
+        <v>-1.455118298530579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4952966272830963</v>
+        <v>0.496034175157547</v>
       </c>
       <c r="E12" t="n">
-        <v>1.023627281188965</v>
+        <v>1.071826338768005</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005519390106201172</v>
+        <v>-0.00553131103515625</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0005096197128295898</v>
+        <v>-0.0006154179573059082</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0002682209014892578</v>
+        <v>-0.0001311302185058594</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.46409722356063</v>
+        <v>-1.456793684334912</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4951457371155669</v>
+        <v>0.4958477704330886</v>
       </c>
       <c r="K12" t="n">
-        <v>1.023547865311318</v>
+        <v>1.071786620570058</v>
       </c>
       <c r="L12" t="n">
         <v>0.05016011303943557</v>
@@ -1383,13 +1383,13 @@
         <v>0.6343644261360168</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08199686991465492</v>
+        <v>0.07470141849850687</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1217998644902119</v>
+        <v>0.1291034037159304</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1476615061203886</v>
+        <v>0.1483635394379104</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -1418,31 +1418,31 @@
         <v>0.11</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.462512493133545</v>
+        <v>-1.455169677734375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4952895939350128</v>
+        <v>0.4960268437862396</v>
       </c>
       <c r="E13" t="n">
-        <v>1.023624300956726</v>
+        <v>1.071824550628662</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.00464320182800293</v>
+        <v>-0.004911422729492188</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0008925795555114746</v>
+        <v>-0.0008895993232727051</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0003159046173095703</v>
+        <v>-0.00019073486328125</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.46388727021548</v>
+        <v>-1.456657304784774</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4950253155421761</v>
+        <v>0.4957573919206181</v>
       </c>
       <c r="K13" t="n">
-        <v>1.023530766700831</v>
+        <v>1.071766778704375</v>
       </c>
       <c r="L13" t="n">
         <v>0.0501620510801466</v>
@@ -1460,13 +1460,13 @@
         <v>0.6343652606010437</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08178477730444009</v>
+        <v>0.07456321525901297</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1220138709512069</v>
+        <v>0.1292438363819126</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1475466873836068</v>
+        <v>0.1482787637620488</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -1495,31 +1495,31 @@
         <v>0.12</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.462555885314941</v>
+        <v>-1.455216526985168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4952787756919861</v>
+        <v>0.4960163831710815</v>
       </c>
       <c r="E14" t="n">
-        <v>1.023620963096619</v>
+        <v>1.07182252407074</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00432133674621582</v>
+        <v>-0.004673004150390625</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.001204013824462891</v>
+        <v>-0.001168251037597656</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0003397464752197266</v>
+        <v>-0.0001966953277587891</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.4638353633437</v>
+        <v>-1.456631939130209</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4949222866412147</v>
+        <v>0.4956625301348215</v>
       </c>
       <c r="K14" t="n">
-        <v>1.023520369651599</v>
+        <v>1.071762946773818</v>
       </c>
       <c r="L14" t="n">
         <v>0.0501643495456463</v>
@@ -1537,13 +1537,13 @@
         <v>0.6343661546707153</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08173315612806618</v>
+        <v>0.07453819447014311</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1220712614503063</v>
+        <v>0.1292746856637976</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1474495295401557</v>
+        <v>0.1481897730337625</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0.13</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.462598919868469</v>
+        <v>-1.455263137817383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4952655136585236</v>
+        <v>0.4960034787654877</v>
       </c>
       <c r="E15" t="n">
-        <v>1.023617506027222</v>
+        <v>1.071820616722107</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.003921985626220703</v>
+        <v>-0.004369020462036133</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.001576542854309082</v>
+        <v>-0.001499056816101074</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0002503395080566406</v>
+        <v>-9.5367431640625e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.463760156479398</v>
+        <v>-1.45658647595809</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4947987247776868</v>
+        <v>0.4955494275480417</v>
       </c>
       <c r="K15" t="n">
-        <v>1.023543384541418</v>
+        <v>1.071791730759963</v>
       </c>
       <c r="L15" t="n">
         <v>0.05016697803036863</v>
@@ -1614,13 +1614,13 @@
         <v>0.6343672871589661</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08165800677496841</v>
+        <v>0.07449287025908211</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1221517135233487</v>
+        <v>0.1293253940446566</v>
       </c>
       <c r="S15" t="n">
-        <v>0.147332673199165</v>
+        <v>0.14808337596952</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
@@ -1649,31 +1649,31 @@
         <v>0.14</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.462634325027466</v>
+        <v>-1.455303907394409</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4952472448348999</v>
+        <v>0.4959864020347595</v>
       </c>
       <c r="E16" t="n">
-        <v>1.023615956306458</v>
+        <v>1.071820616722107</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003045797348022461</v>
+        <v>-0.003695487976074219</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00216364860534668</v>
+        <v>-0.001989305019378662</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.192092895507812e-05</v>
+        <v>0.0001192092895507812</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.463536136438081</v>
+        <v>-1.456423238427477</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4946066234218801</v>
+        <v>0.4953838589181687</v>
       </c>
       <c r="K16" t="n">
-        <v>1.023612426711895</v>
+        <v>1.071856724174787</v>
       </c>
       <c r="L16" t="n">
         <v>0.05016955879890794</v>
@@ -1691,13 +1691,13 @@
         <v>0.6343686580657959</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0814318948029488</v>
+        <v>0.07432781261210855</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1223805019362481</v>
+        <v>0.1294933999468519</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1471477542030538</v>
+        <v>0.1479249896993424</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -1726,31 +1726,31 @@
         <v>0.15</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.46265983581543</v>
+        <v>-1.455337047576904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4952222406864166</v>
+        <v>0.4959636926651001</v>
       </c>
       <c r="E17" t="n">
-        <v>1.023617267608643</v>
+        <v>1.071823000907898</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.00247955322265625</v>
+        <v>-0.003218650817871094</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.002722442150115967</v>
+        <v>-0.002500414848327637</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001847743988037109</v>
+        <v>0.0002682209014892578</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.463393991484345</v>
+        <v>-1.456311948799254</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4944161695282986</v>
+        <v>0.4952063388451455</v>
       </c>
       <c r="K17" t="n">
-        <v>1.023671976324355</v>
+        <v>1.071904242676427</v>
       </c>
       <c r="L17" t="n">
         <v>0.05017196479533226</v>
@@ -1768,13 +1768,13 @@
         <v>0.6343698501586914</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08128703159765203</v>
+        <v>0.07421394602977295</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1225257463315119</v>
+        <v>0.1296077890166034</v>
       </c>
       <c r="S17" t="n">
-        <v>0.146964035634332</v>
+        <v>0.1477542049511789</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
@@ -1803,31 +1803,31 @@
         <v>0.16</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.462683916091919</v>
+        <v>-1.455368280410767</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4951927959918976</v>
+        <v>0.495936393737793</v>
       </c>
       <c r="E18" t="n">
-        <v>1.023619651794434</v>
+        <v>1.071825981140137</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00254511833190918</v>
+        <v>-0.003188848495483398</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.003008544445037842</v>
+        <v>-0.002847611904144287</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0002324581146240234</v>
+        <v>0.0003039836883544922</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.463437484530926</v>
+        <v>-1.456334154769946</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4943020145642893</v>
+        <v>0.4950738769619091</v>
       </c>
       <c r="K18" t="n">
-        <v>1.023688478888394</v>
+        <v>1.07191805514447</v>
       </c>
       <c r="L18" t="n">
         <v>0.05017394475464876</v>
@@ -1845,13 +1845,13 @@
         <v>0.6343713998794556</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08132717933017429</v>
+        <v>0.07423262594281002</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1224849950985909</v>
+        <v>0.1295883248595708</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1468556325185435</v>
+        <v>0.1476274949161632</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
@@ -1880,31 +1880,31 @@
         <v>0.17</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.462710738182068</v>
+        <v>-1.455400824546814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4951620697975159</v>
+        <v>0.4959067404270172</v>
       </c>
       <c r="E19" t="n">
-        <v>1.023621916770935</v>
+        <v>1.071829080581665</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.002562999725341797</v>
+        <v>-0.003093481063842773</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003601610660552979</v>
+        <v>-0.00349879264831543</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004827976226806641</v>
+        <v>0.0005364418029785156</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.463469601012918</v>
+        <v>-1.45633781294385</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4940956910404435</v>
+        <v>0.494846986690871</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0237648653507</v>
+        <v>1.071991564118723</v>
       </c>
       <c r="L19" t="n">
         <v>0.05017538054251602</v>
@@ -1922,13 +1922,13 @@
         <v>0.634373664855957</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08135300460447788</v>
+        <v>0.0742297971844916</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1224550243838107</v>
+        <v>0.129586812452879</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1466537495407335</v>
+        <v>0.1474050451911609</v>
       </c>
       <c r="T19" t="b">
         <v>0</v>
@@ -1957,31 +1957,31 @@
         <v>0.18</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.462735176086426</v>
+        <v>-1.455430150032043</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4951207637786865</v>
+        <v>0.4958664178848267</v>
       </c>
       <c r="E20" t="n">
-        <v>1.023629307746887</v>
+        <v>1.071836709976196</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.002455711364746094</v>
+        <v>-0.002920627593994141</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.004069507122039795</v>
+        <v>-0.004011392593383789</v>
       </c>
       <c r="H20" t="n">
         <v>0.0007152557373046875</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.463462272566217</v>
+        <v>-1.456314782622694</v>
       </c>
       <c r="J20" t="n">
-        <v>0.493915848435052</v>
+        <v>0.4946514021021582</v>
       </c>
       <c r="K20" t="n">
-        <v>1.023841083420613</v>
+        <v>1.072053354692274</v>
       </c>
       <c r="L20" t="n">
         <v>0.05017613566608681</v>
@@ -1999,13 +1999,13 @@
         <v>0.6343764662742615</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08133784617239172</v>
+        <v>0.07419880311152388</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1224644985977235</v>
+        <v>0.1296119885412468</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1464769467722255</v>
+        <v>0.1472125004393317</v>
       </c>
       <c r="T20" t="b">
         <v>0</v>
@@ -2034,31 +2034,31 @@
         <v>0.19</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.462759852409363</v>
+        <v>-1.455459237098694</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4950806796550751</v>
+        <v>0.4958265125751495</v>
       </c>
       <c r="E21" t="n">
-        <v>1.023636221885681</v>
+        <v>1.071843385696411</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.002449750900268555</v>
+        <v>-0.002896785736083984</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003920495510101318</v>
+        <v>-0.003947317600250244</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006437301635742188</v>
+        <v>0.0006258487701416016</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.463485184091873</v>
+        <v>-1.456336648198808</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4939198842434668</v>
+        <v>0.4946309045482964</v>
       </c>
       <c r="K21" t="n">
-        <v>1.023826819992034</v>
+        <v>1.072032949822979</v>
       </c>
       <c r="L21" t="n">
         <v>0.05017639451105183</v>
@@ -2076,13 +2076,13 @@
         <v>0.6343792080879211</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08135562919687205</v>
+        <v>0.07421530169228903</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1224433752114107</v>
+        <v>0.1295919111044757</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1464826813130163</v>
+        <v>0.147193701617846</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -2111,31 +2111,31 @@
         <v>0.2</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.462784171104431</v>
+        <v>-1.455488085746765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4950423538684845</v>
+        <v>0.4957874715328217</v>
       </c>
       <c r="E22" t="n">
-        <v>1.023642182350159</v>
+        <v>1.071849226951599</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002431869506835938</v>
+        <v>-0.002890825271606445</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003738701343536377</v>
+        <v>-0.003850460052490234</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0005543231964111328</v>
+        <v>0.0005125999450683594</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.463504208395098</v>
+        <v>-1.456363691474245</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4939353847739481</v>
+        <v>0.4946212008112706</v>
       </c>
       <c r="K22" t="n">
-        <v>1.023806308497296</v>
+        <v>1.072004488998121</v>
       </c>
       <c r="L22" t="n">
         <v>0.05017665873766397</v>
@@ -2153,13 +2153,13 @@
         <v>0.6343812346458435</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08137289542340083</v>
+        <v>0.07424031673948599</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1224257814196601</v>
+        <v>0.129566298340513</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1464988672969126</v>
+        <v>0.1471846833342351</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -2188,31 +2188,31 @@
         <v>0.21</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.4628084897995</v>
+        <v>-1.455517053604126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4950059056282043</v>
+        <v>0.4957495033740997</v>
       </c>
       <c r="E23" t="n">
-        <v>1.023647308349609</v>
+        <v>1.071853637695312</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002425909042358398</v>
+        <v>-0.00292658805847168</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003544986248016357</v>
+        <v>-0.003735721111297607</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0004410743713378906</v>
+        <v>0.0003874301910400391</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.463526762292885</v>
+        <v>-1.45640349156741</v>
       </c>
       <c r="J23" t="n">
-        <v>0.493956292445302</v>
+        <v>0.4946179860757529</v>
       </c>
       <c r="K23" t="n">
-        <v>1.023777903348407</v>
+        <v>1.071970986916521</v>
       </c>
       <c r="L23" t="n">
         <v>0.05017705444889309</v>
@@ -2230,13 +2230,13 @@
         <v>0.634382426738739</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08139685290731583</v>
+        <v>0.07428123673829089</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1224038235683207</v>
+        <v>0.1295270942937961</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1465201325961351</v>
+        <v>0.147181826226586</v>
       </c>
       <c r="T23" t="b">
         <v>0</v>
@@ -2265,31 +2265,31 @@
         <v>0.22</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.462832689285278</v>
+        <v>-1.455546617507935</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4949714541435242</v>
+        <v>0.4957127571105957</v>
       </c>
       <c r="E24" t="n">
-        <v>1.023651003837585</v>
+        <v>1.07185697555542</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002419948577880859</v>
+        <v>-0.00298619270324707</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003376603126525879</v>
+        <v>-0.003646314144134521</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0003457069396972656</v>
+        <v>0.0002980232238769531</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.463549196981383</v>
+        <v>-1.456451109197558</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4939716964838113</v>
+        <v>0.4946083204017585</v>
       </c>
       <c r="K24" t="n">
-        <v>1.023753362079886</v>
+        <v>1.071947244187119</v>
       </c>
       <c r="L24" t="n">
         <v>0.05017740883465471</v>
@@ -2307,13 +2307,13 @@
         <v>0.6343827843666077</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08142104588588098</v>
+        <v>0.07433031257621207</v>
       </c>
       <c r="R24" t="n">
-        <v>0.122382938600587</v>
+        <v>0.1294810263844117</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1465362518903818</v>
+        <v>0.1471728758083289</v>
       </c>
       <c r="T24" t="b">
         <v>0</v>
@@ -2342,31 +2342,31 @@
         <v>0.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.462856888771057</v>
+        <v>-1.455576777458191</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4949383735656738</v>
+        <v>0.495676577091217</v>
       </c>
       <c r="E25" t="n">
-        <v>1.023654222488403</v>
+        <v>1.07185959815979</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.002366304397583008</v>
+        <v>-0.003010034561157227</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.003311038017272949</v>
+        <v>-0.00365525484085083</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0003099441528320312</v>
+        <v>0.0002384185791015625</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.463557513291633</v>
+        <v>-1.456488490638351</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4939580286760525</v>
+        <v>0.4945694323234289</v>
       </c>
       <c r="K25" t="n">
-        <v>1.023745991947018</v>
+        <v>1.071931813065149</v>
       </c>
       <c r="L25" t="n">
         <v>0.05017741714345192</v>
@@ -2384,13 +2384,13 @@
         <v>0.6343826651573181</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08142858355106324</v>
+        <v>0.07436662438460241</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1223770064761287</v>
+        <v>0.1294460291294104</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1465238059778408</v>
+        <v>0.1471352096252172</v>
       </c>
       <c r="T25" t="b">
         <v>0</v>
@@ -2419,31 +2419,31 @@
         <v>0.24</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.46288001537323</v>
+        <v>-1.455606818199158</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4949052333831787</v>
+        <v>0.4956396520137787</v>
       </c>
       <c r="E26" t="n">
-        <v>1.023657202720642</v>
+        <v>1.071861743927002</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.002253055572509766</v>
+        <v>-0.002980232238769531</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.003390014171600342</v>
+        <v>-0.00378340482711792</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0003039836883544922</v>
+        <v>0.0002205371856689453</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.463547108745465</v>
+        <v>-1.456509504516148</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4939015049295835</v>
+        <v>0.49449369173436</v>
       </c>
       <c r="K26" t="n">
-        <v>1.023747207381976</v>
+        <v>1.071928542714459</v>
       </c>
       <c r="L26" t="n">
         <v>0.050177139526415</v>
@@ -2461,13 +2461,13 @@
         <v>0.6343824863433838</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.08141469217633834</v>
+        <v>0.07438393935295523</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1223895567895077</v>
+        <v>0.1294271610188256</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1464689213591032</v>
+        <v>0.1470611081638796</v>
       </c>
       <c r="T26" t="b">
         <v>0</v>
@@ -2496,31 +2496,31 @@
         <v>0.25</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.462901949882507</v>
+        <v>-1.455636382102966</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4948705732822418</v>
+        <v>0.4956009089946747</v>
       </c>
       <c r="E27" t="n">
-        <v>1.02366030216217</v>
+        <v>1.071864008903503</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.002121925354003906</v>
+        <v>-0.002896785736083984</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.003516674041748047</v>
+        <v>-0.003881752490997314</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0002920627593994141</v>
+        <v>0.0002145767211914062</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.46353021771456</v>
+        <v>-1.45651379320308</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4938293428864244</v>
+        <v>0.4944251600667953</v>
       </c>
       <c r="K27" t="n">
-        <v>1.023746777228942</v>
+        <v>1.071929002318327</v>
       </c>
       <c r="L27" t="n">
         <v>0.05017671930286305</v>
@@ -2538,13 +2538,13 @@
         <v>0.6343829035758972</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.08139198834283433</v>
+        <v>0.07438246820311334</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1224079975411774</v>
+        <v>0.1294244220526568</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1463983090367082</v>
+        <v>0.1469941262170791</v>
       </c>
       <c r="T27" t="b">
         <v>0</v>
@@ -2573,31 +2573,31 @@
         <v>0.26</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.46292245388031</v>
+        <v>-1.455664753913879</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4948348999023438</v>
+        <v>0.4955620169639587</v>
       </c>
       <c r="E28" t="n">
-        <v>1.02366304397583</v>
+        <v>1.071866035461426</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.002038478851318359</v>
+        <v>-0.002819299697875977</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.003540515899658203</v>
+        <v>-0.003807246685028076</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0002324581146240234</v>
+        <v>0.0001609325408935547</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.463526014550428</v>
+        <v>-1.456518695169752</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4937866103174021</v>
+        <v>0.4944088351940041</v>
       </c>
       <c r="K28" t="n">
-        <v>1.023731871069791</v>
+        <v>1.071914780522543</v>
       </c>
       <c r="L28" t="n">
         <v>0.05017653420997448</v>
@@ -2615,13 +2615,13 @@
         <v>0.6343846321105957</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.08138303359052323</v>
+        <v>0.07438291831202638</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1224145848911005</v>
+        <v>0.1294219042717764</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1463563811303904</v>
+        <v>0.1469786060069924</v>
       </c>
       <c r="T28" t="b">
         <v>0</v>
@@ -2650,31 +2650,31 @@
         <v>0.27</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.462942719459534</v>
+        <v>-1.455692768096924</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4947997629642487</v>
+        <v>0.4955247640609741</v>
       </c>
       <c r="E29" t="n">
-        <v>1.023664951324463</v>
+        <v>1.071867227554321</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.002002716064453125</v>
+        <v>-0.002765655517578125</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.003531575202941895</v>
+        <v>-0.003698468208312988</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0001728534698486328</v>
+        <v>0.0001192092895507812</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.463535691345965</v>
+        <v>-1.456530460999091</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4937541205752286</v>
+        <v>0.4944045303415896</v>
       </c>
       <c r="K29" t="n">
-        <v>1.023716130445613</v>
+        <v>1.071903335007001</v>
       </c>
       <c r="L29" t="n">
         <v>0.05017699467153136</v>
@@ -2692,13 +2692,13 @@
         <v>0.6343877911567688</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0813912152630246</v>
+        <v>0.07439348431675895</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1224070538627748</v>
+        <v>0.1294122842096497</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1463241894114408</v>
+        <v>0.1469745991778018</v>
       </c>
       <c r="T29" t="b">
         <v>0</v>
@@ -2727,31 +2727,31 @@
         <v>0.28</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.462962508201599</v>
+        <v>-1.455720067024231</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4947642683982849</v>
+        <v>0.4954880475997925</v>
       </c>
       <c r="E30" t="n">
-        <v>1.023666501045227</v>
+        <v>1.071868419647217</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.001901388168334961</v>
+        <v>-0.002682209014892578</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.003631412982940674</v>
+        <v>-0.003728270530700684</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001668930053710938</v>
+        <v>0.0001430511474609375</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.463525478534253</v>
+        <v>-1.456532484709522</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4936890656548074</v>
+        <v>0.4943587870172381</v>
       </c>
       <c r="K30" t="n">
-        <v>1.023715915369096</v>
+        <v>1.071911748590432</v>
       </c>
       <c r="L30" t="n">
         <v>0.05018014861276576</v>
@@ -2769,13 +2769,13 @@
         <v>0.6343922019004822</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.08138234599581601</v>
+        <v>0.07439702098881183</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1224372938351319</v>
+        <v>0.129430287659863</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1462594623165658</v>
+        <v>0.1469291836789965</v>
       </c>
       <c r="T30" t="b">
         <v>0</v>
@@ -2804,31 +2804,31 @@
         <v>0.29</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.4629807472229</v>
+        <v>-1.455746412277222</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4947271347045898</v>
+        <v>0.4954501986503601</v>
       </c>
       <c r="E31" t="n">
-        <v>1.02366828918457</v>
+        <v>1.071870088577271</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.001794099807739258</v>
+        <v>-0.00260472297668457</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.003723800182342529</v>
+        <v>-0.003775954246520996</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001549720764160156</v>
+        <v>0.0001609325408935547</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.463511951204495</v>
+        <v>-1.456535360118271</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4936245776032561</v>
+        <v>0.4943064950867339</v>
       </c>
       <c r="K31" t="n">
-        <v>1.023714173913878</v>
+        <v>1.071918833638388</v>
       </c>
       <c r="L31" t="n">
         <v>0.05019052387287282</v>
@@ -2846,13 +2846,13 @@
         <v>0.6343984007835388</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.08137099749547978</v>
+        <v>0.0744021579084985</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1225272343194914</v>
+        <v>0.1295038254057159</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1461955107068175</v>
+        <v>0.1468774281902953</v>
       </c>
       <c r="T31" t="b">
         <v>0</v>
@@ -2881,31 +2881,31 @@
         <v>0.3</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.462998390197754</v>
+        <v>-1.455772161483765</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4946897923946381</v>
+        <v>0.4954125285148621</v>
       </c>
       <c r="E32" t="n">
-        <v>1.023669600486755</v>
+        <v>1.071871638298035</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.001698732376098633</v>
+        <v>-0.002497434616088867</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.003677606582641602</v>
+        <v>-0.003698468208312988</v>
       </c>
       <c r="H32" t="n">
-        <v>7.152557373046875e-05</v>
+        <v>0.0001251697540283203</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.463501357422852</v>
+        <v>-1.456528612617402</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4936009124722324</v>
+        <v>0.4942922947954775</v>
       </c>
       <c r="K32" t="n">
-        <v>1.023690778054128</v>
+        <v>1.071909551123348</v>
       </c>
       <c r="L32" t="n">
         <v>0.05020124464839348</v>
@@ -2923,13 +2923,13 @@
         <v>0.6344068646430969</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.08136151119427419</v>
+        <v>0.07439658067990453</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1226140028371576</v>
+        <v>0.1295867476426076</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1461728886570773</v>
+        <v>0.1468642709803225</v>
       </c>
       <c r="T32" t="b">
         <v>0</v>
@@ -2958,31 +2958,31 @@
         <v>0.31</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.463014721870422</v>
+        <v>-1.455796360969543</v>
       </c>
       <c r="D33" t="n">
-        <v>0.494653582572937</v>
+        <v>0.4953762292861938</v>
       </c>
       <c r="E33" t="n">
-        <v>1.023669719696045</v>
+        <v>1.071872591972351</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.001531839370727539</v>
+        <v>-0.002306699752807617</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.003601610660552979</v>
+        <v>-0.003585219383239746</v>
       </c>
       <c r="H33" t="n">
-        <v>2.384185791015625e-05</v>
+        <v>0.0001251697540283203</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.463468274771651</v>
+        <v>-1.456495040178894</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4935872038158647</v>
+        <v>0.4942902976468549</v>
       </c>
       <c r="K33" t="n">
-        <v>1.023676778885169</v>
+        <v>1.071910504797665</v>
       </c>
       <c r="L33" t="n">
         <v>0.05021136438080376</v>
@@ -3000,13 +3000,13 @@
         <v>0.6344118118286133</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.08132855073695484</v>
+        <v>0.07436322187307763</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1227233794336711</v>
+        <v>0.1296966140264286</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1461607893261186</v>
+        <v>0.1468638831571089</v>
       </c>
       <c r="T33" t="b">
         <v>0</v>
@@ -3035,31 +3035,31 @@
         <v>0.32</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.463029026985168</v>
+        <v>-1.455818295478821</v>
       </c>
       <c r="D34" t="n">
-        <v>0.494617760181427</v>
+        <v>0.4953408241271973</v>
       </c>
       <c r="E34" t="n">
-        <v>1.023670077323914</v>
+        <v>1.071874141693115</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.001329183578491211</v>
+        <v>-0.002080202102661133</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.003622472286224365</v>
+        <v>-0.003598630428314209</v>
       </c>
       <c r="H34" t="n">
-        <v>7.748603820800781e-05</v>
+        <v>0.0002145767211914062</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.463422576778842</v>
+        <v>-1.45644837052808</v>
       </c>
       <c r="J34" t="n">
-        <v>0.493545204633871</v>
+        <v>0.4942508303994319</v>
       </c>
       <c r="K34" t="n">
-        <v>1.023693019688567</v>
+        <v>1.071939135107939</v>
       </c>
       <c r="L34" t="n">
         <v>0.05022028767589326</v>
@@ -3077,13 +3077,13 @@
         <v>0.6344078779220581</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.08128210989829059</v>
+        <v>0.07431580093377511</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1228438216510288</v>
+        <v>0.1298180279017909</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1461204590741786</v>
+        <v>0.1468260848397395</v>
       </c>
       <c r="T34" t="b">
         <v>0</v>
@@ -3112,31 +3112,31 @@
         <v>0.33</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.463041305541992</v>
+        <v>-1.455837965011597</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4945811331272125</v>
+        <v>0.4953042566776276</v>
       </c>
       <c r="E35" t="n">
-        <v>1.023671269416809</v>
+        <v>1.071876883506775</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.001186132431030273</v>
+        <v>-0.001877546310424805</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.003662705421447754</v>
+        <v>-0.003764033317565918</v>
       </c>
       <c r="H35" t="n">
-        <v>8.940696716308594e-05</v>
+        <v>0.0003159046173095703</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.46339250020092</v>
+        <v>-1.4564066573913</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4934966651980094</v>
+        <v>0.4941641638592693</v>
       </c>
       <c r="K35" t="n">
-        <v>1.023697741376025</v>
+        <v>1.071972568256376</v>
       </c>
       <c r="L35" t="n">
         <v>0.05022865324098902</v>
@@ -3154,13 +3154,13 @@
         <v>0.6344016790390015</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.0812499928871817</v>
+        <v>0.07427160555932689</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1229548413365551</v>
+        <v>0.1299406841461752</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1460730521265678</v>
+        <v>0.1467405507878276</v>
       </c>
       <c r="T35" t="b">
         <v>0</v>
@@ -3189,31 +3189,31 @@
         <v>0.34</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.463052749633789</v>
+        <v>-1.455855846405029</v>
       </c>
       <c r="D36" t="n">
-        <v>0.494544506072998</v>
+        <v>0.4952655434608459</v>
       </c>
       <c r="E36" t="n">
-        <v>1.023671865463257</v>
+        <v>1.071880459785461</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.001156330108642578</v>
+        <v>-0.001746416091918945</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.003615021705627441</v>
+        <v>-0.003924965858459473</v>
       </c>
       <c r="H36" t="n">
-        <v>5.960464477539062e-05</v>
+        <v>0.0004112720489501953</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.463395120306312</v>
+        <v>-1.456384820586785</v>
       </c>
       <c r="J36" t="n">
-        <v>0.4934741565220434</v>
+        <v>0.4940767055813702</v>
       </c>
       <c r="K36" t="n">
-        <v>1.023689513436067</v>
+        <v>1.072005030497206</v>
       </c>
       <c r="L36" t="n">
         <v>0.0502372140957128</v>
@@ -3231,13 +3231,13 @@
         <v>0.6343988180160522</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.08124920989374583</v>
+        <v>0.07424567659928713</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1230287535950552</v>
+        <v>0.1300390533145819</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1460509010784704</v>
+        <v>0.1466534501377972</v>
       </c>
       <c r="T36" t="b">
         <v>0</v>
@@ -3266,31 +3266,31 @@
         <v>0.35</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.463064432144165</v>
+        <v>-1.455872893333435</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4945088326931</v>
+        <v>0.4952257573604584</v>
       </c>
       <c r="E37" t="n">
-        <v>1.023672461509705</v>
+        <v>1.071885108947754</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.001168251037597656</v>
+        <v>-0.001674890518188477</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.003482401371002197</v>
+        <v>-0.003913044929504395</v>
       </c>
       <c r="H37" t="n">
-        <v>9.5367431640625e-05</v>
+        <v>0.0005066394805908203</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.46341033241125</v>
+        <v>-1.456380203043584</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4934777498816486</v>
+        <v>0.4940405302262506</v>
       </c>
       <c r="K37" t="n">
-        <v>1.023700698266201</v>
+        <v>1.072038565621642</v>
       </c>
       <c r="L37" t="n">
         <v>0.05024560142696899</v>
@@ -3308,13 +3308,13 @@
         <v>0.6343994140625</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08126249876635996</v>
+        <v>0.07423875576938568</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1230841133895311</v>
+        <v>0.1301142427571977</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1460537195776935</v>
+        <v>0.1466164999222955</v>
       </c>
       <c r="T37" t="b">
         <v>0</v>
@@ -3343,31 +3343,31 @@
         <v>0.36</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.463076114654541</v>
+        <v>-1.455889344215393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.494474858045578</v>
+        <v>0.4951872825622559</v>
       </c>
       <c r="E38" t="n">
-        <v>1.02367377281189</v>
+        <v>1.071890592575073</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.001215934753417969</v>
+        <v>-0.001674890518188477</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.00333935022354126</v>
+        <v>-0.003784894943237305</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001728534698486328</v>
+        <v>0.0005662441253662109</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.463436133299874</v>
+        <v>-1.456396653925542</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4934861303688717</v>
+        <v>0.4940408709396786</v>
       </c>
       <c r="K38" t="n">
-        <v>1.02372495193304</v>
+        <v>1.072062102975301</v>
       </c>
       <c r="L38" t="n">
         <v>0.05025471286698213</v>
@@ -3385,13 +3385,13 @@
         <v>0.6344039440155029</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.08129025376850249</v>
+        <v>0.07425710917809257</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1231268578423985</v>
+        <v>0.1301663372167314</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1460601629139615</v>
+        <v>0.1466149034847684</v>
       </c>
       <c r="T38" t="b">
         <v>0</v>
@@ -3420,31 +3420,31 @@
         <v>0.37</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.463088750839233</v>
+        <v>-1.455906391143799</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4944420456886292</v>
+        <v>0.4951500594615936</v>
       </c>
       <c r="E39" t="n">
-        <v>1.023675918579102</v>
+        <v>1.071896433830261</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.001347064971923828</v>
+        <v>-0.001752376556396484</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.003294646739959717</v>
+        <v>-0.003737211227416992</v>
       </c>
       <c r="H39" t="n">
-        <v>0.000286102294921875</v>
+        <v>0.0006377696990966797</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.46348759502475</v>
+        <v>-1.456437170698189</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4934665539915307</v>
+        <v>0.4940180908200882</v>
       </c>
       <c r="K39" t="n">
-        <v>1.023760628848592</v>
+        <v>1.072089608702097</v>
       </c>
       <c r="L39" t="n">
         <v>0.05026504089608075</v>
@@ -3462,13 +3462,13 @@
         <v>0.634413480758667</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.08134459333066044</v>
+        <v>0.07430048530921574</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1231434646218565</v>
+        <v>0.1301938889484175</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1460379341299279</v>
+        <v>0.1465894709584855</v>
       </c>
       <c r="T39" t="b">
         <v>0</v>
@@ -3497,31 +3497,31 @@
         <v>0.38</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.463103055953979</v>
+        <v>-1.455924391746521</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4944089651107788</v>
+        <v>0.4951125383377075</v>
       </c>
       <c r="E40" t="n">
-        <v>1.023679494857788</v>
+        <v>1.071903347969055</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.001603364944458008</v>
+        <v>-0.001889467239379883</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.003309547901153564</v>
+        <v>-0.003775954246520996</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0004470348358154297</v>
+        <v>0.0007450580596923828</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.463577786422581</v>
+        <v>-1.456496694871493</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4934290614204778</v>
+        <v>0.4939688347740813</v>
       </c>
       <c r="K40" t="n">
-        <v>1.023811854653867</v>
+        <v>1.072129019548303</v>
       </c>
       <c r="L40" t="n">
         <v>0.05027467729314239</v>
@@ -3539,13 +3539,13 @@
         <v>0.6344239115715027</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.08143311545279612</v>
+        <v>0.0743582485047501</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1231273021928365</v>
+        <v>0.1302083937439249</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1459974613266362</v>
+        <v>0.1465372346802397</v>
       </c>
       <c r="T40" t="b">
         <v>0</v>
@@ -3574,31 +3574,31 @@
         <v>0.39</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.463120818138123</v>
+        <v>-1.455944180488586</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4943758547306061</v>
+        <v>0.4950745403766632</v>
       </c>
       <c r="E41" t="n">
-        <v>1.023684859275818</v>
+        <v>1.071911334991455</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.001984834671020508</v>
+        <v>-0.00209808349609375</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.003303587436676025</v>
+        <v>-0.003822147846221924</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0006616115570068359</v>
+        <v>0.0008702278137207031</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.463708495632711</v>
+        <v>-1.456579671655747</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4933977158375861</v>
+        <v>0.4939168451751236</v>
       </c>
       <c r="K41" t="n">
-        <v>1.023880751774014</v>
+        <v>1.072174919396016</v>
       </c>
       <c r="L41" t="n">
         <v>0.05028328359389</v>
@@ -3616,13 +3616,13 @@
         <v>0.6344318985939026</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.08155810119449142</v>
+        <v>0.07443533643089596</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1230677609285682</v>
+        <v>0.130196584905532</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1459628076859595</v>
+        <v>0.146481937023497</v>
       </c>
       <c r="T41" t="b">
         <v>0</v>
@@ -3651,31 +3651,31 @@
         <v>0.4</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.4631427526474</v>
+        <v>-1.455966353416443</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4943428933620453</v>
+        <v>0.4950360953807831</v>
       </c>
       <c r="E42" t="n">
-        <v>1.023692727088928</v>
+        <v>1.07192075252533</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.002336502075195312</v>
+        <v>-0.002300739288330078</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.003285706043243408</v>
+        <v>-0.003854930400848389</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0008225440979003906</v>
+        <v>0.00095367431640625</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.46383455318157</v>
+        <v>-1.456663227253159</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4933700488608684</v>
+        <v>0.4938684706297566</v>
       </c>
       <c r="K42" t="n">
-        <v>1.023936269113713</v>
+        <v>1.072209612146766</v>
       </c>
       <c r="L42" t="n">
         <v>0.05029166761288728</v>
@@ -3693,13 +3693,13 @@
         <v>0.6344398260116577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0816793089711783</v>
+        <v>0.0745138676948965</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1230121560698336</v>
+        <v>0.1301834819982448</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1459313260119762</v>
+        <v>0.1464297477808644</v>
       </c>
       <c r="T42" t="b">
         <v>0</v>
@@ -3728,31 +3728,31 @@
         <v>0.41</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.463167548179626</v>
+        <v>-1.455990195274353</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4943101406097412</v>
+        <v>0.4949974417686462</v>
       </c>
       <c r="E43" t="n">
-        <v>1.023701310157776</v>
+        <v>1.071930408477783</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.002312660217285156</v>
+        <v>-0.002270936965942383</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.003306567668914795</v>
+        <v>-0.003886222839355469</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0007688999176025391</v>
+        <v>0.0008761882781982422</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.463852289524672</v>
+        <v>-1.456678042247899</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4933311193180807</v>
+        <v>0.4938203388112914</v>
       </c>
       <c r="K43" t="n">
-        <v>1.023928969007031</v>
+        <v>1.072195798254978</v>
       </c>
       <c r="L43" t="n">
         <v>0.05029971687254253</v>
@@ -3770,13 +3770,13 @@
         <v>0.6344431042671204</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.08169459316889395</v>
+        <v>0.07452616232663144</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1230617729753276</v>
+        <v>0.1302360202521007</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1458888201905019</v>
+        <v>0.1463780396837127</v>
       </c>
       <c r="T43" t="b">
         <v>0</v>
@@ -3805,31 +3805,31 @@
         <v>0.42</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.463189005851746</v>
+        <v>-1.456011772155762</v>
       </c>
       <c r="D44" t="n">
-        <v>0.494276762008667</v>
+        <v>0.494958370923996</v>
       </c>
       <c r="E44" t="n">
-        <v>1.02370810508728</v>
+        <v>1.071938276290894</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.001883506774902344</v>
+        <v>-0.001984834671020508</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.003354251384735107</v>
+        <v>-0.003896653652191162</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0005304813385009766</v>
+        <v>0.0006854534149169922</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.463746681792556</v>
+        <v>-1.456612961242877</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4932836223387581</v>
+        <v>0.4937781085645316</v>
       </c>
       <c r="K44" t="n">
-        <v>1.023865172045293</v>
+        <v>1.072145894143801</v>
       </c>
       <c r="L44" t="n">
         <v>0.05030721374514258</v>
@@ -3847,13 +3847,13 @@
         <v>0.6344413161277771</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.08158793427693237</v>
+        <v>0.07446010692098505</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1232398599554907</v>
+        <v>0.1303735805051698</v>
       </c>
       <c r="S44" t="n">
-        <v>0.145838909223066</v>
+        <v>0.1463333954488395</v>
       </c>
       <c r="T44" t="b">
         <v>0</v>
@@ -3882,31 +3882,31 @@
         <v>0.43</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.463205218315125</v>
+        <v>-1.456029891967773</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4942430555820465</v>
+        <v>0.4949195086956024</v>
       </c>
       <c r="E45" t="n">
-        <v>1.023711919784546</v>
+        <v>1.071944117546082</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.001412630081176758</v>
+        <v>-0.001674890518188477</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.003394484519958496</v>
+        <v>-0.003896653652191162</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0002980232238769531</v>
+        <v>0.0005364418029785156</v>
       </c>
       <c r="I45" t="n">
-        <v>-1.463623475270732</v>
+        <v>-1.456537201677922</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4932380035304905</v>
+        <v>0.4937392463361381</v>
       </c>
       <c r="K45" t="n">
-        <v>1.023800159648598</v>
+        <v>1.07210660108314</v>
       </c>
       <c r="L45" t="n">
         <v>0.05031616416108697</v>
@@ -3924,13 +3924,13 @@
         <v>0.6344447731971741</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.08146493708782043</v>
+        <v>0.07438463713191004</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1234332807488598</v>
+        <v>0.1305195543416704</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1457929923915745</v>
+        <v>0.1462942351972221</v>
       </c>
       <c r="T45" t="b">
         <v>0</v>
@@ -3959,31 +3959,31 @@
         <v>0.44</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.463217258453369</v>
+        <v>-1.456045269966125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4942088723182678</v>
+        <v>0.4948804378509521</v>
       </c>
       <c r="E46" t="n">
-        <v>1.023714065551758</v>
+        <v>1.071949005126953</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.001031160354614258</v>
+        <v>-0.001418590545654297</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003451108932495117</v>
+        <v>-0.003927946090698242</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001788139343261719</v>
+        <v>0.0004529953002929688</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.46352256838299</v>
+        <v>-1.456474948653013</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4931870546925419</v>
+        <v>0.4936906972851594</v>
       </c>
       <c r="K46" t="n">
-        <v>1.023767009470189</v>
+        <v>1.072086213447136</v>
       </c>
       <c r="L46" t="n">
         <v>0.05032650555246576</v>
@@ -4001,13 +4001,13 @@
         <v>0.6344541311264038</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.08136494713070992</v>
+        <v>0.07432332185613386</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1236052363731743</v>
+        <v>0.1306528561031519</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1457443681347722</v>
+        <v>0.1462480107273896</v>
       </c>
       <c r="T46" t="b">
         <v>0</v>
@@ -4036,31 +4036,31 @@
         <v>0.45</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.463225841522217</v>
+        <v>-1.456058263778687</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4941740334033966</v>
+        <v>0.4948409497737885</v>
       </c>
       <c r="E47" t="n">
-        <v>1.023715496063232</v>
+        <v>1.071953177452087</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.000667572021484375</v>
+        <v>-0.001162290573120117</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.003501772880554199</v>
+        <v>-0.003969669342041016</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001013278961181641</v>
+        <v>0.0003933906555175781</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.463423498817694</v>
+        <v>-1.456410311442313</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4931372150007818</v>
+        <v>0.4936385715995579</v>
       </c>
       <c r="K47" t="n">
-        <v>1.02374549761701</v>
+        <v>1.07207233204593</v>
       </c>
       <c r="L47" t="n">
         <v>0.05033664324190035</v>
@@ -4078,13 +4078,13 @@
         <v>0.6344600319862366</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.08126770727717259</v>
+        <v>0.07426047347146132</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1237764275586488</v>
+        <v>0.1307896149340302</v>
       </c>
       <c r="S47" t="n">
-        <v>0.1456981643263433</v>
+        <v>0.1461995209251194</v>
       </c>
       <c r="T47" t="b">
         <v>0</v>
@@ -4113,31 +4113,31 @@
         <v>0.46</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.463230609893799</v>
+        <v>-1.456068515777588</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4941388368606567</v>
+        <v>0.4948010444641113</v>
       </c>
       <c r="E48" t="n">
-        <v>1.02371609210968</v>
+        <v>1.071956872940063</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0002741813659667969</v>
+        <v>-0.0008702278137207031</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.003497302532196045</v>
+        <v>-0.003957748413085938</v>
       </c>
       <c r="H48" t="n">
-        <v>3.576278686523438e-05</v>
+        <v>0.0003397464752197266</v>
       </c>
       <c r="I48" t="n">
-        <v>-1.463311790568727</v>
+        <v>-1.456332100182149</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4931033420560027</v>
+        <v>0.4936022770351487</v>
       </c>
       <c r="K48" t="n">
-        <v>1.023726680893366</v>
+        <v>1.0720597791802</v>
       </c>
       <c r="L48" t="n">
         <v>0.05034609840860682</v>
@@ -4155,13 +4155,13 @@
         <v>0.6344577074050903</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.08115967830394459</v>
+        <v>0.07418588879918202</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1239616879392686</v>
+        <v>0.1309413783258466</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1456676888463164</v>
+        <v>0.1461666238254624</v>
       </c>
       <c r="T48" t="b">
         <v>0</v>
@@ -4190,31 +4190,31 @@
         <v>0.47</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.463231325149536</v>
+        <v>-1.456075668334961</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4941040873527527</v>
+        <v>0.4947617948055267</v>
       </c>
       <c r="E49" t="n">
-        <v>1.02371621131897</v>
+        <v>1.071959972381592</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0001609325408935547</v>
+        <v>-0.0005245208740234375</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.003385543823242188</v>
+        <v>-0.003823637962341309</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.980232238769531e-05</v>
+        <v>0.0002562999725341797</v>
       </c>
       <c r="I49" t="n">
-        <v>-1.463183675622948</v>
+        <v>-1.456234541126751</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4931016824971183</v>
+        <v>0.4936036482608286</v>
       </c>
       <c r="K49" t="n">
-        <v>1.023707387332564</v>
+        <v>1.072037603404853</v>
       </c>
       <c r="L49" t="n">
         <v>0.05035451026800963</v>
@@ -4232,13 +4232,13 @@
         <v>0.6344472765922546</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.08103511734216347</v>
+        <v>0.0740918904583495</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0821814878940661</v>
+        <v>0.1311140392336614</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1456691287289603</v>
+        <v>0.1461710944926707</v>
       </c>
       <c r="T49" t="b">
         <v>0</v>
@@ -4267,31 +4267,31 @@
         <v>0.48</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.463227391242981</v>
+        <v>-1.456079006195068</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4940711259841919</v>
+        <v>0.4947245717048645</v>
       </c>
       <c r="E50" t="n">
-        <v>1.023715496063232</v>
+        <v>1.071961998939514</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0006318092346191406</v>
+        <v>-0.0001311302185058594</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.003193318843841553</v>
+        <v>-0.003586709499359131</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0001251697540283203</v>
+        <v>0.0001549720764160156</v>
       </c>
       <c r="I50" t="n">
-        <v>-1.46304032273119</v>
+        <v>-1.456118724393016</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4931256358408713</v>
+        <v>0.4936381887223671</v>
       </c>
       <c r="K50" t="n">
-        <v>1.023678435320331</v>
+        <v>1.072008938627998</v>
       </c>
       <c r="L50" t="n">
         <v>0.05036148272522389</v>
@@ -4309,13 +4309,13 @@
         <v>0.6344286203384399</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.08089305270577173</v>
+        <v>0.07397746326274647</v>
       </c>
       <c r="R50" t="n">
-        <v>0.08203682370012322</v>
+        <v>0.1313057922848406</v>
       </c>
       <c r="S50" t="n">
-        <v>0.145696211316564</v>
+        <v>0.1462087641980599</v>
       </c>
       <c r="T50" t="b">
         <v>0</v>
@@ -4344,31 +4344,31 @@
         <v>0.49</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.463218688964844</v>
+        <v>-1.456078290939331</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4940402209758759</v>
+        <v>0.4946900606155396</v>
       </c>
       <c r="E51" t="n">
-        <v>1.023713707923889</v>
+        <v>1.07196307182312</v>
       </c>
       <c r="F51" t="n">
-        <v>0.001132488250732422</v>
+        <v>0.0003159046173095703</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.002992153167724609</v>
+        <v>-0.003325939178466797</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0002205371856689453</v>
+        <v>4.172325134277344e-05</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.462883377481445</v>
+        <v>-1.45598260618973</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4931542927407905</v>
+        <v>0.4936826626857788</v>
       </c>
       <c r="K51" t="n">
-        <v>1.023648410424491</v>
+        <v>1.071975709431558</v>
       </c>
       <c r="L51" t="n">
         <v>0.05036722869619936</v>
@@ -4386,13 +4386,13 @@
         <v>0.6344010829925537</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.08073845500422587</v>
+        <v>0.07384384505696412</v>
       </c>
       <c r="R51" t="n">
-        <v>0.08187856714819297</v>
+        <v>0.07497779585647812</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1457271927976295</v>
+        <v>0.1462555627426178</v>
       </c>
       <c r="T51" t="b">
         <v>0</v>
@@ -4421,31 +4421,31 @@
         <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.463204741477966</v>
+        <v>-1.456072688102722</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4940112829208374</v>
+        <v>0.4946580529212952</v>
       </c>
       <c r="E52" t="n">
-        <v>1.023711085319519</v>
+        <v>1.071962833404541</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001490116119384766</v>
+        <v>0.0006556510925292969</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.002813339233398438</v>
+        <v>-0.003093481063842773</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.0003099441528320312</v>
+        <v>-7.748603820800781e-05</v>
       </c>
       <c r="I52" t="n">
-        <v>-1.462763542157705</v>
+        <v>-1.455874097112984</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4931782986041834</v>
+        <v>0.4937210645242596</v>
       </c>
       <c r="K52" t="n">
-        <v>1.023619315860905</v>
+        <v>1.071939363560299</v>
       </c>
       <c r="L52" t="n">
         <v>0.0503722668098554</v>
@@ -4463,13 +4463,13 @@
         <v>0.6343693137168884</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08062278604293734</v>
+        <v>0.07373963074982454</v>
       </c>
       <c r="R52" t="n">
-        <v>0.08175789735942596</v>
+        <v>0.07486845231470562</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1457527185794642</v>
+        <v>0.1462954844995404</v>
       </c>
       <c r="T52" t="b">
         <v>0</v>
@@ -4498,31 +4498,31 @@
         <v>0.51</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.463188886642456</v>
+        <v>-1.45606517791748</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4939839541912079</v>
+        <v>0.4946281909942627</v>
       </c>
       <c r="E53" t="n">
-        <v>1.023707509040833</v>
+        <v>1.071961522102356</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001406669616699219</v>
+        <v>0.000667572021484375</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0026702880859375</v>
+        <v>-0.002938508987426758</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.0003755092620849609</v>
+        <v>-0.0001430511474609375</v>
       </c>
       <c r="I53" t="n">
-        <v>-1.462772394484129</v>
+        <v>-1.455862976182475</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4931933250092991</v>
+        <v>0.4937381422857106</v>
       </c>
       <c r="K53" t="n">
-        <v>1.023596326812127</v>
+        <v>1.07191819315914</v>
       </c>
       <c r="L53" t="n">
         <v>0.05037762690043301</v>
@@ -4540,13 +4540,13 @@
         <v>0.6343433856964111</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.08063228956574507</v>
+        <v>0.07372917887566319</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08176627284869209</v>
+        <v>0.07485685454703761</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1457692649030216</v>
+        <v>0.1463140821794331</v>
       </c>
       <c r="T53" t="b">
         <v>0</v>
@@ -4575,31 +4575,31 @@
         <v>0.52</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.463176608085632</v>
+        <v>-1.456059336662292</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4939578771591187</v>
+        <v>0.4945992827415466</v>
       </c>
       <c r="E54" t="n">
-        <v>1.023703575134277</v>
+        <v>1.071959972381592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0009357929229736328</v>
+        <v>0.0004172325134277344</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.002568960189819336</v>
+        <v>-0.002874433994293213</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.0003874301910400391</v>
+        <v>-0.0001549720764160156</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.462899534912508</v>
+        <v>-1.455932960577914</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4931972495309876</v>
+        <v>0.4937286417888098</v>
       </c>
       <c r="K54" t="n">
-        <v>1.023588863311009</v>
+        <v>1.071913032693108</v>
       </c>
       <c r="L54" t="n">
         <v>0.05038375305068854</v>
@@ -4617,13 +4617,13 @@
         <v>0.6343271136283875</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.08075616845127014</v>
+        <v>0.07379577944399142</v>
       </c>
       <c r="R54" t="n">
-        <v>0.08189353248636055</v>
+        <v>0.07492695815176642</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1457748285524415</v>
+        <v>0.1463062208102637</v>
       </c>
       <c r="T54" t="b">
         <v>0</v>
@@ -4652,31 +4652,31 @@
         <v>0.53</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.463170170783997</v>
+        <v>-1.456056833267212</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4939325749874115</v>
+        <v>0.4945707023143768</v>
       </c>
       <c r="E55" t="n">
-        <v>1.023699760437012</v>
+        <v>1.071958422660828</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0004947185516357422</v>
+        <v>0.00019073486328125</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.002503395080566406</v>
+        <v>-0.002846121788024902</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0004112720489501953</v>
+        <v>-0.0001847743988037109</v>
       </c>
       <c r="I55" t="n">
-        <v>-1.46302369260967</v>
+        <v>-1.455999061342925</v>
       </c>
       <c r="J55" t="n">
-        <v>0.493191360129372</v>
+        <v>0.4937086368816515</v>
       </c>
       <c r="K55" t="n">
-        <v>1.02357798942462</v>
+        <v>1.071902456109174</v>
       </c>
       <c r="L55" t="n">
         <v>0.05039133446425836</v>
@@ -4694,13 +4694,13 @@
         <v>0.6343189477920532</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.08087855670972176</v>
+        <v>0.07385997444555445</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08201840543925965</v>
+        <v>0.0749937741725144</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1457706676855243</v>
+        <v>0.1462879444378038</v>
       </c>
       <c r="T55" t="b">
         <v>0</v>
@@ -4729,31 +4729,31 @@
         <v>0.54</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.4631667137146</v>
+        <v>-1.456055521965027</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4939078092575073</v>
+        <v>0.4945423603057861</v>
       </c>
       <c r="E56" t="n">
-        <v>1.023695349693298</v>
+        <v>1.071956276893616</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0004470348358154297</v>
+        <v>0.0002145767211914062</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.002436339855194092</v>
+        <v>-0.002776086330413818</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.0004529953002929688</v>
+        <v>-0.0002264976501464844</v>
       </c>
       <c r="I56" t="n">
-        <v>-1.463034353918521</v>
+        <v>-1.455990528550203</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4931864483688796</v>
+        <v>0.49370150800151</v>
       </c>
       <c r="K56" t="n">
-        <v>1.023561225099939</v>
+        <v>1.071887672733524</v>
       </c>
       <c r="L56" t="n">
         <v>0.05039951433138157</v>
@@ -4771,13 +4771,13 @@
         <v>0.6343121528625488</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.08089134470886</v>
+        <v>0.07385353838464177</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08203002042242735</v>
+        <v>0.07498619505410975</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1457675142620528</v>
+        <v>0.1462825738946832</v>
       </c>
       <c r="T56" t="b">
         <v>0</v>
@@ -4806,31 +4806,31 @@
         <v>0.55</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.46316123008728</v>
+        <v>-1.456052541732788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4938838481903076</v>
+        <v>0.4945151805877686</v>
       </c>
       <c r="E57" t="n">
-        <v>1.023690700531006</v>
+        <v>1.071953892707825</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0007510185241699219</v>
+        <v>0.0004112720489501953</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.00232011079788208</v>
+        <v>-0.002625584602355957</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.0005125999450683594</v>
+        <v>-0.0002741813659667969</v>
       </c>
       <c r="I57" t="n">
-        <v>-1.462938865629869</v>
+        <v>-1.455927971021044</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4931969008486603</v>
+        <v>0.4937199139425004</v>
       </c>
       <c r="K57" t="n">
-        <v>1.023538927964836</v>
+        <v>1.071870845566662</v>
       </c>
       <c r="L57" t="n">
         <v>0.05040704667412221</v>
@@ -4848,13 +4848,13 @@
         <v>0.634300172328949</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.08079834685852004</v>
+        <v>0.0737935443603646</v>
       </c>
       <c r="R57" t="n">
-        <v>0.08193488976164343</v>
+        <v>0.07492399515281845</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1457794568579529</v>
+        <v>0.146302469951793</v>
       </c>
       <c r="T57" t="b">
         <v>0</v>
@@ -4883,31 +4883,31 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.463151693344116</v>
+        <v>-1.456047296524048</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4938614070415497</v>
+        <v>0.494489848613739</v>
       </c>
       <c r="E58" t="n">
-        <v>1.023685097694397</v>
+        <v>1.071950793266296</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0009834766387939453</v>
+        <v>0.0005543231964111328</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.002200901508331299</v>
+        <v>-0.00247955322265625</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.0005602836608886719</v>
+        <v>-0.0003278255462646484</v>
       </c>
       <c r="I58" t="n">
-        <v>-1.462860501792744</v>
+        <v>-1.455879396869088</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4932097556455233</v>
+        <v>0.4937388135980034</v>
       </c>
       <c r="K58" t="n">
-        <v>1.023519206749979</v>
+        <v>1.071851497771428</v>
       </c>
       <c r="L58" t="n">
         <v>0.05041406870433285</v>
@@ -4925,13 +4925,13 @@
         <v>0.6342878341674805</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.08071988770569687</v>
+        <v>0.07374493880359019</v>
       </c>
       <c r="R58" t="n">
-        <v>0.08185628750593943</v>
+        <v>0.07487518258228354</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1457933249337771</v>
+        <v>0.1463223828862572</v>
       </c>
       <c r="T58" t="b">
         <v>0</v>
@@ -4960,31 +4960,31 @@
         <v>0.57</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.463141560554504</v>
+        <v>-1.45604145526886</v>
       </c>
       <c r="D59" t="n">
-        <v>0.493839830160141</v>
+        <v>0.4944655895233154</v>
       </c>
       <c r="E59" t="n">
-        <v>1.023679494857788</v>
+        <v>1.071947336196899</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0007331371307373047</v>
+        <v>0.0004053115844726562</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.002127885818481445</v>
+        <v>-0.002424418926239014</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0005066394805908203</v>
+        <v>-0.0003278255462646484</v>
       </c>
       <c r="I59" t="n">
-        <v>-1.462924490488936</v>
+        <v>-1.455918689929749</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4932097975308074</v>
+        <v>0.4937312542044441</v>
       </c>
       <c r="K59" t="n">
-        <v>1.023529487088899</v>
+        <v>1.071848040702031</v>
       </c>
       <c r="L59" t="n">
         <v>0.0504217352512768</v>
@@ -5002,13 +5002,13 @@
         <v>0.6342800259590149</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.08078431173249759</v>
+        <v>0.0737845823041086</v>
       </c>
       <c r="R59" t="n">
-        <v>0.08192003778355228</v>
+        <v>0.07491423722436585</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1457936648422851</v>
+        <v>0.1463151215159218</v>
       </c>
       <c r="T59" t="b">
         <v>0</v>
@@ -5037,31 +5037,31 @@
         <v>0.58</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.463137030601501</v>
+        <v>-1.456039190292358</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4938188493251801</v>
+        <v>0.4944413602352142</v>
       </c>
       <c r="E60" t="n">
-        <v>1.023674964904785</v>
+        <v>1.071944236755371</v>
       </c>
       <c r="F60" t="n">
-        <v>4.172325134277344e-05</v>
+        <v>-6.556510925292969e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.002060830593109131</v>
+        <v>-0.002411007881164551</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.0004470348358154297</v>
+        <v>-0.0003278255462646484</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.463124677020534</v>
+        <v>-1.456059049391332</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4932086706652583</v>
+        <v>0.4937110870047694</v>
       </c>
       <c r="K60" t="n">
-        <v>1.023542605108707</v>
+        <v>1.071844941260502</v>
       </c>
       <c r="L60" t="n">
         <v>0.05043025717861838</v>
@@ -5079,13 +5079,13 @@
         <v>0.6342765092849731</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.08098879313708425</v>
+        <v>0.073929009133214</v>
       </c>
       <c r="R60" t="n">
-        <v>0.08212010510586132</v>
+        <v>0.1320959818128915</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1457914352908076</v>
+        <v>0.1462938516303187</v>
       </c>
       <c r="T60" t="b">
         <v>0</v>
@@ -5114,31 +5114,31 @@
         <v>0.59</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.463140726089478</v>
+        <v>-1.456042766571045</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4937986135482788</v>
+        <v>0.4944173693656921</v>
       </c>
       <c r="E61" t="n">
-        <v>1.023670554161072</v>
+        <v>1.071940779685974</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.0005185604095458984</v>
+        <v>-0.0004410743713378906</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.002025067806243896</v>
+        <v>-0.002396106719970703</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.0004947185516357422</v>
+        <v>-0.0003933906555175781</v>
       </c>
       <c r="I61" t="n">
-        <v>-1.463294263452929</v>
+        <v>-1.45617636414596</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4931990236720433</v>
+        <v>0.4936916095668322</v>
       </c>
       <c r="K61" t="n">
-        <v>1.023524075986745</v>
+        <v>1.071821625092132</v>
       </c>
       <c r="L61" t="n">
         <v>0.05043945729537747</v>
@@ -5156,13 +5156,13 @@
         <v>0.6342774033546448</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.08116496576664053</v>
+        <v>0.07405277254433909</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1249330085807627</v>
+        <v>0.1320509078877319</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1457790166816105</v>
+        <v>0.1462716025763995</v>
       </c>
       <c r="T61" t="b">
         <v>0</v>
@@ -5191,31 +5191,31 @@
         <v>0.6</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.463147401809692</v>
+        <v>-1.456048011779785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4937783479690552</v>
+        <v>0.4943934381008148</v>
       </c>
       <c r="E62" t="n">
-        <v>1.023665070533752</v>
+        <v>1.071936368942261</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0003099441528320312</v>
+        <v>-0.0002026557922363281</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.002108514308929443</v>
+        <v>-0.002449750900268555</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.0004947185516357422</v>
+        <v>-0.0003993511199951172</v>
       </c>
       <c r="I62" t="n">
-        <v>-1.463239171268307</v>
+        <v>-1.45610939444934</v>
       </c>
       <c r="J62" t="n">
-        <v>0.493154050930885</v>
+        <v>0.4936514299482491</v>
       </c>
       <c r="K62" t="n">
-        <v>1.023518592359426</v>
+        <v>1.071815408975784</v>
       </c>
       <c r="L62" t="n">
         <v>0.05044906696344675</v>
@@ -5233,13 +5233,13 @@
         <v>0.6342836618423462</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.08111382457950621</v>
+        <v>0.07398978643307907</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1250599839669837</v>
+        <v>0.1321897607859501</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1457309146966015</v>
+        <v>0.1462282937139657</v>
       </c>
       <c r="T62" t="b">
         <v>0</v>
@@ -5268,31 +5268,31 @@
         <v>0.61</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.463146924972534</v>
+        <v>-1.45604681968689</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4937564432621002</v>
+        <v>0.4943683743476868</v>
       </c>
       <c r="E63" t="n">
-        <v>1.023660659790039</v>
+        <v>1.071932792663574</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0005006790161132812</v>
+        <v>0.0004887580871582031</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.002248585224151611</v>
+        <v>-0.002521276473999023</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0004291534423828125</v>
+        <v>-0.0003576278686523438</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.462998682000926</v>
+        <v>-1.455898779130903</v>
       </c>
       <c r="J63" t="n">
-        <v>0.4930906734878254</v>
+        <v>0.4936047017235133</v>
       </c>
       <c r="K63" t="n">
-        <v>1.023533594385804</v>
+        <v>1.071824470305536</v>
       </c>
       <c r="L63" t="n">
         <v>0.05045867959817052</v>
@@ -5310,13 +5310,13 @@
         <v>0.6342906951904297</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.08087483404080695</v>
+        <v>0.07378084175495626</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08199661348133391</v>
+        <v>0.07489671061131098</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1456653318816853</v>
+        <v>0.1461793601173731</v>
       </c>
       <c r="T63" t="b">
         <v>0</v>
@@ -5345,31 +5345,31 @@
         <v>0.62</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.46313738822937</v>
+        <v>-1.456038236618042</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4937333762645721</v>
+        <v>0.4943430125713348</v>
       </c>
       <c r="E64" t="n">
-        <v>1.023656487464905</v>
+        <v>1.071929216384888</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001055002212524414</v>
+        <v>0.0008821487426757812</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.002242624759674072</v>
+        <v>-0.002449750900268555</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0005364418029785156</v>
+        <v>-0.0004708766937255859</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.462825019110625</v>
+        <v>-1.455771041468213</v>
       </c>
       <c r="J64" t="n">
-        <v>0.4930693712875784</v>
+        <v>0.4936010044187691</v>
       </c>
       <c r="K64" t="n">
-        <v>1.023497655709611</v>
+        <v>1.071786591946803</v>
       </c>
       <c r="L64" t="n">
         <v>0.0504677738541055</v>
@@ -5387,13 +5387,13 @@
         <v>0.6342935562133789</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.08070324206062301</v>
+        <v>0.07365535726971707</v>
       </c>
       <c r="R64" t="n">
-        <v>0.08182461952108633</v>
+        <v>0.07477064187867444</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1456422713444174</v>
+        <v>0.1461739044756081</v>
       </c>
       <c r="T64" t="b">
         <v>0</v>
@@ -5422,31 +5422,31 @@
         <v>0.63</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.463125824928284</v>
+        <v>-1.456029176712036</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4937115907669067</v>
+        <v>0.4943193793296814</v>
       </c>
       <c r="E65" t="n">
-        <v>1.023649930953979</v>
+        <v>1.0719233751297</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001096725463867188</v>
+        <v>0.0007927417755126953</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.002044439315795898</v>
+        <v>-0.002205371856689453</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.0008463859558105469</v>
+        <v>-0.000762939453125</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.462801102228571</v>
+        <v>-1.455789062151717</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4931062652995078</v>
+        <v>0.4936513914551088</v>
       </c>
       <c r="K65" t="n">
-        <v>1.023399329740071</v>
+        <v>1.07169228743255</v>
       </c>
       <c r="L65" t="n">
         <v>0.0504761717688158</v>
@@ -5464,13 +5464,13 @@
         <v>0.6342930197715759</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.08068129335316776</v>
+        <v>0.07367548582920408</v>
       </c>
       <c r="R65" t="n">
-        <v>0.08180189473192812</v>
+        <v>0.07478985465507382</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1456770791937796</v>
+        <v>0.1462222053493807</v>
       </c>
       <c r="T65" t="b">
         <v>0</v>
@@ -5499,31 +5499,31 @@
         <v>0.64</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.463115453720093</v>
+        <v>-1.456022381782532</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4936924874782562</v>
+        <v>0.494298905134201</v>
       </c>
       <c r="E66" t="n">
-        <v>1.023639559745789</v>
+        <v>1.071913957595825</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001114606857299805</v>
+        <v>0.0006973743438720703</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.001798570156097412</v>
+        <v>-0.001893937587738037</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.001192092895507812</v>
+        <v>-0.00107884407043457</v>
       </c>
       <c r="I66" t="n">
-        <v>-1.462785436628537</v>
+        <v>-1.455811153184356</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4931599598987004</v>
+        <v>0.4937252479797539</v>
       </c>
       <c r="K66" t="n">
-        <v>1.023286600289579</v>
+        <v>1.071587185149075</v>
       </c>
       <c r="L66" t="n">
         <v>0.05048379463671004</v>
@@ -5541,13 +5541,13 @@
         <v>0.6342887878417969</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.08066664910044397</v>
+        <v>0.0736988111136482</v>
       </c>
       <c r="R66" t="n">
-        <v>0.08178658675976269</v>
+        <v>0.07481230331558164</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1457283598048589</v>
+        <v>0.1462936478859124</v>
       </c>
       <c r="T66" t="b">
         <v>0</v>
@@ -5576,31 +5576,31 @@
         <v>0.65</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.463103532791138</v>
+        <v>-1.456015229225159</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4936756193637848</v>
+        <v>0.4942815005779266</v>
       </c>
       <c r="E67" t="n">
-        <v>1.023626089096069</v>
+        <v>1.071901798248291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001555681228637695</v>
+        <v>0.0009775161743164062</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.001668930053710938</v>
+        <v>-0.001689791679382324</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.001394748687744141</v>
+        <v>-0.001215934753417969</v>
       </c>
       <c r="I67" t="n">
-        <v>-1.462642920700784</v>
+        <v>-1.455719148113186</v>
       </c>
       <c r="J67" t="n">
-        <v>0.4931814761250918</v>
+        <v>0.4937696774361933</v>
       </c>
       <c r="K67" t="n">
-        <v>1.023213126532305</v>
+        <v>1.071533502230959</v>
       </c>
       <c r="L67" t="n">
         <v>0.05049118119857354</v>
@@ -5618,13 +5618,13 @@
         <v>0.6342846751213074</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.08052148376601821</v>
+        <v>0.07360441692744413</v>
       </c>
       <c r="R67" t="n">
-        <v>0.08164407083201008</v>
+        <v>0.07472029824441151</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1457475216477816</v>
+        <v>0.1463357229588831</v>
       </c>
       <c r="T67" t="b">
         <v>0</v>
@@ -5653,31 +5653,31 @@
         <v>0.66</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.46308434009552</v>
+        <v>-1.456002831459045</v>
       </c>
       <c r="D68" t="n">
-        <v>0.493659108877182</v>
+        <v>0.4942651093006134</v>
       </c>
       <c r="E68" t="n">
-        <v>1.023611664772034</v>
+        <v>1.071889638900757</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002121925354003906</v>
+        <v>0.001406669616699219</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001640617847442627</v>
+        <v>-0.001613795757293701</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.001430511474609375</v>
+        <v>-0.001180171966552734</v>
       </c>
       <c r="I68" t="n">
-        <v>-1.462456072263467</v>
+        <v>-1.455576763517426</v>
       </c>
       <c r="J68" t="n">
-        <v>0.493173348425574</v>
+        <v>0.4937763046599634</v>
       </c>
       <c r="K68" t="n">
-        <v>1.023188113424583</v>
+        <v>1.071532175119229</v>
       </c>
       <c r="L68" t="n">
         <v>0.05049916471805282</v>
@@ -5695,13 +5695,13 @@
         <v>0.6342852711677551</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.08032822963698566</v>
+        <v>0.07345582063635184</v>
       </c>
       <c r="R68" t="n">
-        <v>0.08145686476682434</v>
+        <v>0.07457755602078309</v>
       </c>
       <c r="S68" t="n">
-        <v>0.145737486599631</v>
+        <v>0.1463404428340204</v>
       </c>
       <c r="T68" t="b">
         <v>0</v>
@@ -5730,31 +5730,31 @@
         <v>0.67</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.463061094284058</v>
+        <v>-1.455987095832825</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4936428070068359</v>
+        <v>0.4942492246627808</v>
       </c>
       <c r="E69" t="n">
-        <v>1.023597478866577</v>
+        <v>1.07187819480896</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00203251838684082</v>
+        <v>0.001358985900878906</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.001530349254608154</v>
+        <v>-0.001513957977294922</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.001329183578491211</v>
+        <v>-0.00107884407043457</v>
       </c>
       <c r="I69" t="n">
-        <v>-1.462459298411221</v>
+        <v>-1.455575470872277</v>
       </c>
       <c r="J69" t="n">
-        <v>0.4931896953049272</v>
+        <v>0.4937906600137499</v>
       </c>
       <c r="K69" t="n">
-        <v>1.023203929072904</v>
+        <v>1.07155142236221</v>
       </c>
       <c r="L69" t="n">
         <v>0.05050758210921558</v>
@@ -5772,13 +5772,13 @@
         <v>0.6342859864234924</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.08032703990082367</v>
+        <v>0.07345011720053185</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08145961407741953</v>
+        <v>0.07457578653847596</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1457526413860887</v>
+        <v>0.1463536060949114</v>
       </c>
       <c r="T69" t="b">
         <v>0</v>
@@ -5807,31 +5807,31 @@
         <v>0.68</v>
       </c>
       <c r="C70" t="n">
-        <v>-1.463043689727783</v>
+        <v>-1.455975651741028</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4936285018920898</v>
+        <v>0.4942348301410675</v>
       </c>
       <c r="E70" t="n">
-        <v>1.023585081100464</v>
+        <v>1.071868062019348</v>
       </c>
       <c r="F70" t="n">
-        <v>0.001549720764160156</v>
+        <v>0.001066923141479492</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.001373887062072754</v>
+        <v>-0.001417100429534912</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.001066923141479492</v>
+        <v>-0.0008523464202880859</v>
       </c>
       <c r="I70" t="n">
-        <v>-1.462584842434711</v>
+        <v>-1.455652490039545</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4932217161188086</v>
+        <v>0.4938056027973388</v>
       </c>
       <c r="K70" t="n">
-        <v>1.023269182387156</v>
+        <v>1.071609893732689</v>
       </c>
       <c r="L70" t="n">
         <v>0.05051628705335354</v>
@@ -5849,13 +5849,13 @@
         <v>0.6342830657958984</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.08045278194263367</v>
+        <v>0.07352715168021934</v>
       </c>
       <c r="R70" t="n">
-        <v>0.08158491968233084</v>
+        <v>0.07465256728716496</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1457843045721015</v>
+        <v>0.1463681912506317</v>
       </c>
       <c r="T70" t="b">
         <v>0</v>
@@ -5884,31 +5884,31 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.463030099868774</v>
+        <v>-1.455965757369995</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4936153292655945</v>
+        <v>0.4942208826541901</v>
       </c>
       <c r="E71" t="n">
-        <v>1.023576140403748</v>
+        <v>1.071861147880554</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001507997512817383</v>
+        <v>0.001245737075805664</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.001378357410430908</v>
+        <v>-0.001478195190429688</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0005960464477539062</v>
+        <v>-0.0004291534423828125</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.46258360615667</v>
+        <v>-1.455588434489493</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4932072198943525</v>
+        <v>0.4937731502409631</v>
       </c>
       <c r="K71" t="n">
-        <v>1.023399660675643</v>
+        <v>1.071731161050908</v>
       </c>
       <c r="L71" t="n">
         <v>0.05052601005864155</v>
@@ -5926,13 +5926,13 @@
         <v>0.6342823505401611</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.08045537998717642</v>
+        <v>0.07346671169099124</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08158308735784159</v>
+        <v>0.07458791569066525</v>
       </c>
       <c r="S71" t="n">
-        <v>0.1457706130103498</v>
+        <v>0.1463365433569604</v>
       </c>
       <c r="T71" t="b">
         <v>0</v>
@@ -5961,31 +5961,31 @@
         <v>0.7</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.463013529777527</v>
+        <v>-1.455950736999512</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4936009347438812</v>
+        <v>0.4942052662372589</v>
       </c>
       <c r="E72" t="n">
-        <v>1.023573160171509</v>
+        <v>1.0718594789505</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001978874206542969</v>
+        <v>0.001835823059082031</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.001488626003265381</v>
+        <v>-0.001609325408935547</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.0001609325408935547</v>
+        <v>-3.576278686523438e-05</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.46242761708022</v>
+        <v>-1.455394682228246</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4931601766229399</v>
+        <v>0.4937178156260844</v>
       </c>
       <c r="K72" t="n">
-        <v>1.023525510644921</v>
+        <v>1.071848646714697</v>
       </c>
       <c r="L72" t="n">
         <v>0.0505363383590467</v>
@@ -6003,13 +6003,13 @@
         <v>0.6342840194702148</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.08030393340895808</v>
+        <v>0.07327737343601275</v>
       </c>
       <c r="R72" t="n">
-        <v>0.08142531014204812</v>
+        <v>0.07439237529007459</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1457250598550566</v>
+        <v>0.1462826988582011</v>
       </c>
       <c r="T72" t="b">
         <v>0</v>
@@ -6038,31 +6038,31 @@
         <v>0.71</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.462990522384644</v>
+        <v>-1.455929040908813</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4935855567455292</v>
+        <v>0.4941886961460114</v>
       </c>
       <c r="E73" t="n">
-        <v>1.02357292175293</v>
+        <v>1.071860432624817</v>
       </c>
       <c r="F73" t="n">
-        <v>0.002539157867431641</v>
+        <v>0.002324581146240234</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.001503527164459229</v>
+        <v>-0.001589953899383545</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.0001132488250732422</v>
+        <v>3.576278686523438e-05</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.462238718742918</v>
+        <v>-1.455224945581561</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4931403866313852</v>
+        <v>0.4937071129958972</v>
       </c>
       <c r="K73" t="n">
-        <v>1.02353939060459</v>
+        <v>1.071871264860621</v>
       </c>
       <c r="L73" t="n">
         <v>0.05054596747207007</v>
@@ -6080,13 +6080,13 @@
         <v>0.6342838406562805</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.08011560616599685</v>
+        <v>0.07310827723804342</v>
       </c>
       <c r="R73" t="n">
-        <v>0.08123283552605987</v>
+        <v>0.07421906236470344</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1457064023517526</v>
+        <v>0.1462731287162646</v>
       </c>
       <c r="T73" t="b">
         <v>0</v>
@@ -6115,31 +6115,31 @@
         <v>0.72</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.462962746620178</v>
+        <v>-1.455904245376587</v>
       </c>
       <c r="D74" t="n">
-        <v>0.493570864200592</v>
+        <v>0.4941734671592712</v>
       </c>
       <c r="E74" t="n">
-        <v>1.023570895195007</v>
+        <v>1.071860194206238</v>
       </c>
       <c r="F74" t="n">
-        <v>0.002700090408325195</v>
+        <v>0.002402067184448242</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0013694167137146</v>
+        <v>-0.001417100429534912</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.0002682209014892578</v>
+        <v>-0.0001013278961181641</v>
       </c>
       <c r="I74" t="n">
-        <v>-1.462163293451864</v>
+        <v>-1.455176680205093</v>
       </c>
       <c r="J74" t="n">
-        <v>0.4931654020252716</v>
+        <v>0.4937442398155426</v>
       </c>
       <c r="K74" t="n">
-        <v>1.02349147931736</v>
+        <v>1.07182950287146</v>
       </c>
       <c r="L74" t="n">
         <v>0.05055501426404163</v>
@@ -6157,13 +6157,13 @@
         <v>0.6342824101448059</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.08003821212228436</v>
+        <v>0.07305815382131733</v>
       </c>
       <c r="R74" t="n">
-        <v>0.08115252265413475</v>
+        <v>0.07416590940736345</v>
       </c>
       <c r="S74" t="n">
-        <v>0.1457320137920868</v>
+        <v>0.1463108515823577</v>
       </c>
       <c r="T74" t="b">
         <v>0</v>
@@ -6192,31 +6192,31 @@
         <v>0.73</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.462936520576477</v>
+        <v>-1.455880999565125</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4935581684112549</v>
+        <v>0.4941603541374207</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0235675573349</v>
+        <v>1.071858406066895</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00254511833190918</v>
+        <v>0.002306699752807617</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.001215934753417969</v>
+        <v>-0.00126957893371582</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.0002562999725341797</v>
+        <v>-9.5367431640625e-05</v>
       </c>
       <c r="I75" t="n">
-        <v>-1.46218295213747</v>
+        <v>-1.455182320355774</v>
       </c>
       <c r="J75" t="n">
-        <v>0.4931981497659214</v>
+        <v>0.493775809766383</v>
       </c>
       <c r="K75" t="n">
-        <v>1.023491671051815</v>
+        <v>1.071829520104751</v>
       </c>
       <c r="L75" t="n">
         <v>0.05056443440004976</v>
@@ -6234,13 +6234,13 @@
         <v>0.6342797875404358</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.08005926869860795</v>
+        <v>0.073065136694901</v>
       </c>
       <c r="R75" t="n">
-        <v>0.08116634008455281</v>
+        <v>0.07416570830285685</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1457648509397038</v>
+        <v>0.1463425109401653</v>
       </c>
       <c r="T75" t="b">
         <v>0</v>
@@ -6269,31 +6269,31 @@
         <v>0.74</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.46291184425354</v>
+        <v>-1.455858111381531</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4935465455055237</v>
+        <v>0.4941480755805969</v>
       </c>
       <c r="E76" t="n">
-        <v>1.023565769195557</v>
+        <v>1.071858286857605</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002562999725341797</v>
+        <v>0.002455711364746094</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001156330108642578</v>
+        <v>-0.001215934753417969</v>
       </c>
       <c r="H76" t="n">
-        <v>-3.576278686523438e-05</v>
+        <v>0.0001192092895507812</v>
       </c>
       <c r="I76" t="n">
-        <v>-1.46215298142269</v>
+        <v>-1.455114297856331</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4932041748330007</v>
+        <v>0.493779779563265</v>
       </c>
       <c r="K76" t="n">
-        <v>1.02355518041187</v>
+        <v>1.071894394310285</v>
       </c>
       <c r="L76" t="n">
         <v>0.05057527066001022</v>
@@ -6311,13 +6311,13 @@
         <v>0.6342810392379761</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.08003453600122136</v>
+        <v>0.07300226281661473</v>
       </c>
       <c r="R76" t="n">
-        <v>0.0811304089052951</v>
+        <v>0.07409172533893593</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1457703097626576</v>
+        <v>0.146345914492922</v>
       </c>
       <c r="T76" t="b">
         <v>0</v>
@@ -6346,31 +6346,31 @@
         <v>0.75</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.46288526058197</v>
+        <v>-1.45583188533783</v>
       </c>
       <c r="D77" t="n">
-        <v>0.493535041809082</v>
+        <v>0.4941360354423523</v>
       </c>
       <c r="E77" t="n">
-        <v>1.023566842079163</v>
+        <v>1.071860790252686</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002598762512207031</v>
+        <v>0.002628564834594727</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001084804534912109</v>
+        <v>-0.001136958599090576</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0001668930053710938</v>
+        <v>0.0003039836883544922</v>
       </c>
       <c r="I77" t="n">
-        <v>-1.462115808967434</v>
+        <v>-1.455035716006244</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4932138487039316</v>
+        <v>0.4937916606124206</v>
       </c>
       <c r="K77" t="n">
-        <v>1.023616256403032</v>
+        <v>1.071952864257018</v>
       </c>
       <c r="L77" t="n">
         <v>0.05058787250136199</v>
@@ -6388,13 +6388,13 @@
         <v>0.6342917680740356</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.08000125768549306</v>
+        <v>0.07292753199998041</v>
       </c>
       <c r="R77" t="n">
-        <v>0.08108620310195547</v>
+        <v>0.07400611014076586</v>
       </c>
       <c r="S77" t="n">
-        <v>0.1457789703546274</v>
+        <v>0.1463567822631164</v>
       </c>
       <c r="T77" t="b">
         <v>0</v>
@@ -6423,31 +6423,31 @@
         <v>0.76</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.462859869003296</v>
+        <v>-1.455805540084839</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4935248494148254</v>
+        <v>0.4941253364086151</v>
       </c>
       <c r="E78" t="n">
-        <v>1.023569107055664</v>
+        <v>1.071864366531372</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002366304397583008</v>
+        <v>0.002521276473999023</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0009119510650634766</v>
+        <v>-0.0009417533874511719</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0001788139343261719</v>
+        <v>0.0002980232238769531</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.46215924448272</v>
+        <v>-1.455041867460665</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4932548354308253</v>
+        <v>0.4938400875324463</v>
       </c>
       <c r="K78" t="n">
-        <v>1.023622050974095</v>
+        <v>1.071954635163071</v>
       </c>
       <c r="L78" t="n">
         <v>0.05060103752227718</v>
@@ -6465,13 +6465,13 @@
         <v>0.6343082189559937</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.08004514744923739</v>
+        <v>0.07293416717535882</v>
       </c>
       <c r="R78" t="n">
-        <v>0.08112200922271073</v>
+        <v>0.07400463220065556</v>
       </c>
       <c r="S78" t="n">
-        <v>0.1458185563723689</v>
+        <v>0.1464038084739899</v>
       </c>
       <c r="T78" t="b">
         <v>0</v>
@@ -6500,31 +6500,31 @@
         <v>0.77</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.462837934494019</v>
+        <v>-1.45578145980835</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4935168027877808</v>
+        <v>0.4941172003746033</v>
       </c>
       <c r="E79" t="n">
-        <v>1.023570418357849</v>
+        <v>1.071866750717163</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001949071884155273</v>
+        <v>0.002235174179077148</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0006943941116333008</v>
+        <v>-0.0006690621376037598</v>
       </c>
       <c r="H79" t="n">
-        <v>2.980232238769531e-05</v>
+        <v>0.0001490116119384766</v>
       </c>
       <c r="I79" t="n">
-        <v>-1.462260845783116</v>
+        <v>-1.455104445070607</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4933112039045389</v>
+        <v>0.493914547296439</v>
       </c>
       <c r="K79" t="n">
-        <v>1.023579242344254</v>
+        <v>1.071911885033012</v>
       </c>
       <c r="L79" t="n">
         <v>0.05061302006400403</v>
@@ -6542,13 +6542,13 @@
         <v>0.6343221664428711</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.08014507118477027</v>
+        <v>0.07299523165883176</v>
       </c>
       <c r="R79" t="n">
-        <v>0.08121788847720812</v>
+        <v>0.07406148776469901</v>
       </c>
       <c r="S79" t="n">
-        <v>0.1458731069044168</v>
+        <v>0.146476450296317</v>
       </c>
       <c r="T79" t="b">
         <v>0</v>
@@ -6577,31 +6577,31 @@
         <v>0.78</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.462820887565613</v>
+        <v>-1.455760836601257</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4935109615325928</v>
+        <v>0.494111955165863</v>
       </c>
       <c r="E80" t="n">
-        <v>1.023569703102112</v>
+        <v>1.071867346763611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001609325408935547</v>
+        <v>0.002020597457885742</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.0005096197128295898</v>
+        <v>-0.0004291534423828125</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.0001013278961181641</v>
+        <v>1.788139343261719e-05</v>
       </c>
       <c r="I80" t="n">
-        <v>-1.46234439229973</v>
+        <v>-1.455148815278338</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4933600713650633</v>
+        <v>0.4939819683362165</v>
       </c>
       <c r="K80" t="n">
-        <v>1.023539701548334</v>
+        <v>1.071872762881513</v>
       </c>
       <c r="L80" t="n">
         <v>0.05062327574965053</v>
@@ -6619,13 +6619,13 @@
         <v>0.6343302130699158</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.08022578534855694</v>
+        <v>0.07303696471986512</v>
       </c>
       <c r="R80" t="n">
-        <v>0.08129869318016247</v>
+        <v>0.07410311615877019</v>
       </c>
       <c r="S80" t="n">
-        <v>0.145919649783795</v>
+        <v>0.1465415467549482</v>
       </c>
       <c r="T80" t="b">
         <v>0</v>
@@ -6654,31 +6654,31 @@
         <v>0.79</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.46280574798584</v>
+        <v>-1.455741047859192</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4935066103935242</v>
+        <v>0.4941086173057556</v>
       </c>
       <c r="E81" t="n">
-        <v>1.023568391799927</v>
+        <v>1.071867108345032</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001704692840576172</v>
+        <v>0.002187490463256836</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.0004470348358154297</v>
+        <v>-0.000336766242980957</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0001013278961181641</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-1.462301015963461</v>
+        <v>-1.455078476102521</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4933742505974457</v>
+        <v>0.4940066137519358</v>
       </c>
       <c r="K81" t="n">
-        <v>1.023538390246149</v>
+        <v>1.071867108345032</v>
       </c>
       <c r="L81" t="n">
         <v>0.05063226068837423</v>
@@ -6696,13 +6696,13 @@
         <v>0.6343342661857605</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.08017779361755754</v>
+        <v>0.07296214390766514</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08125436316957635</v>
+        <v>0.074031823308637</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1459312064118072</v>
+        <v>0.1465635695662973</v>
       </c>
       <c r="T81" t="b">
         <v>0</v>
@@ -6731,31 +6731,31 @@
         <v>0.8</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.462786793708801</v>
+        <v>-1.455717086791992</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4935020208358765</v>
+        <v>0.4941052198410034</v>
       </c>
       <c r="E82" t="n">
-        <v>1.023567676544189</v>
+        <v>1.071867346763611</v>
       </c>
       <c r="F82" t="n">
-        <v>0.002276897430419922</v>
+        <v>0.002819299697875977</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0005841255187988281</v>
+        <v>-0.0004738569259643555</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0001251697540283203</v>
+        <v>0.0002026557922363281</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.462112641147441</v>
+        <v>-1.45486314553612</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4933290707023339</v>
+        <v>0.493961692716602</v>
       </c>
       <c r="K82" t="n">
-        <v>1.023604737287091</v>
+        <v>1.071928729433166</v>
       </c>
       <c r="L82" t="n">
         <v>0.05064041331656988</v>
@@ -6773,13 +6773,13 @@
         <v>0.6343359351158142</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.0799819779672284</v>
+        <v>0.07273942320131636</v>
       </c>
       <c r="R82" t="n">
-        <v>0.08106598835355716</v>
+        <v>0.07381649274223534</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1458838509471612</v>
+        <v>0.1465164729614293</v>
       </c>
       <c r="T82" t="b">
         <v>0</v>
@@ -6808,31 +6808,31 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.462760210037231</v>
+        <v>-1.455684661865234</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4934949278831482</v>
+        <v>0.4940991401672363</v>
       </c>
       <c r="E83" t="n">
-        <v>1.023570895195007</v>
+        <v>1.071871161460876</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002920627593994141</v>
+        <v>0.003504753112792969</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.0008180737495422363</v>
+        <v>-0.0007241964340209961</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0004649162292480469</v>
+        <v>0.0005125999450683594</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.461895459369519</v>
+        <v>-1.454623102756454</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4932527094563245</v>
+        <v>0.4938797873922078</v>
       </c>
       <c r="K83" t="n">
-        <v>1.023708549382929</v>
+        <v>1.072026423507399</v>
       </c>
       <c r="L83" t="n">
         <v>0.05064814572376619</v>
@@ -6850,13 +6850,13 @@
         <v>0.6343355178833008</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.07975698458725215</v>
+        <v>0.07249156566312456</v>
       </c>
       <c r="R83" t="n">
-        <v>0.08084976024995072</v>
+        <v>0.07357740363688636</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1458058207710981</v>
+        <v>0.1464328987069813</v>
       </c>
       <c r="T83" t="b">
         <v>0</v>
@@ -6885,31 +6885,31 @@
         <v>0.82</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.462728381156921</v>
+        <v>-1.455646991729736</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4934856593608856</v>
+        <v>0.494090735912323</v>
       </c>
       <c r="E84" t="n">
-        <v>1.023576974868774</v>
+        <v>1.071877598762512</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003272294998168945</v>
+        <v>0.003874301910400391</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.0009641051292419434</v>
+        <v>-0.0008866190910339355</v>
       </c>
       <c r="H84" t="n">
         <v>0.0007152557373046875</v>
       </c>
       <c r="I84" t="n">
-        <v>-1.461759507449627</v>
+        <v>-1.454473499517649</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4932002034006763</v>
+        <v>0.4938221867330185</v>
       </c>
       <c r="K84" t="n">
-        <v>1.0237887505425</v>
+        <v>1.07209424347859</v>
       </c>
       <c r="L84" t="n">
         <v>0.05065594483716573</v>
@@ -6927,13 +6927,13 @@
         <v>0.6343324184417725</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.07961828077620618</v>
+        <v>0.07233918997728089</v>
       </c>
       <c r="R84" t="n">
-        <v>0.08071643093442904</v>
+        <v>0.07343042300245162</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1457518245993305</v>
+        <v>0.1463738079316727</v>
       </c>
       <c r="T84" t="b">
         <v>0</v>
@@ -6962,31 +6962,31 @@
         <v>0.83</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.462694764137268</v>
+        <v>-1.455607175827026</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4934756457805634</v>
+        <v>0.4940814077854156</v>
       </c>
       <c r="E85" t="n">
-        <v>1.023585200309753</v>
+        <v>1.071885466575623</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0034332275390625</v>
+        <v>0.004082918167114258</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.001014769077301025</v>
+        <v>-0.0009551644325256348</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0008881092071533203</v>
+        <v>0.0008642673492431641</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.461678240903385</v>
+        <v>-1.45437049557275</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4931751890434652</v>
+        <v>0.4937920968208204</v>
       </c>
       <c r="K85" t="n">
-        <v>1.023848155104629</v>
+        <v>1.07214724560755</v>
       </c>
       <c r="L85" t="n">
         <v>0.0506635522396639</v>
@@ -7004,13 +7004,13 @@
         <v>0.6343265771865845</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.07953890141789727</v>
+        <v>0.07223803997376932</v>
       </c>
       <c r="R85" t="n">
-        <v>0.08064017117834865</v>
+        <v>0.07333242584771349</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1457256777538686</v>
+        <v>0.1463425855312238</v>
       </c>
       <c r="T85" t="b">
         <v>0</v>
@@ -7039,31 +7039,31 @@
         <v>0.84</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.46265971660614</v>
+        <v>-1.455565333366394</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4934653639793396</v>
+        <v>0.4940716326236725</v>
       </c>
       <c r="E86" t="n">
-        <v>1.023594737052917</v>
+        <v>1.071894884109497</v>
       </c>
       <c r="F86" t="n">
-        <v>0.003468990325927734</v>
+        <v>0.004178285598754883</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0009760260581970215</v>
+        <v>-0.0009372830390930176</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0009953975677490234</v>
+        <v>0.00095367431640625</v>
       </c>
       <c r="I86" t="n">
-        <v>-1.461632604588571</v>
+        <v>-1.454299767149974</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4931763784245682</v>
+        <v>0.4937877377769792</v>
       </c>
       <c r="K86" t="n">
-        <v>1.023889458198852</v>
+        <v>1.072183743730934</v>
       </c>
       <c r="L86" t="n">
         <v>0.05067053800227228</v>
@@ -7081,13 +7081,13 @@
         <v>0.6343182921409607</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.07949776099850225</v>
+        <v>0.07217177660028508</v>
       </c>
       <c r="R86" t="n">
-        <v>0.08060299872309251</v>
+        <v>0.07327016128449571</v>
       </c>
       <c r="S86" t="n">
-        <v>0.1457260922745896</v>
+        <v>0.1463374516270005</v>
       </c>
       <c r="T86" t="b">
         <v>0</v>
@@ -7116,31 +7116,31 @@
         <v>0.85</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.46262538433075</v>
+        <v>-1.455523610115051</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4934561252593994</v>
+        <v>0.4940626621246338</v>
       </c>
       <c r="E87" t="n">
-        <v>1.023605108261108</v>
+        <v>1.071904540061951</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003290176391601562</v>
+        <v>0.004041194915771484</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0008031725883483887</v>
+        <v>-0.0007927417755126953</v>
       </c>
       <c r="H87" t="n">
-        <v>0.001025199890136719</v>
+        <v>0.00095367431640625</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.461651216231612</v>
+        <v>-1.454299567469213</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4932183188257784</v>
+        <v>0.4938225475643145</v>
       </c>
       <c r="K87" t="n">
-        <v>1.023908653393448</v>
+        <v>1.072193399683387</v>
       </c>
       <c r="L87" t="n">
         <v>0.05067719231517387</v>
@@ -7158,13 +7158,13 @@
         <v>0.6343071460723877</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.07952693755524232</v>
+        <v>0.07218208487695606</v>
       </c>
       <c r="R87" t="n">
-        <v>0.08063436576011518</v>
+        <v>0.07328271699771638</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1457676154432863</v>
+        <v>0.1463718441818224</v>
       </c>
       <c r="T87" t="b">
         <v>0</v>
@@ -7193,31 +7193,31 @@
         <v>0.86</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.462593913078308</v>
+        <v>-1.455484509468079</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4934493005275726</v>
+        <v>0.4940557777881622</v>
       </c>
       <c r="E88" t="n">
-        <v>1.02361524105072</v>
+        <v>1.071913957595825</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003010034561157227</v>
+        <v>0.003761053085327148</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0005707144737243652</v>
+        <v>-0.000597536563873291</v>
       </c>
       <c r="H88" t="n">
-        <v>0.001007318496704102</v>
+        <v>0.0009119510650634766</v>
       </c>
       <c r="I88" t="n">
-        <v>-1.46170269045138</v>
+        <v>-1.454345319336037</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4932803211879124</v>
+        <v>0.4938747891816058</v>
       </c>
       <c r="K88" t="n">
-        <v>1.023913491791217</v>
+        <v>1.072190179608824</v>
       </c>
       <c r="L88" t="n">
         <v>0.05068339303694636</v>
@@ -7235,13 +7235,13 @@
         <v>0.6342923641204834</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.07959556717859861</v>
+        <v>0.07224489915259295</v>
       </c>
       <c r="R88" t="n">
-        <v>0.08070384058260527</v>
+        <v>0.07334646946726298</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1458292601775517</v>
+        <v>0.146423728171245</v>
       </c>
       <c r="T88" t="b">
         <v>0</v>
@@ -7270,31 +7270,31 @@
         <v>0.87</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.462565183639526</v>
+        <v>-1.455448389053345</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4934447109699249</v>
+        <v>0.4940507113933563</v>
       </c>
       <c r="E89" t="n">
-        <v>1.023625254631042</v>
+        <v>1.071922779083252</v>
       </c>
       <c r="F89" t="n">
-        <v>0.002783536911010742</v>
+        <v>0.003510713577270508</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0003591179847717285</v>
+        <v>-0.000432133674621582</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0009834766387939453</v>
+        <v>0.0008761882781982422</v>
       </c>
       <c r="I89" t="n">
-        <v>-1.461741023309278</v>
+        <v>-1.454385024571931</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4933383819337419</v>
+        <v>0.4939198218773928</v>
       </c>
       <c r="K89" t="n">
-        <v>1.023916446182415</v>
+        <v>1.072188168860447</v>
       </c>
       <c r="L89" t="n">
         <v>0.05068859397891856</v>
@@ -7312,13 +7312,13 @@
         <v>0.6342728734016418</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.07965628306401445</v>
+        <v>0.07230687185366054</v>
       </c>
       <c r="R89" t="n">
-        <v>0.08076744580988793</v>
+        <v>0.07341144707254088</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1458865460629991</v>
+        <v>0.14646798600665</v>
       </c>
       <c r="T89" t="b">
         <v>0</v>
@@ -7347,31 +7347,31 @@
         <v>0.88</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.462538242340088</v>
+        <v>-1.455414295196533</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4934421181678772</v>
+        <v>0.4940471351146698</v>
       </c>
       <c r="E90" t="n">
-        <v>1.023634910583496</v>
+        <v>1.071931481361389</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002634525299072266</v>
+        <v>0.003337860107421875</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0001877546310424805</v>
+        <v>-0.0002980232238769531</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0009596347808837891</v>
+        <v>0.0008642673492431641</v>
       </c>
       <c r="I90" t="n">
-        <v>-1.461758201941865</v>
+        <v>-1.454403286521504</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4933865270535243</v>
+        <v>0.4939568664829708</v>
       </c>
       <c r="K90" t="n">
-        <v>1.023919042945745</v>
+        <v>1.072193260393316</v>
       </c>
       <c r="L90" t="n">
         <v>0.05069386180991486</v>
@@ -7389,13 +7389,13 @@
         <v>0.6342520713806152</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.07970651254578302</v>
+        <v>0.07235808568239407</v>
       </c>
       <c r="R90" t="n">
-        <v>0.08082014881076183</v>
+        <v>0.0734652333904009</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1459340653340113</v>
+        <v>0.1465044047634579</v>
       </c>
       <c r="T90" t="b">
         <v>0</v>
@@ -7424,31 +7424,31 @@
         <v>0.89</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.462512493133545</v>
+        <v>-1.455381631851196</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4934409558773041</v>
+        <v>0.4940447509288788</v>
       </c>
       <c r="E91" t="n">
-        <v>1.02364444732666</v>
+        <v>1.071940064430237</v>
       </c>
       <c r="F91" t="n">
-        <v>0.002586841583251953</v>
+        <v>0.003272294998168945</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.258487701416016e-05</v>
+        <v>-0.0001922249794006348</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0009179115295410156</v>
+        <v>0.0008225440979003906</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.461746571113571</v>
+        <v>-1.454390482275141</v>
       </c>
       <c r="J91" t="n">
-        <v>0.4934224255058531</v>
+        <v>0.4939865276614329</v>
       </c>
       <c r="K91" t="n">
-        <v>1.023916226107941</v>
+        <v>1.072189205853726</v>
       </c>
       <c r="L91" t="n">
         <v>0.05070191781352129</v>
@@ -7466,13 +7466,13 @@
         <v>0.6342395544052124</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.07974519539637266</v>
+        <v>0.07239552801899432</v>
       </c>
       <c r="R91" t="n">
-        <v>0.08085822825620981</v>
+        <v>0.07350213941778061</v>
       </c>
       <c r="S91" t="n">
-        <v>0.1459703214142088</v>
+        <v>0.1465344235697886</v>
       </c>
       <c r="T91" t="b">
         <v>0</v>
@@ -7501,31 +7501,31 @@
         <v>0.9</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.462486505508423</v>
+        <v>-1.45534884929657</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4934408664703369</v>
+        <v>0.4940432906150818</v>
       </c>
       <c r="E92" t="n">
-        <v>1.023653268814087</v>
+        <v>1.071947932243347</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002628564834594727</v>
+        <v>0.003314018249511719</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.450580596923828e-06</v>
+        <v>-0.0001415610313415527</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0009179115295410156</v>
+        <v>0.0008106231689453125</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.461708229907481</v>
+        <v>-1.454345062112077</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4934386604737356</v>
+        <v>0.4940004130150248</v>
       </c>
       <c r="K92" t="n">
-        <v>1.023925047595368</v>
+        <v>1.072193462921568</v>
       </c>
       <c r="L92" t="n">
         <v>0.05071062586919872</v>
@@ -7543,13 +7543,13 @@
         <v>0.6342409253120422</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.07977718592644474</v>
+        <v>0.07242041464808961</v>
       </c>
       <c r="R92" t="n">
-        <v>0.08088986290308675</v>
+        <v>0.0735266951076825</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1459882551144674</v>
+        <v>0.1465500076557566</v>
       </c>
       <c r="T92" t="b">
         <v>0</v>
@@ -7578,31 +7578,31 @@
         <v>0.91</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.462459921836853</v>
+        <v>-1.455315351486206</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4934408068656921</v>
+        <v>0.494041919708252</v>
       </c>
       <c r="E93" t="n">
-        <v>1.023662805557251</v>
+        <v>1.071956276893616</v>
       </c>
       <c r="F93" t="n">
-        <v>0.002717971801757812</v>
+        <v>0.003427267074584961</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.384185791015625e-05</v>
+        <v>-0.0001609325408935547</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0009834766387939453</v>
+        <v>0.0009000301361083984</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.461655174276696</v>
+        <v>-1.454277262221668</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4934337476765679</v>
+        <v>0.4939931746471345</v>
       </c>
       <c r="K93" t="n">
-        <v>1.023953997108624</v>
+        <v>1.072228888161347</v>
       </c>
       <c r="L93" t="n">
         <v>0.05072053211479677</v>
@@ -7620,13 +7620,13 @@
         <v>0.6342509984970093</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.07981839102313687</v>
+        <v>0.07244687282362267</v>
       </c>
       <c r="R93" t="n">
-        <v>0.08093443968044345</v>
+        <v>0.07355652762541509</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1459863821541833</v>
+        <v>0.1465458091247498</v>
       </c>
       <c r="T93" t="b">
         <v>0</v>
@@ -7655,31 +7655,31 @@
         <v>0.92</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.462432146072388</v>
+        <v>-1.455280303955078</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4934403896331787</v>
+        <v>0.4940400719642639</v>
       </c>
       <c r="E94" t="n">
-        <v>1.023672938346863</v>
+        <v>1.071965932846069</v>
       </c>
       <c r="F94" t="n">
-        <v>0.002866983413696289</v>
+        <v>0.003618001937866211</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.086162567138672e-05</v>
+        <v>-0.0001728534698486328</v>
       </c>
       <c r="H94" t="n">
-        <v>0.001060962677001953</v>
+        <v>0.001031160354614258</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.461583278580204</v>
+        <v>-1.454184442766252</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4934342128426951</v>
+        <v>0.4939877161578785</v>
       </c>
       <c r="K94" t="n">
-        <v>1.023987072262889</v>
+        <v>1.072278262311748</v>
       </c>
       <c r="L94" t="n">
         <v>0.05073032952727985</v>
@@ -7697,13 +7697,13 @@
         <v>0.6342589855194092</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.07987676306960881</v>
+        <v>0.07248428812888724</v>
       </c>
       <c r="R94" t="n">
-        <v>0.08099736969043381</v>
+        <v>0.07359853387648174</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1459918839127939</v>
+        <v>0.1465453872279774</v>
       </c>
       <c r="T94" t="b">
         <v>0</v>
@@ -7732,31 +7732,31 @@
         <v>0.93</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.462402582168579</v>
+        <v>-1.455242991447449</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4934403896331787</v>
+        <v>0.494038462638855</v>
       </c>
       <c r="E95" t="n">
-        <v>1.023684024810791</v>
+        <v>1.071976900100708</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003123283386230469</v>
+        <v>0.003910064697265625</v>
       </c>
       <c r="G95" t="n">
-        <v>5.066394805908203e-05</v>
+        <v>-0.0001192092895507812</v>
       </c>
       <c r="H95" t="n">
         <v>0.001174211502075195</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.461477828393311</v>
+        <v>-1.454058666999558</v>
       </c>
       <c r="J95" t="n">
-        <v>0.4934553904100676</v>
+        <v>0.4940023551861754</v>
       </c>
       <c r="K95" t="n">
-        <v>1.024031689875157</v>
+        <v>1.072332558509602</v>
       </c>
       <c r="L95" t="n">
         <v>0.05073975285662691</v>
@@ -7774,13 +7774,13 @@
         <v>0.6342592239379883</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.07994941492277298</v>
+        <v>0.07253657573050955</v>
       </c>
       <c r="R95" t="n">
-        <v>0.08107454813513204</v>
+        <v>0.07365538674137917</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1408038335279207</v>
+        <v>0.146567923871707</v>
       </c>
       <c r="T95" t="b">
         <v>0</v>
@@ -7809,31 +7809,31 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.462369680404663</v>
+        <v>-1.455202102661133</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4934414029121399</v>
+        <v>0.4940376877784729</v>
       </c>
       <c r="E96" t="n">
-        <v>1.023696422576904</v>
+        <v>1.071989417076111</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003516674041748047</v>
+        <v>0.004345178604125977</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0001505017280578613</v>
+        <v>-4.023313522338867e-05</v>
       </c>
       <c r="H96" t="n">
         <v>0.00133514404296875</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.461328450008846</v>
+        <v>-1.453885986010961</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4934859640434863</v>
+        <v>0.4940255015131935</v>
       </c>
       <c r="K96" t="n">
-        <v>1.024091737167859</v>
+        <v>1.072393820546122</v>
       </c>
       <c r="L96" t="n">
         <v>0.05074919610704498</v>
@@ -7851,13 +7851,13 @@
         <v>0.6342511177062988</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.08003853583940988</v>
+        <v>0.0726023501124342</v>
       </c>
       <c r="R96" t="n">
-        <v>0.08116895274779834</v>
+        <v>0.07372648874991405</v>
       </c>
       <c r="S96" t="n">
-        <v>0.1407651536628125</v>
+        <v>0.1466024844881996</v>
       </c>
       <c r="T96" t="b">
         <v>0</v>
@@ -7886,31 +7886,31 @@
         <v>0.95</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.462332248687744</v>
+        <v>-1.455156087875366</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4934433996677399</v>
+        <v>0.4940376579761505</v>
       </c>
       <c r="E97" t="n">
-        <v>1.02371072769165</v>
+        <v>1.072003602981567</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004076957702636719</v>
+        <v>0.004982948303222656</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0002533197402954102</v>
+        <v>3.725290298461914e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>0.001633167266845703</v>
+        <v>0.00159144401550293</v>
       </c>
       <c r="I97" t="n">
-        <v>-1.461125127347508</v>
+        <v>-1.453646796353359</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4935184035521843</v>
+        <v>0.4940489415551129</v>
       </c>
       <c r="K97" t="n">
-        <v>1.024194282146657</v>
+        <v>1.07248563747484</v>
       </c>
       <c r="L97" t="n">
         <v>0.05075927693114579</v>
@@ -7928,13 +7928,13 @@
         <v>0.6342334747314453</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.08015789560028271</v>
+        <v>0.07268578415381295</v>
       </c>
       <c r="R97" t="n">
-        <v>0.08129405167917336</v>
+        <v>0.07381572068502407</v>
       </c>
       <c r="S97" t="n">
-        <v>0.140715071179261</v>
+        <v>0.1401845331763324</v>
       </c>
       <c r="T97" t="b">
         <v>0</v>
@@ -7963,31 +7963,31 @@
         <v>0.96</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.46228814125061</v>
+        <v>-1.455102443695068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4934464693069458</v>
+        <v>0.4940384328365326</v>
       </c>
       <c r="E98" t="n">
-        <v>1.023729085922241</v>
+        <v>1.072021245956421</v>
       </c>
       <c r="F98" t="n">
-        <v>0.005060434341430664</v>
+        <v>0.006026029586791992</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0003397464752197266</v>
+        <v>0.0001221895217895508</v>
       </c>
       <c r="H98" t="n">
-        <v>0.002050399780273438</v>
+        <v>0.00197291374206543</v>
       </c>
       <c r="I98" t="n">
-        <v>-1.460789828359002</v>
+        <v>-1.453277211962115</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4935470627519655</v>
+        <v>0.4940754429755292</v>
       </c>
       <c r="K98" t="n">
-        <v>1.024336176186921</v>
+        <v>1.072618824298268</v>
       </c>
       <c r="L98" t="n">
         <v>0.05077100423375569</v>
@@ -8005,13 +8005,13 @@
         <v>0.6342104077339172</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.08026364797240457</v>
+        <v>0.07275727413695514</v>
       </c>
       <c r="R98" t="n">
-        <v>0.08140697961937793</v>
+        <v>0.07389436322249066</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1406633449819518</v>
+        <v>0.140134964758388</v>
       </c>
       <c r="T98" t="b">
         <v>0</v>
@@ -8040,31 +8040,31 @@
         <v>0.97</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.462231040000916</v>
+        <v>-1.45503556728363</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4934501945972443</v>
+        <v>0.4940401017665863</v>
       </c>
       <c r="E99" t="n">
-        <v>1.023751735687256</v>
+        <v>1.072043061256409</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006794929504394531</v>
+        <v>0.007724761962890625</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0003919005393981934</v>
+        <v>0.0002235174179077148</v>
       </c>
       <c r="H99" t="n">
-        <v>0.002562999725341797</v>
+        <v>0.002449750900268555</v>
       </c>
       <c r="I99" t="n">
-        <v>-1.460219171100523</v>
+        <v>-1.452695804349992</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4935662300184731</v>
+        <v>0.4941078032403605</v>
       </c>
       <c r="K99" t="n">
-        <v>1.024510598518106</v>
+        <v>1.072785069408974</v>
       </c>
       <c r="L99" t="n">
         <v>0.05078699544247911</v>
@@ -8082,13 +8082,13 @@
         <v>0.6341912150382996</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.080300153464948</v>
+        <v>0.07278321540347575</v>
       </c>
       <c r="R99" t="n">
-        <v>0.08145001178350597</v>
+        <v>0.07392664503297586</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1406249850198265</v>
+        <v>0.140083411797939</v>
       </c>
       <c r="T99" t="b">
         <v>0</v>
@@ -8117,31 +8117,31 @@
         <v>0.98</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.462152242660522</v>
+        <v>-1.454947948455811</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4934543073177338</v>
+        <v>0.4940429031848907</v>
       </c>
       <c r="E100" t="n">
-        <v>1.023780345916748</v>
+        <v>1.072070240974426</v>
       </c>
       <c r="F100" t="n">
-        <v>0.009024143218994141</v>
+        <v>0.009977817535400391</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0004410743713378906</v>
+        <v>0.0003129243850708008</v>
       </c>
       <c r="H100" t="n">
-        <v>0.003355741500854492</v>
+        <v>0.003159046173095703</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.459480339577018</v>
+        <v>-1.451925754666528</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4935849023165312</v>
+        <v>0.4941376852481747</v>
       </c>
       <c r="K100" t="n">
-        <v>1.024773926785977</v>
+        <v>1.073027088470436</v>
       </c>
       <c r="L100" t="n">
         <v>0.05080808434120065</v>
@@ -8159,13 +8159,13 @@
         <v>0.6341739892959595</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.08039658322430056</v>
+        <v>0.07284859079147317</v>
       </c>
       <c r="R100" t="n">
-        <v>0.08155244021636143</v>
+        <v>0.07399785530587155</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1405890869794283</v>
+        <v>0.1400363040477848</v>
       </c>
       <c r="T100" t="b">
         <v>0</v>
@@ -8194,31 +8194,31 @@
         <v>0.99</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.462050557136536</v>
+        <v>-1.454836010932922</v>
       </c>
       <c r="D101" t="n">
-        <v>0.493459016084671</v>
+        <v>0.4940463602542877</v>
       </c>
       <c r="E101" t="n">
-        <v>1.023818850517273</v>
+        <v>1.072106242179871</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01150965690612793</v>
+        <v>0.01271963119506836</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0005498528480529785</v>
+        <v>0.0004127621650695801</v>
       </c>
       <c r="H101" t="n">
-        <v>0.004559755325317383</v>
+        <v>0.004225969314575195</v>
       </c>
       <c r="I101" t="n">
-        <v>-1.458642733586835</v>
+        <v>-1.450983345732009</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4936218186338476</v>
+        <v>0.4941713823091908</v>
       </c>
       <c r="K101" t="n">
-        <v>1.025168920437274</v>
+        <v>1.073386251377362</v>
       </c>
       <c r="L101" t="n">
         <v>0.05083373924112244</v>
@@ -8236,13 +8236,13 @@
         <v>0.6341461539268494</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.08070570175491079</v>
+        <v>0.07305293393845147</v>
       </c>
       <c r="R101" t="n">
-        <v>0.08187044907908336</v>
+        <v>0.07421106122425791</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1405243352930018</v>
+        <v>0.1399747716176585</v>
       </c>
       <c r="T101" t="b">
         <v>0</v>
@@ -8271,31 +8271,31 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.4619220495224</v>
+        <v>-1.454693555831909</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4934653043746948</v>
+        <v>0.4940511584281921</v>
       </c>
       <c r="E102" t="n">
-        <v>1.023871541023254</v>
+        <v>1.072154760360718</v>
       </c>
       <c r="F102" t="n">
-        <v>0.01462697982788086</v>
+        <v>0.0162661075592041</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0007525086402893066</v>
+        <v>0.0005871057510375977</v>
       </c>
       <c r="H102" t="n">
-        <v>0.006270408630371094</v>
+        <v>0.005728006362915039</v>
       </c>
       <c r="I102" t="n">
-        <v>-1.457591236994712</v>
+        <v>-1.449766693913778</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4936881100314269</v>
+        <v>0.4942289876326392</v>
       </c>
       <c r="K102" t="n">
-        <v>1.025728107762915</v>
+        <v>1.073889723461972</v>
       </c>
       <c r="L102" t="n">
         <v>0.05086520940659511</v>
@@ -8313,13 +8313,13 @@
         <v>0.6341068148612976</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.08122512374417455</v>
+        <v>0.07340719394452611</v>
       </c>
       <c r="R102" t="n">
-        <v>0.0824024094800635</v>
+        <v>0.07457786639912967</v>
       </c>
       <c r="S102" t="n">
-        <v>0.1404187048298707</v>
+        <v>0.1398778272286584</v>
       </c>
       <c r="T102" t="b">
         <v>1</v>
@@ -8348,31 +8348,31 @@
         <v>1.01</v>
       </c>
       <c r="C103" t="n">
-        <v>-1.461758017539978</v>
+        <v>-1.454510688781738</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4934740662574768</v>
+        <v>0.4940581023693085</v>
       </c>
       <c r="E103" t="n">
-        <v>1.02394425868988</v>
+        <v>1.072220802307129</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01862645149230957</v>
+        <v>0.02084970474243164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.001034140586853027</v>
+        <v>0.0008374452590942383</v>
       </c>
       <c r="H103" t="n">
-        <v>0.008565187454223633</v>
+        <v>0.00775456428527832</v>
       </c>
       <c r="I103" t="n">
-        <v>-1.456243026036708</v>
+        <v>-1.448195495308077</v>
       </c>
       <c r="J103" t="n">
-        <v>0.4937802585857384</v>
+        <v>0.4943117572243826</v>
       </c>
       <c r="K103" t="n">
-        <v>1.026480272382744</v>
+        <v>1.074569592103937</v>
       </c>
       <c r="L103" t="n">
         <v>0.05090259852054224</v>
@@ -8390,13 +8390,13 @@
         <v>0.6340693831443787</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.08198816697934637</v>
+        <v>0.07394726145999289</v>
       </c>
       <c r="R103" t="n">
-        <v>0.08318184592196176</v>
+        <v>0.07513431519333058</v>
       </c>
       <c r="S103" t="n">
-        <v>0.1402891245586403</v>
+        <v>0.139757625919996</v>
       </c>
       <c r="T103" t="b">
         <v>0</v>
@@ -8425,31 +8425,31 @@
         <v>1.02</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.461549520492554</v>
+        <v>-1.454276561737061</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4934859871864319</v>
+        <v>0.494067907333374</v>
       </c>
       <c r="E104" t="n">
-        <v>1.024042844772339</v>
+        <v>1.072309851646423</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02342462539672852</v>
+        <v>0.02644658088684082</v>
       </c>
       <c r="G104" t="n">
-        <v>0.001297891139984131</v>
+        <v>0.001072883605957031</v>
       </c>
       <c r="H104" t="n">
-        <v>0.01150369644165039</v>
+        <v>0.01035928726196289</v>
       </c>
       <c r="I104" t="n">
-        <v>-1.454613867178041</v>
+        <v>-1.446266123360092</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4938702717943798</v>
+        <v>0.4943928744074904</v>
       </c>
       <c r="K104" t="n">
-        <v>1.027448903524758</v>
+        <v>1.07544758928428</v>
       </c>
       <c r="L104" t="n">
         <v>0.05094474905529722</v>
@@ -8467,13 +8467,13 @@
         <v>0.6340489983558655</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.0830920127306979</v>
+        <v>0.07475089977668649</v>
       </c>
       <c r="R104" t="n">
-        <v>0.08429962672241365</v>
+        <v>0.07595188290446453</v>
       </c>
       <c r="S104" t="n">
-        <v>0.1401787265614857</v>
+        <v>0.1396561239483751</v>
       </c>
       <c r="T104" t="b">
         <v>0</v>
@@ -8502,31 +8502,31 @@
         <v>1.03</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.461289525032043</v>
+        <v>-1.453981757164001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4935000240802765</v>
+        <v>0.4940795600414276</v>
       </c>
       <c r="E105" t="n">
-        <v>1.024174332618713</v>
+        <v>1.072427988052368</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02886652946472168</v>
+        <v>0.03295540809631348</v>
       </c>
       <c r="G105" t="n">
-        <v>0.001445412635803223</v>
+        <v>0.001195073127746582</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01491308212280273</v>
+        <v>0.01333951950073242</v>
       </c>
       <c r="I105" t="n">
-        <v>-1.452742611799935</v>
+        <v>-1.443999851870727</v>
       </c>
       <c r="J105" t="n">
-        <v>0.4939279874209302</v>
+        <v>0.4944415372545406</v>
       </c>
       <c r="K105" t="n">
-        <v>1.028589855415892</v>
+        <v>1.076468412007215</v>
       </c>
       <c r="L105" t="n">
         <v>0.05099111288808444</v>
@@ -8544,13 +8544,13 @@
         <v>0.6340517997741699</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.08459634792518926</v>
+        <v>0.07586017105445306</v>
       </c>
       <c r="R105" t="n">
-        <v>0.08580866995880987</v>
+        <v>0.07706591002960139</v>
       </c>
       <c r="S105" t="n">
-        <v>0.1401238123532397</v>
+        <v>0.1396102625196293</v>
       </c>
       <c r="T105" t="b">
         <v>0</v>
@@ -8579,31 +8579,31 @@
         <v>1.04</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.460972189903259</v>
+        <v>-1.453617453575134</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4935148954391479</v>
+        <v>0.494091808795929</v>
       </c>
       <c r="E106" t="n">
-        <v>1.024341106414795</v>
+        <v>1.072576642036438</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03519654273986816</v>
+        <v>0.0405728816986084</v>
       </c>
       <c r="G106" t="n">
-        <v>0.001393258571624756</v>
+        <v>0.001119077205657959</v>
       </c>
       <c r="H106" t="n">
-        <v>0.01842975616455078</v>
+        <v>0.01634955406188965</v>
       </c>
       <c r="I106" t="n">
-        <v>-1.45055106195868</v>
+        <v>-1.441328282055633</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4939274168035926</v>
+        <v>0.4944307675079587</v>
       </c>
       <c r="K106" t="n">
-        <v>1.029797859607791</v>
+        <v>1.077528779171445</v>
       </c>
       <c r="L106" t="n">
         <v>0.0510379180074132</v>
@@ -8621,13 +8621,13 @@
         <v>0.6340700387954712</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.08637323708682325</v>
+        <v>0.07715695404069722</v>
       </c>
       <c r="R106" t="n">
-        <v>0.08758571657598946</v>
+        <v>0.07836293667294281</v>
       </c>
       <c r="S106" t="n">
-        <v>0.1401426219918786</v>
+        <v>0.1396392712875125</v>
       </c>
       <c r="T106" t="b">
         <v>0</v>
@@ -8656,31 +8656,31 @@
         <v>1.05</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.460585594177246</v>
+        <v>-1.453170299530029</v>
       </c>
       <c r="D107" t="n">
-        <v>0.493527889251709</v>
+        <v>0.4941019415855408</v>
       </c>
       <c r="E107" t="n">
-        <v>1.024542927742004</v>
+        <v>1.072754979133606</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04264712333679199</v>
+        <v>0.04940629005432129</v>
       </c>
       <c r="G107" t="n">
-        <v>0.001093745231628418</v>
+        <v>0.000813603401184082</v>
       </c>
       <c r="H107" t="n">
-        <v>0.02171993255615234</v>
+        <v>0.01907944679260254</v>
       </c>
       <c r="I107" t="n">
-        <v>-1.447958469631359</v>
+        <v>-1.43820556576697</v>
       </c>
       <c r="J107" t="n">
-        <v>0.493851729552781</v>
+        <v>0.4943483749500791</v>
       </c>
       <c r="K107" t="n">
-        <v>1.030973849034138</v>
+        <v>1.078533976934976</v>
       </c>
       <c r="L107" t="n">
         <v>0.05107790295802594</v>
@@ -8698,13 +8698,13 @@
         <v>0.6340904831886292</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.08823300774254235</v>
+        <v>0.07848655734008478</v>
       </c>
       <c r="R107" t="n">
-        <v>0.08944618725983755</v>
+        <v>0.07969328339544912</v>
       </c>
       <c r="S107" t="n">
-        <v>0.1402387536358481</v>
+        <v>0.1397421082385501</v>
       </c>
       <c r="T107" t="b">
         <v>0</v>
@@ -8733,31 +8733,31 @@
         <v>1.06</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.460119247436523</v>
+        <v>-1.452629327774048</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4935367703437805</v>
+        <v>0.4941080808639526</v>
       </c>
       <c r="E108" t="n">
-        <v>1.024775505065918</v>
+        <v>1.07295823097229</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05015134811401367</v>
+        <v>0.05843639373779297</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0008493661880493164</v>
+        <v>0.0005334615707397461</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02453923225402832</v>
+        <v>0.02130270004272461</v>
       </c>
       <c r="I108" t="n">
-        <v>-1.445270243113798</v>
+        <v>-1.434929454470509</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4937882539563296</v>
+        <v>0.4942696617146938</v>
       </c>
       <c r="K108" t="n">
-        <v>1.032041175471986</v>
+        <v>1.079410632766134</v>
       </c>
       <c r="L108" t="n">
         <v>0.05111413109090712</v>
@@ -8775,13 +8775,13 @@
         <v>0.6341121196746826</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.09035468348313817</v>
+        <v>0.08002022335079542</v>
       </c>
       <c r="R108" t="n">
-        <v>0.09157079738931118</v>
+        <v>0.08123000874602204</v>
       </c>
       <c r="S108" t="n">
-        <v>0.140323865718353</v>
+        <v>0.1398424579599888</v>
       </c>
       <c r="T108" t="b">
         <v>0</v>
@@ -8810,31 +8810,31 @@
         <v>1.07</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.459582567214966</v>
+        <v>-1.452001571655273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.49354487657547</v>
+        <v>0.4941126108169556</v>
       </c>
       <c r="E109" t="n">
-        <v>1.025033712387085</v>
+        <v>1.07318103313446</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05573034286499023</v>
+        <v>0.06600022315979004</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0009819865226745605</v>
+        <v>0.0004872679710388184</v>
       </c>
       <c r="H109" t="n">
-        <v>0.02690553665161133</v>
+        <v>0.0230252742767334</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.443081712637181</v>
+        <v>-1.432010680479214</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4938356269275224</v>
+        <v>0.4942602000297834</v>
       </c>
       <c r="K109" t="n">
-        <v>1.033000007313729</v>
+        <v>1.080155187619525</v>
       </c>
       <c r="L109" t="n">
         <v>0.05115828906335018</v>
@@ -8852,13 +8852,13 @@
         <v>0.6341503858566284</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.09322146104244797</v>
+        <v>0.08215619929428299</v>
       </c>
       <c r="R109" t="n">
-        <v>0.09444758883499627</v>
+        <v>0.08337655667702926</v>
       </c>
       <c r="S109" t="n">
-        <v>0.1403147589291061</v>
+        <v>0.139890185826845</v>
       </c>
       <c r="T109" t="b">
         <v>0</v>
@@ -8887,31 +8887,31 @@
         <v>1.08</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.459004640579224</v>
+        <v>-1.451309323310852</v>
       </c>
       <c r="D110" t="n">
-        <v>0.493556410074234</v>
+        <v>0.4941178262233734</v>
       </c>
       <c r="E110" t="n">
-        <v>1.02531361579895</v>
+        <v>1.073418736457825</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05869865417480469</v>
+        <v>0.07145404815673828</v>
       </c>
       <c r="G110" t="n">
-        <v>0.001205503940582275</v>
+        <v>0.0004410743713378906</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0287175178527832</v>
+        <v>0.02421140670776367</v>
       </c>
       <c r="I110" t="n">
-        <v>-1.441624916955478</v>
+        <v>-1.429666516174702</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4939133403243257</v>
+        <v>0.4942514237982879</v>
       </c>
       <c r="K110" t="n">
-        <v>1.033816409099032</v>
+        <v>1.080752160097051</v>
       </c>
       <c r="L110" t="n">
         <v>0.05121355990026188</v>
@@ -8929,13 +8929,13 @@
         <v>0.6342154741287231</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.09697309394547433</v>
+        <v>0.08501961378765939</v>
       </c>
       <c r="R110" t="n">
-        <v>0.09822181598807078</v>
+        <v>0.0862634152072943</v>
       </c>
       <c r="S110" t="n">
-        <v>0.1403021338043975</v>
+        <v>0.1399640503304352</v>
       </c>
       <c r="T110" t="b">
         <v>0</v>
@@ -8964,31 +8964,31 @@
         <v>1.09</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.45840859413147</v>
+        <v>-1.450572490692139</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4935689866542816</v>
+        <v>0.4941214323043823</v>
       </c>
       <c r="E111" t="n">
-        <v>1.025608062744141</v>
+        <v>1.073665261268616</v>
       </c>
       <c r="F111" t="n">
-        <v>0.06014704704284668</v>
+        <v>0.07562637329101562</v>
       </c>
       <c r="G111" t="n">
-        <v>0.001116096973419189</v>
+        <v>0.0001624226570129395</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02973079681396484</v>
+        <v>0.02475976943969727</v>
       </c>
       <c r="I111" t="n">
-        <v>-1.44060002476843</v>
+        <v>-1.427665922712202</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4938994449451576</v>
+        <v>0.4941706287086583</v>
       </c>
       <c r="K111" t="n">
-        <v>1.034410871582</v>
+        <v>1.081164779190168</v>
       </c>
       <c r="L111" t="n">
         <v>0.05128179099098773</v>
@@ -9006,13 +9006,13 @@
         <v>0.6343075037002563</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.101236244038183</v>
+        <v>0.08830649329189892</v>
       </c>
       <c r="R111" t="n">
-        <v>0.1025253406253634</v>
+        <v>0.08959123856913576</v>
       </c>
       <c r="S111" t="n">
-        <v>0.1404080587550988</v>
+        <v>0.140136874991598</v>
       </c>
       <c r="T111" t="b">
         <v>0</v>
@@ -9041,31 +9041,31 @@
         <v>1.1</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.457801699638367</v>
+        <v>-1.449796795845032</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4935787320137024</v>
+        <v>0.4941210746765137</v>
       </c>
       <c r="E112" t="n">
-        <v>1.025908231735229</v>
+        <v>1.073913931846619</v>
       </c>
       <c r="F112" t="n">
-        <v>0.06053447723388672</v>
+        <v>0.0789642333984375</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0008344650268554688</v>
+        <v>-0.0001683831214904785</v>
       </c>
       <c r="H112" t="n">
-        <v>0.02982020378112793</v>
+        <v>0.02468228340148926</v>
       </c>
       <c r="I112" t="n">
-        <v>-1.439878418452059</v>
+        <v>-1.425879219190066</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4938258036330489</v>
+        <v>0.4940700728996038</v>
       </c>
       <c r="K112" t="n">
-        <v>1.034737512532305</v>
+        <v>1.081389979923929</v>
       </c>
       <c r="L112" t="n">
         <v>0.05136612765130444</v>
@@ -9083,13 +9083,13 @@
         <v>0.6344319581985474</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.09706220472278358</v>
+        <v>0.09182769840613131</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1071770930354938</v>
+        <v>0.0931778937735015</v>
       </c>
       <c r="S112" t="n">
-        <v>0.1406061545654985</v>
+        <v>0.1488053996665715</v>
       </c>
       <c r="T112" t="b">
         <v>0</v>
@@ -9118,31 +9118,31 @@
         <v>1.11</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.457197904586792</v>
+        <v>-1.44899320602417</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4935856759548187</v>
+        <v>0.4941180646419525</v>
       </c>
       <c r="E113" t="n">
-        <v>1.026204466819763</v>
+        <v>1.074158906936646</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05933642387390137</v>
+        <v>0.08105039596557617</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0006332993507385254</v>
+        <v>-0.0002920627593994141</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0289618968963623</v>
+        <v>0.02407431602478027</v>
       </c>
       <c r="I113" t="n">
-        <v>-1.439629347653974</v>
+        <v>-1.424443748947312</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4937731856659299</v>
+        <v>0.4940296013828875</v>
       </c>
       <c r="K113" t="n">
-        <v>1.034779616808368</v>
+        <v>1.08145080700529</v>
       </c>
       <c r="L113" t="n">
         <v>0.05145597544061786</v>
@@ -9160,13 +9160,13 @@
         <v>0.6345167756080627</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.0919476610172399</v>
+        <v>0.09565596693996412</v>
       </c>
       <c r="R113" t="n">
-        <v>0.1122870758491648</v>
+        <v>0.09710147714250206</v>
       </c>
       <c r="S113" t="n">
-        <v>0.1407435899421328</v>
+        <v>0.1490351160046221</v>
       </c>
       <c r="T113" t="b">
         <v>0</v>
@@ -9195,31 +9195,31 @@
         <v>1.12</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.456614971160889</v>
+        <v>-1.44817578792572</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4935913980007172</v>
+        <v>0.4941152334213257</v>
       </c>
       <c r="E114" t="n">
-        <v>1.026487469673157</v>
+        <v>1.074395418167114</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05745291709899902</v>
+        <v>0.08267760276794434</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0004664063453674316</v>
+        <v>-0.0002071261405944824</v>
       </c>
       <c r="H114" t="n">
-        <v>0.02738833427429199</v>
+        <v>0.02321600914001465</v>
       </c>
       <c r="I114" t="n">
-        <v>-1.439604090168882</v>
+        <v>-1.423133464119785</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4937294933879591</v>
+        <v>0.4940524967222949</v>
       </c>
       <c r="K114" t="n">
-        <v>1.034596713179565</v>
+        <v>1.081427344576466</v>
       </c>
       <c r="L114" t="n">
         <v>0.05154227285140678</v>
@@ -9237,13 +9237,13 @@
         <v>0.6344731450080872</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.08672417539605061</v>
+        <v>0.09949161607206584</v>
       </c>
       <c r="R114" t="n">
-        <v>0.1175353989152197</v>
+        <v>0.1010647728661234</v>
       </c>
       <c r="S114" t="n">
-        <v>0.1407436516201281</v>
+        <v>0.1493399711161395</v>
       </c>
       <c r="T114" t="b">
         <v>0</v>
@@ -9272,31 +9272,31 @@
         <v>1.13</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.456048846244812</v>
+        <v>-1.447339653968811</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4935950040817261</v>
+        <v>0.4941139221191406</v>
       </c>
       <c r="E115" t="n">
-        <v>1.026752233505249</v>
+        <v>1.074623227119446</v>
       </c>
       <c r="F115" t="n">
-        <v>0.05689859390258789</v>
+        <v>0.08542537689208984</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0002339482307434082</v>
+        <v>3.576278686523438e-05</v>
       </c>
       <c r="H115" t="n">
-        <v>0.02520084381103516</v>
+        <v>0.02216696739196777</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.439202091399942</v>
+        <v>-1.421465053378612</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4936642723750072</v>
+        <v>0.4941247543549445</v>
       </c>
       <c r="K115" t="n">
-        <v>1.034213796409513</v>
+        <v>1.081337407945217</v>
       </c>
       <c r="L115" t="n">
         <v>0.05164187214331051</v>
@@ -9314,13 +9314,13 @@
         <v>0.6343607306480408</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.08205202486788907</v>
+        <v>0.09978409963166496</v>
       </c>
       <c r="R115" t="n">
-        <v>0.1222770425718174</v>
+        <v>0.1045400045504865</v>
       </c>
       <c r="S115" t="n">
-        <v>0.1406964582730336</v>
+        <v>0.1402359762930963</v>
       </c>
       <c r="T115" t="b">
         <v>0</v>
@@ -9349,31 +9349,31 @@
         <v>1.14</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.455476999282837</v>
+        <v>-1.446467280387878</v>
       </c>
       <c r="D116" t="n">
-        <v>0.493596076965332</v>
+        <v>0.494115948677063</v>
       </c>
       <c r="E116" t="n">
-        <v>1.026991486549377</v>
+        <v>1.074838757514954</v>
       </c>
       <c r="F116" t="n">
-        <v>0.05875825881958008</v>
+        <v>0.08970499038696289</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001162290573120117</v>
+        <v>0.0005751848220825195</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02154707908630371</v>
+        <v>0.02002716064453125</v>
       </c>
       <c r="I116" t="n">
-        <v>-1.438079627686281</v>
+        <v>-1.419296422246481</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4936304905123124</v>
+        <v>0.494290167136242</v>
       </c>
       <c r="K116" t="n">
-        <v>1.03337122872036</v>
+        <v>1.080904809565126</v>
       </c>
       <c r="L116" t="n">
         <v>0.05175886604441793</v>
@@ -9391,13 +9391,13 @@
         <v>0.6342424154281616</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.07826218735529866</v>
+        <v>0.09705167944042223</v>
       </c>
       <c r="R116" t="n">
-        <v>0.1261581503684708</v>
+        <v>0.1073749449286714</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1406119249158492</v>
+        <v>0.1399522482919196</v>
       </c>
       <c r="T116" t="b">
         <v>0</v>
@@ -9426,31 +9426,31 @@
         <v>1.15</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.45487368106842</v>
+        <v>-1.445545554161072</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4935973286628723</v>
+        <v>0.4941254258155823</v>
       </c>
       <c r="E117" t="n">
-        <v>1.027183175086975</v>
+        <v>1.075023770332336</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06308555603027344</v>
+        <v>0.09488463401794434</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0003531575202941895</v>
+        <v>0.001423060894012451</v>
       </c>
       <c r="H117" t="n">
-        <v>0.01510977745056152</v>
+        <v>0.0153660774230957</v>
       </c>
       <c r="I117" t="n">
-        <v>-1.436195066645825</v>
+        <v>-1.416805827200746</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4937018929017743</v>
+        <v>0.494556458531945</v>
       </c>
       <c r="K117" t="n">
-        <v>1.031656936194428</v>
+        <v>1.079678020982737</v>
       </c>
       <c r="L117" t="n">
         <v>0.0518813377453835</v>
@@ -9468,13 +9468,13 @@
         <v>0.6340972781181335</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.07540944707526877</v>
+        <v>0.09481612239284176</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1291288644821282</v>
+        <v>0.1097396250370499</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1403953852163592</v>
+        <v>0.1395408195861886</v>
       </c>
       <c r="T117" t="b">
         <v>0</v>
@@ -9503,31 +9503,31 @@
         <v>1.16</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.454215288162231</v>
+        <v>-1.44456958770752</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4936031401157379</v>
+        <v>0.4941444098949432</v>
       </c>
       <c r="E118" t="n">
-        <v>1.027293682098389</v>
+        <v>1.075146079063416</v>
       </c>
       <c r="F118" t="n">
-        <v>0.06847977638244629</v>
+        <v>0.09911060333251953</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.0009134411811828613</v>
+        <v>0.0004053115844726562</v>
       </c>
       <c r="H118" t="n">
-        <v>0.004750490188598633</v>
+        <v>0.006520748138427734</v>
       </c>
       <c r="I118" t="n">
-        <v>-1.433939532200289</v>
+        <v>-1.414549851549702</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4933326849324176</v>
+        <v>0.4942671752340539</v>
       </c>
       <c r="K118" t="n">
-        <v>1.028700225531383</v>
+        <v>1.077121156724989</v>
       </c>
       <c r="L118" t="n">
         <v>0.05200080715247601</v>
@@ -9545,13 +9545,13 @@
         <v>0.6339139938354492</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.07310224500092304</v>
+        <v>0.09251423935024269</v>
       </c>
       <c r="R118" t="n">
-        <v>0.1315485991634844</v>
+        <v>0.1121589185128982</v>
       </c>
       <c r="S118" t="n">
-        <v>0.1496585020405719</v>
+        <v>0.1396468186013953</v>
       </c>
       <c r="T118" t="b">
         <v>0</v>
@@ -9580,31 +9580,31 @@
         <v>1.17</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.453504085540771</v>
+        <v>-1.443563342094421</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4935790598392487</v>
+        <v>0.4941335320472717</v>
       </c>
       <c r="E119" t="n">
-        <v>1.027278184890747</v>
+        <v>1.075154185295105</v>
       </c>
       <c r="F119" t="n">
-        <v>0.07047057151794434</v>
+        <v>0.09744167327880859</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.00333636999130249</v>
+        <v>-0.002022087574005127</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.009953975677490234</v>
+        <v>-0.007826089859008789</v>
       </c>
       <c r="I119" t="n">
-        <v>-1.432638887286959</v>
+        <v>-1.414049110274119</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4925912145611829</v>
+        <v>0.4935210593811941</v>
       </c>
       <c r="K119" t="n">
-        <v>1.024330973431399</v>
+        <v>1.072783731026689</v>
       </c>
       <c r="L119" t="n">
         <v>0.0521205063155179</v>
@@ -9622,13 +9622,13 @@
         <v>0.6337116956710815</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.07010349210969703</v>
+        <v>0.08871649571814094</v>
       </c>
       <c r="R119" t="n">
-        <v>0.1346666849859337</v>
+        <v>0.1160769079730932</v>
       </c>
       <c r="S119" t="n">
-        <v>0.1491704408165997</v>
+        <v>0.1501002856366109</v>
       </c>
       <c r="T119" t="b">
         <v>0</v>
@@ -9657,31 +9657,31 @@
         <v>1.18</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.452805876731873</v>
+        <v>-1.442620754241943</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4935364127159119</v>
+        <v>0.4941039681434631</v>
       </c>
       <c r="E120" t="n">
-        <v>1.027094602584839</v>
+        <v>1.074989557266235</v>
       </c>
       <c r="F120" t="n">
-        <v>0.06723403930664062</v>
+        <v>0.08773207664489746</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.00534355640411377</v>
+        <v>-0.003923475742340088</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.02615451812744141</v>
+        <v>-0.02546310424804688</v>
       </c>
       <c r="I120" t="n">
-        <v>-1.432898963401668</v>
+        <v>-1.416047474442394</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4919542719534537</v>
+        <v>0.4929155816071459</v>
       </c>
       <c r="K120" t="n">
-        <v>1.019350672115607</v>
+        <v>1.067277005373873</v>
       </c>
       <c r="L120" t="n">
         <v>0.05224965149546534</v>
@@ -9699,13 +9699,13 @@
         <v>0.6335226893424988</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.06597377537852236</v>
+        <v>0.08285139807446454</v>
       </c>
       <c r="R120" t="n">
-        <v>0.138938630531185</v>
+        <v>0.1220871415719103</v>
       </c>
       <c r="S120" t="n">
-        <v>0.1487984110525748</v>
+        <v>0.149759720706267</v>
       </c>
       <c r="T120" t="b">
         <v>0</v>
@@ -9734,31 +9734,31 @@
         <v>1.19</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.452159404754639</v>
+        <v>-1.441808700561523</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4934721887111664</v>
+        <v>0.4940550625324249</v>
       </c>
       <c r="E121" t="n">
-        <v>1.026755094528198</v>
+        <v>1.074644923210144</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05988478660583496</v>
+        <v>0.07132887840270996</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.007918477058410645</v>
+        <v>-0.00616908073425293</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.04042983055114746</v>
+        <v>-0.04271268844604492</v>
       </c>
       <c r="I121" t="n">
-        <v>-1.434428486471965</v>
+        <v>-1.420203806250686</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4911276555232961</v>
+        <v>0.4921865018562558</v>
       </c>
       <c r="K121" t="n">
-        <v>1.01478447457086</v>
+        <v>1.061707622915044</v>
       </c>
       <c r="L121" t="n">
         <v>0.05239492507077159</v>
@@ -9776,13 +9776,13 @@
         <v>0.6333747506141663</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.06118044985610189</v>
+        <v>0.07543668673323618</v>
       </c>
       <c r="R121" t="n">
-        <v>0.143850121146037</v>
+        <v>0.1296254409247586</v>
       </c>
       <c r="S121" t="n">
-        <v>0.148232833164211</v>
+        <v>0.1492916794971707</v>
       </c>
       <c r="T121" t="b">
         <v>0</v>
@@ -9811,31 +9811,31 @@
         <v>1.2</v>
       </c>
       <c r="C122" t="n">
-        <v>-1.451608180999756</v>
+        <v>-1.441194176673889</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4933780431747437</v>
+        <v>0.4939805865287781</v>
       </c>
       <c r="E122" t="n">
-        <v>1.026286005973816</v>
+        <v>1.074135303497314</v>
       </c>
       <c r="F122" t="n">
-        <v>0.04873871803283691</v>
+        <v>0.0494539737701416</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.01101940870285034</v>
+        <v>-0.008790194988250732</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.05035996437072754</v>
+        <v>-0.0559389591217041</v>
       </c>
       <c r="I122" t="n">
-        <v>-1.437177433632639</v>
+        <v>-1.426214999929758</v>
       </c>
       <c r="J122" t="n">
-        <v>0.490115374201409</v>
+        <v>0.4913181132368163</v>
       </c>
       <c r="K122" t="n">
-        <v>1.011375233746254</v>
+        <v>1.057191881327413</v>
       </c>
       <c r="L122" t="n">
         <v>0.05253984734914674</v>
@@ -9853,13 +9853,13 @@
         <v>0.6332703828811646</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.05593771853734968</v>
+        <v>0.06693853216766808</v>
       </c>
       <c r="R122" t="n">
-        <v>0.1491731544959811</v>
+        <v>0.1382107207931005</v>
       </c>
       <c r="S122" t="n">
-        <v>0.1474452017484824</v>
+        <v>0.1486479407838897</v>
       </c>
       <c r="T122" t="b">
         <v>0</v>
@@ -9888,31 +9888,31 @@
         <v>1.21</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.451184630393982</v>
+        <v>-1.440819621086121</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4932518005371094</v>
+        <v>0.4938792586326599</v>
       </c>
       <c r="E123" t="n">
-        <v>1.025747895240784</v>
+        <v>1.07352614402771</v>
       </c>
       <c r="F123" t="n">
-        <v>0.03530383110046387</v>
+        <v>0.02536773681640625</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.01454651355743408</v>
+        <v>-0.01195818185806274</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.05311965942382812</v>
+        <v>-0.06082653999328613</v>
       </c>
       <c r="I123" t="n">
-        <v>-1.440731736098344</v>
+        <v>-1.433135955155902</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4889448127727155</v>
+        <v>0.4902572297857378</v>
       </c>
       <c r="K123" t="n">
-        <v>1.010020021872098</v>
+        <v>1.055102316297945</v>
       </c>
       <c r="L123" t="n">
         <v>0.05265753841226228</v>
@@ -9930,13 +9930,13 @@
         <v>0.6331890225410461</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.05066853850432493</v>
+        <v>0.05830788863032556</v>
       </c>
       <c r="R123" t="n">
-        <v>0.1545216759787147</v>
+        <v>0.1469258950362733</v>
       </c>
       <c r="S123" t="n">
-        <v>0.14643354630276</v>
+        <v>0.1477459633157824</v>
       </c>
       <c r="T123" t="b">
         <v>0</v>
@@ -9965,31 +9965,31 @@
         <v>1.22</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.450902104377747</v>
+        <v>-1.440686821937561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.493087112903595</v>
+        <v>0.4937414228916168</v>
       </c>
       <c r="E124" t="n">
-        <v>1.025223612785339</v>
+        <v>1.072918772697449</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02118945121765137</v>
+        <v>0.00260472297668457</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.01894533634185791</v>
+        <v>-0.01642853021621704</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.04765987396240234</v>
+        <v>-0.05537271499633789</v>
       </c>
       <c r="I124" t="n">
-        <v>-1.444628250043626</v>
+        <v>-1.439897874096512</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4874777047457888</v>
+        <v>0.4887653645692098</v>
       </c>
       <c r="K124" t="n">
-        <v>1.011112293726092</v>
+        <v>1.056146860927776</v>
       </c>
       <c r="L124" t="n">
         <v>0.05274063471136614</v>
@@ -10007,13 +10007,13 @@
         <v>0.6331309080123901</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.04566599573993626</v>
+        <v>0.05043974314315223</v>
       </c>
       <c r="R124" t="n">
-        <v>0.1596185082604842</v>
+        <v>0.1548881323133697</v>
       </c>
       <c r="S124" t="n">
-        <v>0.1450403480353548</v>
+        <v>0.1463280078587759</v>
       </c>
       <c r="T124" t="b">
         <v>0</v>
@@ -10042,31 +10042,31 @@
         <v>1.23</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.450760841369629</v>
+        <v>-1.440767526626587</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4928728938102722</v>
+        <v>0.4935506880283356</v>
       </c>
       <c r="E125" t="n">
-        <v>1.024794697761536</v>
+        <v>1.072418689727783</v>
       </c>
       <c r="F125" t="n">
-        <v>0.007748603820800781</v>
+        <v>-0.01646280288696289</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.02458393573760986</v>
+        <v>-0.0225752592086792</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.03470182418823242</v>
+        <v>-0.04019737243652344</v>
       </c>
       <c r="I125" t="n">
-        <v>-1.448466604904268</v>
+        <v>-1.445753965841639</v>
       </c>
       <c r="J125" t="n">
-        <v>0.485593987424596</v>
+        <v>0.4867128391771368</v>
       </c>
       <c r="K125" t="n">
-        <v>1.014520047991283</v>
+        <v>1.060243256684223</v>
       </c>
       <c r="L125" t="n">
         <v>0.05280156241104805</v>
@@ -10084,13 +10084,13 @@
         <v>0.6331114172935486</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.04112343629010254</v>
+        <v>0.04387366685225552</v>
       </c>
       <c r="R125" t="n">
-        <v>0.164240068153475</v>
+        <v>0.04758712245334351</v>
       </c>
       <c r="S125" t="n">
-        <v>0.1431343981816608</v>
+        <v>0.1442532499342016</v>
       </c>
       <c r="T125" t="b">
         <v>0</v>
@@ -10119,31 +10119,31 @@
         <v>1.24</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.450747132301331</v>
+        <v>-1.4410160779953</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4925954341888428</v>
+        <v>0.4932899177074432</v>
       </c>
       <c r="E126" t="n">
-        <v>1.024529576301575</v>
+        <v>1.072114825248718</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.003415346145629883</v>
+        <v>-0.03026723861694336</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.03098994493484497</v>
+        <v>-0.02988278865814209</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.01593232154846191</v>
+        <v>-0.01732707023620605</v>
       </c>
       <c r="I126" t="n">
-        <v>-1.45175836114337</v>
+        <v>-1.45018376023065</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4834198119253619</v>
+        <v>0.4842386820069852</v>
       </c>
       <c r="K126" t="n">
-        <v>1.019812273169338</v>
+        <v>1.066866607001739</v>
       </c>
       <c r="L126" t="n">
         <v>0.05284870588723933</v>
@@ -10161,13 +10161,13 @@
         <v>0.6331266760826111</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03738911476160835</v>
+        <v>0.03899083221658322</v>
       </c>
       <c r="R126" t="n">
-        <v>0.04111494989941544</v>
+        <v>0.04268955081213566</v>
       </c>
       <c r="S126" t="n">
-        <v>0.1408507885546191</v>
+        <v>0.1416696586362424</v>
       </c>
       <c r="T126" t="b">
         <v>0</v>
@@ -10196,31 +10196,31 @@
         <v>1.25</v>
       </c>
       <c r="C127" t="n">
-        <v>-1.450829148292542</v>
+        <v>-1.441372871398926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4922530949115753</v>
+        <v>0.4929530322551727</v>
       </c>
       <c r="E127" t="n">
-        <v>1.024476051330566</v>
+        <v>1.072072148323059</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.01208186149597168</v>
+        <v>-0.0390172004699707</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.03647953271865845</v>
+        <v>-0.03681182861328125</v>
       </c>
       <c r="H127" t="n">
-        <v>0.006014108657836914</v>
+        <v>0.01012682914733887</v>
       </c>
       <c r="I127" t="n">
-        <v>-1.454406392381223</v>
+        <v>-1.453190840660958</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4814520943522507</v>
+        <v>0.4818030508677131</v>
       </c>
       <c r="K127" t="n">
-        <v>1.026256731787142</v>
+        <v>1.075139476428191</v>
       </c>
       <c r="L127" t="n">
         <v>0.05287512384640181</v>
@@ -10238,13 +10238,13 @@
         <v>0.633166491985321</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.03446953075683513</v>
+        <v>0.0356961941706991</v>
       </c>
       <c r="R127" t="n">
-        <v>0.03818475027319623</v>
+        <v>0.03940030199346101</v>
       </c>
       <c r="S127" t="n">
-        <v>0.1387013662219101</v>
+        <v>0.1390523227373725</v>
       </c>
       <c r="T127" t="b">
         <v>0</v>
@@ -10273,31 +10273,31 @@
         <v>1.26</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.45098876953125</v>
+        <v>-1.4417964220047</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4918658435344696</v>
+        <v>0.4925536811351776</v>
       </c>
       <c r="E128" t="n">
-        <v>1.024649858474731</v>
+        <v>1.072317361831665</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.01996159553527832</v>
+        <v>-0.04513263702392578</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.03960281610488892</v>
+        <v>-0.04171878099441528</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02744197845458984</v>
+        <v>0.03736019134521484</v>
       </c>
       <c r="I128" t="n">
-        <v>-1.456899075625475</v>
+        <v>-1.455466703589195</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4801400891998766</v>
+        <v>0.479917426726794</v>
       </c>
       <c r="K128" t="n">
-        <v>1.032774985156669</v>
+        <v>1.083633437501451</v>
       </c>
       <c r="L128" t="n">
         <v>0.05287038397119304</v>
@@ -10315,13 +10315,13 @@
         <v>0.633226752281189</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.0318181475797734</v>
+        <v>0.0332422992427524</v>
       </c>
       <c r="R128" t="n">
-        <v>0.03553781020826552</v>
+        <v>0.03697018224454496</v>
       </c>
       <c r="S128" t="n">
-        <v>0.1371517471531389</v>
+        <v>0.1369290846800564</v>
       </c>
       <c r="T128" t="b">
         <v>0</v>
@@ -10350,31 +10350,31 @@
         <v>1.27</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.451228380203247</v>
+        <v>-1.442275524139404</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4914610385894775</v>
+        <v>0.4921186566352844</v>
       </c>
       <c r="E129" t="n">
-        <v>1.025024890899658</v>
+        <v>1.072819352149963</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.02785921096801758</v>
+        <v>-0.05022883415222168</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.0403866171836853</v>
+        <v>-0.04416853189468384</v>
       </c>
       <c r="H129" t="n">
-        <v>0.04505515098571777</v>
+        <v>0.05968213081359863</v>
       </c>
       <c r="I129" t="n">
-        <v>-1.459477042694858</v>
+        <v>-1.457489399325953</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4795032134124269</v>
+        <v>0.4787403940743351</v>
       </c>
       <c r="K129" t="n">
-        <v>1.038364993547088</v>
+        <v>1.090896548334004</v>
       </c>
       <c r="L129" t="n">
         <v>0.05283526902667823</v>
@@ -10392,13 +10392,13 @@
         <v>0.6333010792732239</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.02918006691358488</v>
+        <v>0.03114118674080549</v>
       </c>
       <c r="R129" t="n">
-        <v>0.03291072891158708</v>
+        <v>0.03489837228049275</v>
       </c>
       <c r="S129" t="n">
-        <v>0.1362563660212984</v>
+        <v>0.1354935466832066</v>
       </c>
       <c r="T129" t="b">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>1.28</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.45154595375061</v>
+        <v>-1.442800998687744</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4910581111907959</v>
+        <v>0.4916703104972839</v>
       </c>
       <c r="E130" t="n">
-        <v>1.025550961494446</v>
+        <v>1.073511004447937</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.0354766845703125</v>
+        <v>-0.0546872615814209</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.04014372825622559</v>
+        <v>-0.04535019397735596</v>
       </c>
       <c r="H130" t="n">
-        <v>0.05782842636108398</v>
+        <v>0.07557272911071777</v>
       </c>
       <c r="I130" t="n">
-        <v>-1.462050027167399</v>
+        <v>-1.459365292604509</v>
       </c>
       <c r="J130" t="n">
-        <v>0.4791722015029479</v>
+        <v>0.4779341328116481</v>
       </c>
       <c r="K130" t="n">
-        <v>1.042673024715159</v>
+        <v>1.096401324074168</v>
       </c>
       <c r="L130" t="n">
         <v>0.05278634047203923</v>
@@ -10469,13 +10469,13 @@
         <v>0.6333824396133423</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.02664681901986748</v>
+        <v>0.02928876263302769</v>
       </c>
       <c r="R130" t="n">
-        <v>0.03038435527126082</v>
+        <v>0.03306908983415036</v>
       </c>
       <c r="S130" t="n">
-        <v>0.1356982604152251</v>
+        <v>0.1344601917239254</v>
       </c>
       <c r="T130" t="b">
         <v>0</v>
@@ -10504,31 +10504,31 @@
         <v>1.29</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.451937913894653</v>
+        <v>-1.443369269371033</v>
       </c>
       <c r="D131" t="n">
-        <v>0.490658164024353</v>
+        <v>0.4912116527557373</v>
       </c>
       <c r="E131" t="n">
-        <v>1.02618145942688</v>
+        <v>1.074330806732178</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.04264116287231445</v>
+        <v>-0.05913376808166504</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.04016906023025513</v>
+        <v>-0.04662871360778809</v>
       </c>
       <c r="H131" t="n">
-        <v>0.06619095802307129</v>
+        <v>0.08577108383178711</v>
       </c>
       <c r="I131" t="n">
-        <v>-1.46456327364326</v>
+        <v>-1.461280371272747</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4787647539480606</v>
+        <v>0.4770882226401128</v>
       </c>
       <c r="K131" t="n">
-        <v>1.045779533232901</v>
+        <v>1.100310118935148</v>
       </c>
       <c r="L131" t="n">
         <v>0.05274799768177729</v>
@@ -10546,13 +10546,13 @@
         <v>0.6334670782089233</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.02426282397636333</v>
+        <v>0.02748796983812896</v>
       </c>
       <c r="R131" t="n">
-        <v>0.02800641133903992</v>
+        <v>0.0312893137095529</v>
       </c>
       <c r="S131" t="n">
-        <v>0.1351511293753067</v>
+        <v>0.1334745980673589</v>
       </c>
       <c r="T131" t="b">
         <v>0</v>
@@ -10581,31 +10581,31 @@
         <v>1.3</v>
       </c>
       <c r="C132" t="n">
-        <v>-1.452398777008057</v>
+        <v>-1.443983674049377</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4902547299861908</v>
+        <v>0.4907377362251282</v>
       </c>
       <c r="E132" t="n">
-        <v>1.026874780654907</v>
+        <v>1.075226426124573</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.04874467849731445</v>
+        <v>-0.06363391876220703</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.04069507122039795</v>
+        <v>-0.04812777042388916</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07045865058898926</v>
+        <v>0.09071230888366699</v>
       </c>
       <c r="I132" t="n">
-        <v>-1.466831289172455</v>
+        <v>-1.463257832289746</v>
       </c>
       <c r="J132" t="n">
-        <v>0.478205576549846</v>
+        <v>0.4761602548920578</v>
       </c>
       <c r="K132" t="n">
-        <v>1.047736449314158</v>
+        <v>1.102702392241112</v>
       </c>
       <c r="L132" t="n">
         <v>0.05273833059193933</v>
@@ -10623,13 +10623,13 @@
         <v>0.6335541605949402</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.0222119310694253</v>
+        <v>0.02571525720148809</v>
       </c>
       <c r="R132" t="n">
-        <v>0.02596095955343647</v>
+        <v>0.02953441643614463</v>
       </c>
       <c r="S132" t="n">
-        <v>0.1345785409320177</v>
+        <v>0.1325332192742294</v>
       </c>
       <c r="T132" t="b">
         <v>0</v>
@@ -10658,31 +10658,31 @@
         <v>1.31</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.4529128074646</v>
+        <v>-1.444641947746277</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4898442625999451</v>
+        <v>0.4902490973472595</v>
       </c>
       <c r="E133" t="n">
-        <v>1.02759063243866</v>
+        <v>1.076145052909851</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.05274415016174316</v>
+        <v>-0.06719231605529785</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.04187524318695068</v>
+        <v>-0.04975199699401855</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07088780403137207</v>
+        <v>0.09058117866516113</v>
       </c>
       <c r="I133" t="n">
-        <v>-1.46852949860458</v>
+        <v>-1.464993913449132</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4774456793019531</v>
+        <v>0.4751796519714296</v>
       </c>
       <c r="K133" t="n">
-        <v>1.048579366502145</v>
+        <v>1.103581300828443</v>
       </c>
       <c r="L133" t="n">
         <v>0.05276704597688209</v>
@@ -10700,13 +10700,13 @@
         <v>0.6336451768875122</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.02082583944805831</v>
+        <v>0.02428426604135604</v>
       </c>
       <c r="R133" t="n">
-        <v>0.0245766281806985</v>
+        <v>0.02811221333614644</v>
       </c>
       <c r="S133" t="n">
-        <v>0.133942502135968</v>
+        <v>0.1316764748054445</v>
       </c>
       <c r="T133" t="b">
         <v>0</v>
@@ -10735,31 +10735,31 @@
         <v>1.32</v>
       </c>
       <c r="C134" t="n">
-        <v>-1.453453660011292</v>
+        <v>-1.445327520370483</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4894172251224518</v>
+        <v>0.4897426962852478</v>
       </c>
       <c r="E134" t="n">
-        <v>1.028292536735535</v>
+        <v>1.077038049697876</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.05437135696411133</v>
+        <v>-0.06893277168273926</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.04430562257766724</v>
+        <v>-0.05190819501876831</v>
       </c>
       <c r="H134" t="n">
-        <v>0.06794929504394531</v>
+        <v>0.08615851402282715</v>
       </c>
       <c r="I134" t="n">
-        <v>-1.469552140808997</v>
+        <v>-1.466206654882461</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4762990457331131</v>
+        <v>0.4740201573590757</v>
       </c>
       <c r="K134" t="n">
-        <v>1.048411225739464</v>
+        <v>1.103134711122055</v>
       </c>
       <c r="L134" t="n">
         <v>0.05283802339853239</v>
@@ -10777,13 +10777,13 @@
         <v>0.6337409615516663</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.02020953782478279</v>
+        <v>0.02347821765109903</v>
       </c>
       <c r="R134" t="n">
-        <v>0.02395643653780444</v>
+        <v>0.02730192246434116</v>
       </c>
       <c r="S134" t="n">
-        <v>0.1330461186682175</v>
+        <v>0.13076723029418</v>
       </c>
       <c r="T134" t="b">
         <v>0</v>
@@ -10812,31 +10812,31 @@
         <v>1.33</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.454000234603882</v>
+        <v>-1.446020603179932</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4889581501483917</v>
+        <v>0.4892109334468842</v>
       </c>
       <c r="E135" t="n">
-        <v>1.028949618339539</v>
+        <v>1.077868223190308</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.05467534065246582</v>
+        <v>-0.06924271583557129</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.04811584949493408</v>
+        <v>-0.05469024181365967</v>
       </c>
       <c r="H135" t="n">
-        <v>0.06221532821655273</v>
+        <v>0.0784754753112793</v>
       </c>
       <c r="I135" t="n">
-        <v>-1.470188720062921</v>
+        <v>-1.466993617068876</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4747118240971441</v>
+        <v>0.4726457368438019</v>
       </c>
       <c r="K135" t="n">
-        <v>1.047370572359102</v>
+        <v>1.101637759289287</v>
       </c>
       <c r="L135" t="n">
         <v>0.05294806471368929</v>
@@ -10854,13 +10854,13 @@
         <v>0.63383948802948</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.02006836702762931</v>
+        <v>0.02319479652538397</v>
       </c>
       <c r="R135" t="n">
-        <v>0.02380110518579714</v>
+        <v>0.0269962081798425</v>
       </c>
       <c r="S135" t="n">
-        <v>0.1318085378785009</v>
+        <v>0.1297424506251587</v>
       </c>
       <c r="T135" t="b">
         <v>0</v>
@@ -10889,31 +10889,31 @@
         <v>1.34</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.454547166824341</v>
+        <v>-1.446712374687195</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4884549081325531</v>
+        <v>0.4886488914489746</v>
       </c>
       <c r="E136" t="n">
-        <v>1.029536843299866</v>
+        <v>1.078607559204102</v>
       </c>
       <c r="F136" t="n">
-        <v>-0.05445480346679688</v>
+        <v>-0.06878376007080078</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.05303174257278442</v>
+        <v>-0.05804747343063354</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0545501708984375</v>
+        <v>0.06862282752990723</v>
       </c>
       <c r="I136" t="n">
-        <v>-1.470670354783981</v>
+        <v>-1.467546374883322</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4727530655237624</v>
+        <v>0.4710668187098032</v>
       </c>
       <c r="K136" t="n">
-        <v>1.045688268016003</v>
+        <v>1.099392814339112</v>
       </c>
       <c r="L136" t="n">
         <v>0.05308828973405966</v>
@@ -10931,13 +10931,13 @@
         <v>0.6339406371116638</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.02015001852940626</v>
+        <v>0.02321876454958068</v>
       </c>
       <c r="R136" t="n">
-        <v>0.02386366087153613</v>
+        <v>0.02698764077219518</v>
       </c>
       <c r="S136" t="n">
-        <v>0.1302662071558425</v>
+        <v>0.1285799603418833</v>
       </c>
       <c r="T136" t="b">
         <v>0</v>
@@ -10966,31 +10966,31 @@
         <v>1.35</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.455089330673218</v>
+        <v>-1.447396278381348</v>
       </c>
       <c r="D137" t="n">
-        <v>0.487897515296936</v>
+        <v>0.4880499839782715</v>
       </c>
       <c r="E137" t="n">
-        <v>1.030040621757507</v>
+        <v>1.079240679740906</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.05345344543457031</v>
+        <v>-0.0675201416015625</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.05864650011062622</v>
+        <v>-0.06187558174133301</v>
       </c>
       <c r="H137" t="n">
-        <v>0.04619956016540527</v>
+        <v>0.05794763565063477</v>
       </c>
       <c r="I137" t="n">
-        <v>-1.470916032689642</v>
+        <v>-1.467847539579072</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4705332336493995</v>
+        <v>0.4693084106649265</v>
       </c>
       <c r="K137" t="n">
-        <v>1.043719565482899</v>
+        <v>1.096792512488458</v>
       </c>
       <c r="L137" t="n">
         <v>0.05324523213348797</v>
@@ -11008,13 +11008,13 @@
         <v>0.6340479850769043</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.02049578755410745</v>
+        <v>0.02352448326368891</v>
       </c>
       <c r="R137" t="n">
-        <v>0.02420294294970082</v>
+        <v>0.02727143606027171</v>
       </c>
       <c r="S137" t="n">
-        <v>0.1284999070235756</v>
+        <v>0.1272750840391025</v>
       </c>
       <c r="T137" t="b">
         <v>0</v>
@@ -11043,31 +11043,31 @@
         <v>1.36</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.455616235733032</v>
+        <v>-1.448062777519226</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4872819781303406</v>
+        <v>0.4874113798141479</v>
       </c>
       <c r="E138" t="n">
-        <v>1.030460834503174</v>
+        <v>1.079766511917114</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.0516057014465332</v>
+        <v>-0.06559491157531738</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.06413012742996216</v>
+        <v>-0.06541460752487183</v>
       </c>
       <c r="H138" t="n">
-        <v>0.03805756568908691</v>
+        <v>0.04744529724121094</v>
       </c>
       <c r="I138" t="n">
-        <v>-1.470895850592333</v>
+        <v>-1.467930903356174</v>
       </c>
       <c r="J138" t="n">
-        <v>0.4682940829842413</v>
+        <v>0.4675978664993774</v>
       </c>
       <c r="K138" t="n">
-        <v>1.041729065142656</v>
+        <v>1.094137278083594</v>
       </c>
       <c r="L138" t="n">
         <v>0.05340273479325042</v>
@@ -11085,13 +11085,13 @@
         <v>0.6341609954833984</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.02109820468324869</v>
+        <v>0.02404018069284244</v>
       </c>
       <c r="R138" t="n">
-        <v>0.02482596642426893</v>
+        <v>0.02779091366042707</v>
       </c>
       <c r="S138" t="n">
-        <v>0.1267176855652655</v>
+        <v>0.1260214690804016</v>
       </c>
       <c r="T138" t="b">
         <v>0</v>
@@ -11120,31 +11120,31 @@
         <v>1.37</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.456121444702148</v>
+        <v>-1.448708176612854</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4866149127483368</v>
+        <v>0.486741691827774</v>
       </c>
       <c r="E139" t="n">
-        <v>1.030801773071289</v>
+        <v>1.08018958568573</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.04944205284118652</v>
+        <v>-0.06338953971862793</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.06817132234573364</v>
+        <v>-0.06756484508514404</v>
       </c>
       <c r="H139" t="n">
-        <v>0.03119111061096191</v>
+        <v>0.03806352615356445</v>
       </c>
       <c r="I139" t="n">
-        <v>-1.470760438148429</v>
+        <v>-1.46790831457523</v>
       </c>
       <c r="J139" t="n">
-        <v>0.466430485045688</v>
+        <v>0.4662768903352953</v>
       </c>
       <c r="K139" t="n">
-        <v>1.040036957243005</v>
+        <v>1.091718695326325</v>
       </c>
       <c r="L139" t="n">
         <v>0.05354598045418157</v>
@@ -11162,13 +11162,13 @@
         <v>0.6342735290527344</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.02177940365708132</v>
+        <v>0.0246253993695624</v>
       </c>
       <c r="R139" t="n">
-        <v>0.02555706768805788</v>
+        <v>0.02840919126125696</v>
       </c>
       <c r="S139" t="n">
-        <v>0.1252747474072145</v>
+        <v>0.1251211526968218</v>
       </c>
       <c r="T139" t="b">
         <v>0</v>
@@ -11197,31 +11197,31 @@
         <v>1.38</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.456605076789856</v>
+        <v>-1.449330568313599</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4859185516834259</v>
+        <v>0.4860600829124451</v>
       </c>
       <c r="E140" t="n">
-        <v>1.031084656715393</v>
+        <v>1.080527782440186</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.0476837158203125</v>
+        <v>-0.06128549575805664</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.06996095180511475</v>
+        <v>-0.06795227527618408</v>
       </c>
       <c r="H140" t="n">
-        <v>0.02658963203430176</v>
+        <v>0.03071427345275879</v>
       </c>
       <c r="I140" t="n">
-        <v>-1.470723455038228</v>
+        <v>-1.46789340973618</v>
       </c>
       <c r="J140" t="n">
-        <v>0.465204243597143</v>
+        <v>0.4654779321987576</v>
       </c>
       <c r="K140" t="n">
-        <v>1.038957417386141</v>
+        <v>1.089830867623084</v>
       </c>
       <c r="L140" t="n">
         <v>0.05366276530386749</v>
@@ -11239,13 +11239,13 @@
         <v>0.6343752145767212</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.02230301930743969</v>
+        <v>0.0251402650726254</v>
       </c>
       <c r="R140" t="n">
-        <v>0.02616041413291481</v>
+        <v>0.02899045943496303</v>
       </c>
       <c r="S140" t="n">
-        <v>0.1244024085370233</v>
+        <v>0.124676097138638</v>
       </c>
       <c r="T140" t="b">
         <v>0</v>
@@ -11274,31 +11274,31 @@
         <v>1.39</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.457075119018555</v>
+        <v>-1.449933886528015</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4852156937122345</v>
+        <v>0.4853826463222504</v>
       </c>
       <c r="E141" t="n">
-        <v>1.031333565711975</v>
+        <v>1.080803871154785</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.04674792289733887</v>
+        <v>-0.05965828895568848</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.07075220346450806</v>
+        <v>-0.06780624389648438</v>
       </c>
       <c r="H141" t="n">
-        <v>0.02311468124389648</v>
+        <v>0.02489089965820312</v>
       </c>
       <c r="I141" t="n">
-        <v>-1.470916424093802</v>
+        <v>-1.46800386122152</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4642671087868926</v>
+        <v>0.4648447272380954</v>
       </c>
       <c r="K141" t="n">
-        <v>1.038177449567873</v>
+        <v>1.088343107274285</v>
       </c>
       <c r="L141" t="n">
         <v>0.0537446686886387</v>
@@ -11316,13 +11316,13 @@
         <v>0.6344524621963501</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.02251185201328551</v>
+        <v>0.02544155396163934</v>
       </c>
       <c r="R141" t="n">
-        <v>0.02649768799726226</v>
+        <v>0.02941025086954485</v>
       </c>
       <c r="S141" t="n">
-        <v>0.1237401405461547</v>
+        <v>0.1243177589973575</v>
       </c>
       <c r="T141" t="b">
         <v>0</v>
@@ -11351,31 +11351,31 @@
         <v>1.4</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.457540035247803</v>
+        <v>-1.450523734092712</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4845035076141357</v>
+        <v>0.4847039580345154</v>
       </c>
       <c r="E142" t="n">
-        <v>1.031546950340271</v>
+        <v>1.08102560043335</v>
       </c>
       <c r="F142" t="n">
-        <v>-0.04652142524719238</v>
+        <v>-0.05846619606018066</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.0719800591468811</v>
+        <v>-0.06826817989349365</v>
       </c>
       <c r="H142" t="n">
-        <v>0.01953840255737305</v>
+        <v>0.02002120018005371</v>
       </c>
       <c r="I142" t="n">
-        <v>-1.47131427802637</v>
+        <v>-1.468232634259421</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4631913744488983</v>
+        <v>0.464026122571227</v>
       </c>
       <c r="K142" t="n">
-        <v>1.037331955827541</v>
+        <v>1.087089847110888</v>
       </c>
       <c r="L142" t="n">
         <v>0.05378695965590019</v>
@@ -11393,13 +11393,13 @@
         <v>0.6344914436340332</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.02242042099356538</v>
+        <v>0.02552843021169098</v>
       </c>
       <c r="R142" t="n">
-        <v>0.02660027466222825</v>
+        <v>0.02968191842917767</v>
       </c>
       <c r="S142" t="n">
-        <v>0.1228563033620148</v>
+        <v>0.1236910514843435</v>
       </c>
       <c r="T142" t="b">
         <v>0</v>
@@ -11428,31 +11428,31 @@
         <v>1.41</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.458005547523499</v>
+        <v>-1.451103210449219</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4837760925292969</v>
+        <v>0.4840172827243805</v>
       </c>
       <c r="E143" t="n">
-        <v>1.031724333763123</v>
+        <v>1.081204295158386</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.04649162292480469</v>
+        <v>-0.05748867988586426</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.07322430610656738</v>
+        <v>-0.06891489028930664</v>
       </c>
       <c r="H143" t="n">
-        <v>0.01639127731323242</v>
+        <v>0.01649856567382812</v>
       </c>
       <c r="I143" t="n">
-        <v>-1.471770966315661</v>
+        <v>-1.468516029503955</v>
       </c>
       <c r="J143" t="n">
-        <v>0.462095557931641</v>
+        <v>0.4631435643303053</v>
       </c>
       <c r="K143" t="n">
-        <v>1.036577526286</v>
+        <v>1.086201566609243</v>
       </c>
       <c r="L143" t="n">
         <v>0.053787685743659</v>
@@ -11470,13 +11470,13 @@
         <v>0.6344798803329468</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.02219159115607303</v>
+        <v>0.02548170000065256</v>
       </c>
       <c r="R143" t="n">
-        <v>0.02662590715846003</v>
+        <v>0.02988084397016655</v>
       </c>
       <c r="S143" t="n">
-        <v>0.1218684010541233</v>
+        <v>0.1229164074527876</v>
       </c>
       <c r="T143" t="b">
         <v>0</v>
@@ -11505,31 +11505,31 @@
         <v>1.42</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.458469867706299</v>
+        <v>-1.45167350769043</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4830390214920044</v>
+        <v>0.4833256602287292</v>
       </c>
       <c r="E144" t="n">
-        <v>1.031874775886536</v>
+        <v>1.081355571746826</v>
       </c>
       <c r="F144" t="n">
-        <v>-0.04665851593017578</v>
+        <v>-0.05698204040527344</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.07393211126327515</v>
+        <v>-0.06934106349945068</v>
       </c>
       <c r="H144" t="n">
-        <v>0.01407265663146973</v>
+        <v>0.01439452171325684</v>
       </c>
       <c r="I144" t="n">
-        <v>-1.472284700822331</v>
+        <v>-1.468932870071277</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4611489172172242</v>
+        <v>0.4623228576913245</v>
       </c>
       <c r="K144" t="n">
-        <v>1.036041462267086</v>
+        <v>1.085715546657888</v>
       </c>
       <c r="L144" t="n">
         <v>0.05374793011739776</v>
@@ -11547,13 +11547,13 @@
         <v>0.6344095468521118</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.02185749535034669</v>
+        <v>0.02525134872943864</v>
       </c>
       <c r="R144" t="n">
-        <v>0.02660259966900247</v>
+        <v>0.02995443042005586</v>
       </c>
       <c r="S144" t="n">
-        <v>0.1209525759410554</v>
+        <v>0.1221265164151557</v>
       </c>
       <c r="T144" t="b">
         <v>0</v>
@@ -11582,31 +11582,31 @@
         <v>1.43</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.458938717842102</v>
+        <v>-1.452242851257324</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4822974503040314</v>
+        <v>0.4826304614543915</v>
       </c>
       <c r="E145" t="n">
-        <v>1.032005786895752</v>
+        <v>1.081492185592651</v>
       </c>
       <c r="F145" t="n">
-        <v>-0.04788637161254883</v>
+        <v>-0.05767345428466797</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.07401406764984131</v>
+        <v>-0.06960481405258179</v>
       </c>
       <c r="H145" t="n">
-        <v>0.01246333122253418</v>
+        <v>0.01347661018371582</v>
       </c>
       <c r="I145" t="n">
-        <v>-1.473117099198029</v>
+        <v>-1.469711636863713</v>
       </c>
       <c r="J145" t="n">
-        <v>0.4603830800666368</v>
+        <v>0.4615477711779331</v>
       </c>
       <c r="K145" t="n">
-        <v>1.03569597801042</v>
+        <v>1.08557413311808</v>
       </c>
       <c r="L145" t="n">
         <v>0.05367186312997951</v>
@@ -11624,13 +11624,13 @@
         <v>0.6342769265174866</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.02119053803844391</v>
+        <v>0.02464054156879287</v>
       </c>
       <c r="R145" t="n">
-        <v>0.02630294760830609</v>
+        <v>0.02970840994262214</v>
       </c>
       <c r="S145" t="n">
-        <v>0.1201569960727251</v>
+        <v>0.1213216871840214</v>
       </c>
       <c r="T145" t="b">
         <v>0</v>
@@ -11659,31 +11659,31 @@
         <v>1.44</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.45942759513855</v>
+        <v>-1.452826976776123</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4815587401390076</v>
+        <v>0.4819335639476776</v>
       </c>
       <c r="E146" t="n">
-        <v>1.032124042510986</v>
+        <v>1.0816251039505</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.05030632019042969</v>
+        <v>-0.05967020988464355</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.07328242063522339</v>
+        <v>-0.06945282220840454</v>
       </c>
       <c r="H146" t="n">
-        <v>0.01131892204284668</v>
+        <v>0.01340508460998535</v>
       </c>
       <c r="I146" t="n">
-        <v>-1.474322484190582</v>
+        <v>-1.470900562214895</v>
       </c>
       <c r="J146" t="n">
-        <v>0.4598609987678615</v>
+        <v>0.4608969106733857</v>
       </c>
       <c r="K146" t="n">
-        <v>1.035475392547694</v>
+        <v>1.085685387004321</v>
       </c>
       <c r="L146" t="n">
         <v>0.0535699710940083</v>
@@ -11701,13 +11701,13 @@
         <v>0.6340817809104919</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.02017392436506277</v>
+        <v>0.02363807746210162</v>
       </c>
       <c r="R146" t="n">
-        <v>0.02570254976022368</v>
+        <v>0.02912447173591026</v>
       </c>
       <c r="S146" t="n">
-        <v>0.1195701245250789</v>
+        <v>0.1206060364306031</v>
       </c>
       <c r="T146" t="b">
         <v>0</v>
@@ -11736,31 +11736,31 @@
         <v>1.45</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.459944844245911</v>
+        <v>-1.453436255455017</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4808318018913269</v>
+        <v>0.4812414050102234</v>
       </c>
       <c r="E147" t="n">
-        <v>1.032232165336609</v>
+        <v>1.081760287284851</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.05363225936889648</v>
+        <v>-0.06265640258789062</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.071677565574646</v>
+        <v>-0.0684887170791626</v>
       </c>
       <c r="H147" t="n">
-        <v>0.01031756401062012</v>
+        <v>0.01361370086669922</v>
       </c>
       <c r="I147" t="n">
-        <v>-1.475824490180767</v>
+        <v>-1.472414332583413</v>
       </c>
       <c r="J147" t="n">
-        <v>0.4596092321881026</v>
+        <v>0.4604967707594778</v>
       </c>
       <c r="K147" t="n">
-        <v>1.0352870294301</v>
+        <v>1.085883758380861</v>
       </c>
       <c r="L147" t="n">
         <v>0.05346120839577395</v>
@@ -11778,13 +11778,13 @@
         <v>0.6338242292404175</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.01890946804918286</v>
+        <v>0.02235818345496189</v>
       </c>
       <c r="R147" t="n">
-        <v>0.02491091192647188</v>
+        <v>0.0283210695238254</v>
       </c>
       <c r="S147" t="n">
-        <v>0.1192448654183119</v>
+        <v>0.1201324039896871</v>
       </c>
       <c r="T147" t="b">
         <v>0</v>
@@ -11813,31 +11813,31 @@
         <v>1.46</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.460500240325928</v>
+        <v>-1.454080104827881</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4801251888275146</v>
+        <v>0.4805637896060944</v>
       </c>
       <c r="E148" t="n">
-        <v>1.032330393791199</v>
+        <v>1.081897377967834</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.05820989608764648</v>
+        <v>-0.06680488586425781</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.0692322850227356</v>
+        <v>-0.06660670042037964</v>
       </c>
       <c r="H148" t="n">
-        <v>0.009244680404663086</v>
+        <v>0.01366138458251953</v>
       </c>
       <c r="I148" t="n">
-        <v>-1.477735250572628</v>
+        <v>-1.474314721309527</v>
       </c>
       <c r="J148" t="n">
-        <v>0.4596266272088396</v>
+        <v>0.4603892017645279</v>
       </c>
       <c r="K148" t="n">
-        <v>1.035067594374102</v>
+        <v>1.086035292044916</v>
       </c>
       <c r="L148" t="n">
         <v>0.05336650967672263</v>
@@ -11855,13 +11855,13 @@
         <v>0.6335011720657349</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.01729887653720979</v>
+        <v>0.02075476824704958</v>
       </c>
       <c r="R148" t="n">
-        <v>0.02385690869861268</v>
+        <v>0.02727743796171311</v>
       </c>
       <c r="S148" t="n">
-        <v>0.1192002716084826</v>
+        <v>0.1199628461641708</v>
       </c>
       <c r="T148" t="b">
         <v>0</v>
@@ -11890,31 +11890,31 @@
         <v>1.47</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.461109042167664</v>
+        <v>-1.454772353172302</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4794471561908722</v>
+        <v>0.4799092710018158</v>
       </c>
       <c r="E149" t="n">
-        <v>1.032417058944702</v>
+        <v>1.082033514976501</v>
       </c>
       <c r="F149" t="n">
-        <v>-0.06415247917175293</v>
+        <v>-0.07218122482299805</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.06595849990844727</v>
+        <v>-0.06392598152160645</v>
       </c>
       <c r="H149" t="n">
-        <v>0.008094310760498047</v>
+        <v>0.01347064971923828</v>
       </c>
       <c r="I149" t="n">
-        <v>-1.480103555303567</v>
+        <v>-1.476635415769799</v>
       </c>
       <c r="J149" t="n">
-        <v>0.4599179094788119</v>
+        <v>0.4605466495023817</v>
       </c>
       <c r="K149" t="n">
-        <v>1.034813653652363</v>
+        <v>1.086113657129296</v>
       </c>
       <c r="L149" t="n">
         <v>0.05329641136932217</v>
@@ -11932,13 +11932,13 @@
         <v>0.6331067085266113</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.01533524527915017</v>
+        <v>0.01883414756964667</v>
       </c>
       <c r="R149" t="n">
-        <v>0.022544083017356</v>
+        <v>0.02601222255112434</v>
       </c>
       <c r="S149" t="n">
-        <v>0.1194560891148135</v>
+        <v>0.1200848291383833</v>
       </c>
       <c r="T149" t="b">
         <v>0</v>
@@ -11967,31 +11967,31 @@
         <v>1.48</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.461783289909363</v>
+        <v>-1.455523729324341</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4788060188293457</v>
+        <v>0.4792852699756622</v>
       </c>
       <c r="E150" t="n">
-        <v>1.032492280006409</v>
+        <v>1.082166790962219</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.07087588310241699</v>
+        <v>-0.07821917533874512</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.06186068058013916</v>
+        <v>-0.06046593189239502</v>
       </c>
       <c r="H150" t="n">
-        <v>0.006985664367675781</v>
+        <v>0.01310110092163086</v>
       </c>
       <c r="I150" t="n">
-        <v>-1.482768494378286</v>
+        <v>-1.479215634400059</v>
       </c>
       <c r="J150" t="n">
-        <v>0.4604900702480049</v>
+        <v>0.4609706672902535</v>
       </c>
       <c r="K150" t="n">
-        <v>1.034560622419795</v>
+        <v>1.086135000011707</v>
       </c>
       <c r="L150" t="n">
         <v>0.05325278237387465</v>
@@ -12009,13 +12009,13 @@
         <v>0.6326320767402649</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.01324702239916914</v>
+        <v>0.01682362681120109</v>
       </c>
       <c r="R150" t="n">
-        <v>0.02119128059272191</v>
+        <v>0.02474414057094965</v>
       </c>
       <c r="S150" t="n">
-        <v>0.1200307234767646</v>
+        <v>0.1205113205190133</v>
       </c>
       <c r="T150" t="b">
         <v>0</v>
@@ -12044,31 +12044,31 @@
         <v>1.49</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.462526559829712</v>
+        <v>-1.456336736679077</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4782099425792694</v>
+        <v>0.4786999523639679</v>
       </c>
       <c r="E151" t="n">
-        <v>1.032556772232056</v>
+        <v>1.082295536994934</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.07736086845397949</v>
+        <v>-0.08388161659240723</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.05707442760467529</v>
+        <v>-0.05625933408737183</v>
       </c>
       <c r="H151" t="n">
-        <v>0.006085634231567383</v>
+        <v>0.01264810562133789</v>
       </c>
       <c r="I151" t="n">
-        <v>-1.485431863740414</v>
+        <v>-1.481743745757076</v>
       </c>
       <c r="J151" t="n">
-        <v>0.4613111262146089</v>
+        <v>0.4616594914149905</v>
       </c>
       <c r="K151" t="n">
-        <v>1.034358630256004</v>
+        <v>1.086126537724239</v>
       </c>
       <c r="L151" t="n">
         <v>0.05323759378511284</v>
@@ -12086,13 +12086,13 @@
         <v>0.6320644021034241</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.01138543561506556</v>
+        <v>0.01508914434880875</v>
       </c>
       <c r="R151" t="n">
-        <v>0.02015511803296244</v>
+        <v>0.02384323601630078</v>
       </c>
       <c r="S151" t="n">
-        <v>0.1209004466358278</v>
+        <v>0.1212488118362093</v>
       </c>
       <c r="T151" t="b">
         <v>0</v>
@@ -12121,31 +12121,31 @@
         <v>1.5</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.463330507278442</v>
+        <v>-1.457201361656189</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4776645302772522</v>
+        <v>0.4781600832939148</v>
       </c>
       <c r="E152" t="n">
-        <v>1.03261399269104</v>
+        <v>1.082419753074646</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.08262395858764648</v>
+        <v>-0.08831024169921875</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.05184710025787354</v>
+        <v>-0.05143284797668457</v>
       </c>
       <c r="H152" t="n">
-        <v>0.005435943603515625</v>
+        <v>0.01213550567626953</v>
       </c>
       <c r="I152" t="n">
-        <v>-1.487794127188309</v>
+        <v>-1.483949762601235</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4623134411280694</v>
+        <v>0.4625815228353025</v>
       </c>
       <c r="K152" t="n">
-        <v>1.034223487811354</v>
+        <v>1.086095491757429</v>
       </c>
       <c r="L152" t="n">
         <v>0.05324947757464216</v>
@@ -12163,13 +12163,13 @@
         <v>0.6313866376876831</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.010086516373191</v>
+        <v>0.01393989698298878</v>
       </c>
       <c r="R152" t="n">
-        <v>0.01979878930033885</v>
+        <v>0.02364315388741289</v>
       </c>
       <c r="S152" t="n">
-        <v>0.121999976724917</v>
+        <v>0.1222680584321501</v>
       </c>
       <c r="T152" t="b">
         <v>0</v>
@@ -12198,31 +12198,31 @@
         <v>1.51</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.464179039001465</v>
+        <v>-1.458102941513062</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4771730005741119</v>
+        <v>0.4776712954044342</v>
       </c>
       <c r="E153" t="n">
-        <v>1.032665491104126</v>
+        <v>1.082538247108459</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.08638501167297363</v>
+        <v>-0.09137392044067383</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.04615485668182373</v>
+        <v>-0.04581809043884277</v>
       </c>
       <c r="H153" t="n">
-        <v>0.004869699478149414</v>
+        <v>0.01142024993896484</v>
       </c>
       <c r="I153" t="n">
-        <v>-1.489756245995671</v>
+        <v>-1.485779303991973</v>
       </c>
       <c r="J153" t="n">
-        <v>0.4635072928283286</v>
+        <v>0.463793395967031</v>
       </c>
       <c r="K153" t="n">
-        <v>1.034107330482741</v>
+        <v>1.085997341075165</v>
       </c>
       <c r="L153" t="n">
         <v>0.05328323673336577</v>
@@ -12240,13 +12240,13 @@
         <v>0.6305822134017944</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.009473921137796099</v>
+        <v>0.01346016704706832</v>
       </c>
       <c r="R153" t="n">
-        <v>0.02028344116100578</v>
+        <v>0.02426038316470436</v>
       </c>
       <c r="S153" t="n">
-        <v>0.1233320515964103</v>
+        <v>0.1236181547351127</v>
       </c>
       <c r="T153" t="b">
         <v>0</v>
@@ -12275,31 +12275,31 @@
         <v>1.52</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.465058207511902</v>
+        <v>-1.459028840065002</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4767414331436157</v>
+        <v>0.4772437214851379</v>
       </c>
       <c r="E154" t="n">
-        <v>1.032711386680603</v>
+        <v>1.082648158073425</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.0892341136932373</v>
+        <v>-0.09351372718811035</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.03962218761444092</v>
+        <v>-0.03898441791534424</v>
       </c>
       <c r="H154" t="n">
-        <v>0.004810094833374023</v>
+        <v>0.01085996627807617</v>
       </c>
       <c r="I154" t="n">
-        <v>-1.491478987606448</v>
+        <v>-1.487353331319513</v>
       </c>
       <c r="J154" t="n">
-        <v>0.4650099432178593</v>
+        <v>0.4654356817725926</v>
       </c>
       <c r="K154" t="n">
-        <v>1.034135578086407</v>
+        <v>1.085937547012537</v>
       </c>
       <c r="L154" t="n">
         <v>0.05331507088487619</v>
@@ -12317,13 +12317,13 @@
         <v>0.6296350359916687</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.009377125941410101</v>
+        <v>0.01352464695462806</v>
       </c>
       <c r="R154" t="n">
-        <v>0.02141385468633716</v>
+        <v>0.02553951097327301</v>
       </c>
       <c r="S154" t="n">
-        <v>0.1249965882011509</v>
+        <v>0.1254223267558843</v>
       </c>
       <c r="T154" t="b">
         <v>0</v>
@@ -12352,31 +12352,31 @@
         <v>1.53</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.46596372127533</v>
+        <v>-1.459973216056824</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4763805568218231</v>
+        <v>0.4768916070461273</v>
       </c>
       <c r="E155" t="n">
-        <v>1.032761693000793</v>
+        <v>1.082755446434021</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.09227395057678223</v>
+        <v>-0.09575486183166504</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.03269016742706299</v>
+        <v>-0.03145039081573486</v>
       </c>
       <c r="H155" t="n">
-        <v>0.00553131103515625</v>
+        <v>0.01067519187927246</v>
       </c>
       <c r="I155" t="n">
-        <v>-1.49328454798321</v>
+        <v>-1.48897652742171</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4667015261339237</v>
+        <v>0.4673655583429326</v>
       </c>
       <c r="K155" t="n">
-        <v>1.034399424877605</v>
+        <v>1.085988868821479</v>
       </c>
       <c r="L155" t="n">
         <v>0.05330009231414756</v>
@@ -12394,13 +12394,13 @@
         <v>0.6285239458084106</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.009439116910498969</v>
+        <v>0.0137960131616929</v>
       </c>
       <c r="R155" t="n">
-        <v>0.02277246648212206</v>
+        <v>0.02708048704362187</v>
       </c>
       <c r="S155" t="n">
-        <v>0.1268501467393925</v>
+        <v>0.1275141789484013</v>
       </c>
       <c r="T155" t="b">
         <v>0</v>
@@ -12429,31 +12429,31 @@
         <v>1.54</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.466903686523438</v>
+        <v>-1.460943937301636</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4760876297950745</v>
+        <v>0.4766147136688232</v>
       </c>
       <c r="E156" t="n">
-        <v>1.032822012901306</v>
+        <v>1.082861661911011</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.09456872940063477</v>
+        <v>-0.09734034538269043</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.02729445695877075</v>
+        <v>-0.02533942461013794</v>
       </c>
       <c r="H156" t="n">
-        <v>0.007170438766479492</v>
+        <v>0.01080036163330078</v>
       </c>
       <c r="I156" t="n">
-        <v>-1.494903960184521</v>
+        <v>-1.490427477787161</v>
       </c>
       <c r="J156" t="n">
-        <v>0.4680061818458424</v>
+        <v>0.4689396232586163</v>
       </c>
       <c r="K156" t="n">
-        <v>1.034945064030405</v>
+        <v>1.086132997123782</v>
       </c>
       <c r="L156" t="n">
         <v>0.05325309697530756</v>
@@ -12471,13 +12471,13 @@
         <v>0.6272291541099548</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.01002421019786294</v>
+        <v>0.0145875879267097</v>
       </c>
       <c r="R156" t="n">
-        <v>0.02498694424205383</v>
+        <v>0.02946342663941381</v>
       </c>
       <c r="S156" t="n">
-        <v>0.128295230994402</v>
+        <v>0.1292286724071759</v>
       </c>
       <c r="T156" t="b">
         <v>0</v>
@@ -12606,19 +12606,19 @@
         <v>155</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08085217631850894</v>
+        <v>0.0737094791009925</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07949776099850225</v>
+        <v>0.07217177660028508</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009377125941410101</v>
+        <v>0.01346016704706832</v>
       </c>
       <c r="K2" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -12737,7 +12737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12763,38 +12763,134 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>bias_all_X_mm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bias_all_Y_mm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>bias_all_Z_mm</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_all_X_mm</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_all_Y_mm</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_all_Z_mm</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>corr_preStep_X</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>corr_preStep_Y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>corr_preStep_Z</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bias_preStep_X_mm</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bias_preStep_Y_mm</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>bias_preStep_Z_mm</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_preStep_X_mm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_preStep_Y_mm</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rmse_preStep_Z_mm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9994432622209184</v>
+        <v>0.9999481927606649</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9990653722781343</v>
+        <v>0.9997699037134662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9949062646948623</v>
+        <v>0.9978394023148122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.993884112810839</v>
+        <v>-0.1871275281820188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996819048808623</v>
+        <v>-1.892119519371171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9963151636458581</v>
+        <v>0.1007839952417276</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5585468684803525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.898761468354297</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2624307870843279</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9994272129555754</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9998423523353253</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9999177061128193</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09784036579747683</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.936589595843901</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.02002525167158307</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2770769387179</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.93861277216012</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.07333715887937979</v>
       </c>
     </row>
   </sheetData>
